--- a/Reverse_anglesIn_0.xlsx
+++ b/Reverse_anglesIn_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,618 +440,3050 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.3664371564615</v>
+        <v>-526.3472030509745</v>
       </c>
       <c r="B2" t="n">
-        <v>-30.48365294450431</v>
+        <v>-30.47620468673013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-516.8404703177098</v>
+        <v>-524.4736779913088</v>
       </c>
       <c r="B3" t="n">
-        <v>-29.09544012365786</v>
+        <v>-30.18958475388656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-507.0348765551696</v>
+        <v>-522.5872033986449</v>
       </c>
       <c r="B4" t="n">
-        <v>-27.84093146182141</v>
+        <v>-29.90881276835049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-496.8879581541865</v>
+        <v>-520.6876946775437</v>
       </c>
       <c r="B5" t="n">
-        <v>-26.67266685037877</v>
+        <v>-29.63354520121449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-486.3974027371788</v>
+        <v>-518.7750457116435</v>
       </c>
       <c r="B6" t="n">
-        <v>-25.56986289532184</v>
+        <v>-29.36345270507736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-475.6110547879447</v>
+        <v>-516.8492212102877</v>
       </c>
       <c r="B7" t="n">
-        <v>-24.53123752488422</v>
+        <v>-29.09825074602439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-464.502475700235</v>
+        <v>-514.9101674327534</v>
       </c>
       <c r="B8" t="n">
-        <v>-23.53678189275199</v>
+        <v>-28.83766653281295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-453.067075405702</v>
+        <v>-512.9578688082988</v>
       </c>
       <c r="B9" t="n">
-        <v>-22.57620586942654</v>
+        <v>-28.58145544906833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-441.3788665601374</v>
+        <v>-510.9923110681352</v>
       </c>
       <c r="B10" t="n">
-        <v>-21.66008931191181</v>
+        <v>-28.32938996339151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-429.4271380935809</v>
+        <v>-509.0135058453289</v>
       </c>
       <c r="B11" t="n">
-        <v>-20.77812896203419</v>
+        <v>-28.08126331401343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-417.1468863202239</v>
+        <v>-507.021482121423</v>
       </c>
       <c r="B12" t="n">
-        <v>-19.90823660591488</v>
+        <v>-27.8368860866632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-404.6595039630812</v>
+        <v>-505.0162505185625</v>
       </c>
       <c r="B13" t="n">
-        <v>-19.07483724590411</v>
+        <v>-27.59607571431908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-391.8800802199513</v>
+        <v>-502.9978363153704</v>
       </c>
       <c r="B14" t="n">
-        <v>-18.25209185629632</v>
+        <v>-27.35866339756385</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-378.9008137662296</v>
+        <v>-500.9663083704347</v>
       </c>
       <c r="B15" t="n">
-        <v>-17.45746439767193</v>
+        <v>-27.12450414023327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-365.6493457779485</v>
+        <v>-498.9216803158042</v>
       </c>
       <c r="B16" t="n">
-        <v>-16.67011604061167</v>
+        <v>-26.89344405947199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-352.1728874897445</v>
+        <v>-496.8640342401368</v>
       </c>
       <c r="B17" t="n">
-        <v>-15.89838259995477</v>
+        <v>-26.66535883441286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-338.5035579061357</v>
+        <v>-494.7934062370233</v>
       </c>
       <c r="B18" t="n">
-        <v>-15.14466639487513</v>
+        <v>-26.44011639916138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-324.6120722466455</v>
+        <v>-492.7098485792596</v>
       </c>
       <c r="B19" t="n">
-        <v>-14.3993689767666</v>
+        <v>-26.2175982476063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-310.4389547863594</v>
+        <v>-490.6134470420977</v>
       </c>
       <c r="B20" t="n">
-        <v>-13.64891614114195</v>
+        <v>-25.99770019197434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-296.1888668471196</v>
+        <v>-488.5042357404968</v>
       </c>
       <c r="B21" t="n">
-        <v>-12.93039926559295</v>
+        <v>-25.78031064897109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-281.726801504082</v>
+        <v>-486.3822983315987</v>
       </c>
       <c r="B22" t="n">
-        <v>-12.21497974997621</v>
+        <v>-25.56533598430622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-267.0474869751354</v>
+        <v>-484.2477089985559</v>
       </c>
       <c r="B23" t="n">
-        <v>-11.49928981151248</v>
+        <v>-25.35268648847702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-252.2560592356868</v>
+        <v>-482.1005046069063</v>
       </c>
       <c r="B24" t="n">
-        <v>-10.80020964432349</v>
+        <v>-25.14226579757115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-237.2404891900013</v>
+        <v>-479.940791521815</v>
       </c>
       <c r="B25" t="n">
-        <v>-10.09527675765704</v>
+        <v>-24.93400204737808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-222.0830049014547</v>
+        <v>-477.7686217431812</v>
       </c>
       <c r="B26" t="n">
-        <v>-9.396804244727749</v>
+        <v>-24.72781176976345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-206.8166896557542</v>
+        <v>-475.5840738250679</v>
       </c>
       <c r="B27" t="n">
-        <v>-8.709110032750802</v>
+        <v>-24.52362310845698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-191.3729577515274</v>
+        <v>-473.3872141442815</v>
       </c>
       <c r="B28" t="n">
-        <v>-8.017440455059033</v>
+        <v>-24.3213641963903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-175.8987039037172</v>
+        <v>-471.1781124276358</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.345971571162898</v>
+        <v>-24.12096784849519</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-160.1963559560739</v>
+        <v>-468.9568674908161</v>
       </c>
       <c r="B30" t="n">
-        <v>-6.657320047823489</v>
+        <v>-23.92237794542077</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-144.4712268244831</v>
+        <v>-466.7235242997001</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.985681227341789</v>
+        <v>-23.72552627187043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-128.6381867344297</v>
+        <v>-464.4781562687113</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.31417229043377</v>
+        <v>-23.53035574072201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-112.750846950619</v>
+        <v>-462.2208691430645</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.649826174240748</v>
+        <v>-23.33682000544729</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-96.8193278643446</v>
+        <v>-459.9517071643301</v>
       </c>
       <c r="B34" t="n">
-        <v>-3.992189202108509</v>
+        <v>-23.14485954055685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-80.68086436404928</v>
+        <v>-457.6707503370602</v>
       </c>
       <c r="B35" t="n">
-        <v>-3.310694715088414</v>
+        <v>-22.95442608047021</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-64.43877310544451</v>
+        <v>-455.3780719573454</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.621960414835641</v>
+        <v>-22.76547194386208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-48.3260376227026</v>
+        <v>-453.0737604705545</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.964440398495312</v>
+        <v>-22.57795569505812</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-32.37726035826057</v>
+        <v>-450.7578668088418</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.340117680493334</v>
+        <v>-22.39182784488871</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-15.82189508272829</v>
+        <v>-448.4304887754113</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.6169747484573943</v>
+        <v>-22.2070528662693</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0.1257339890882191</v>
+        <v>-446.0916757036269</v>
       </c>
       <c r="B40" t="n">
-        <v>7.301682258075761e-15</v>
+        <v>-22.02358528993076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>16.8460364552246</v>
+        <v>-443.7415254156298</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7501047658180174</v>
+        <v>-21.84139251151766</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>32.74300940707079</v>
+        <v>-441.3800931065904</v>
       </c>
       <c r="B42" t="n">
-        <v>1.361677444775244</v>
+        <v>-21.66043374116472</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>48.76978712043124</v>
+        <v>-439.0074496330629</v>
       </c>
       <c r="B43" t="n">
-        <v>1.998402364604987</v>
+        <v>-21.48067346098983</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>64.80811374152674</v>
+        <v>-436.6236817881099</v>
       </c>
       <c r="B44" t="n">
-        <v>2.643750065167659</v>
+        <v>-21.30208107850497</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>81.0920625804379</v>
+        <v>-434.2288536155687</v>
       </c>
       <c r="B45" t="n">
-        <v>3.340042119403294</v>
+        <v>-21.1246220736947</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>97.04222184139724</v>
+        <v>-431.8230288394137</v>
       </c>
       <c r="B46" t="n">
-        <v>3.988133374150616</v>
+        <v>-20.9482631941437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>113.0874164372362</v>
+        <v>-429.4063016769393</v>
       </c>
       <c r="B47" t="n">
-        <v>4.665793282274765</v>
+        <v>-20.77297982424347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>129.0032254917002</v>
+        <v>-426.9787196594624</v>
       </c>
       <c r="B48" t="n">
-        <v>5.336156847160913</v>
+        <v>-20.59873718874188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>144.8106245461567</v>
+        <v>-424.5403765964429</v>
       </c>
       <c r="B49" t="n">
-        <v>6.003434673136352</v>
+        <v>-20.42551259269303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>160.5582833694337</v>
+        <v>-422.0913193645184</v>
       </c>
       <c r="B50" t="n">
-        <v>6.679657635492106</v>
+        <v>-20.25327336136716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>176.1980636184321</v>
+        <v>-419.6316430757205</v>
       </c>
       <c r="B51" t="n">
-        <v>7.357790338933071</v>
+        <v>-20.08199957120074</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>191.6935319941059</v>
+        <v>-417.161401175011</v>
       </c>
       <c r="B52" t="n">
-        <v>8.03372198820186</v>
+        <v>-19.91166159960417</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>207.1546398832043</v>
+        <v>-414.6806595029104</v>
       </c>
       <c r="B53" t="n">
-        <v>8.729276120887782</v>
+        <v>-19.74223492167826</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>222.4362494267129</v>
+        <v>-412.1895111671856</v>
       </c>
       <c r="B54" t="n">
-        <v>9.420131838109851</v>
+        <v>-19.57370076156175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>237.5460835424495</v>
+        <v>-409.6880034927844</v>
       </c>
       <c r="B55" t="n">
-        <v>10.11073096110099</v>
+        <v>-19.40603173337562</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>252.5191299952177</v>
+        <v>-407.1762211723109</v>
       </c>
       <c r="B56" t="n">
-        <v>10.80864478213191</v>
+        <v>-19.23920941456538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>267.3524039271226</v>
+        <v>-404.6542299230811</v>
       </c>
       <c r="B57" t="n">
-        <v>11.51625256172593</v>
+        <v>-19.07321189518987</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>281.9927167216334</v>
+        <v>-402.1220960579145</v>
       </c>
       <c r="B58" t="n">
-        <v>12.22555155194592</v>
+        <v>-18.9080177708606</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>296.4671809272901</v>
+        <v>-399.5798876257906</v>
       </c>
       <c r="B59" t="n">
-        <v>12.94438669514294</v>
+        <v>-18.74360715348916</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>310.751188383268</v>
+        <v>-397.0276689807418</v>
       </c>
       <c r="B60" t="n">
-        <v>13.67042681988424</v>
+        <v>-18.57996013225826</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>324.8778476224666</v>
+        <v>-394.4655298508153</v>
       </c>
       <c r="B61" t="n">
-        <v>14.41283919825507</v>
+        <v>-18.41706250048057</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>338.7790506118218</v>
+        <v>-391.8935101358704</v>
       </c>
       <c r="B62" t="n">
-        <v>15.16084665266724</v>
+        <v>-18.25488999573837</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>352.4363962043605</v>
+        <v>-389.3117038791105</v>
       </c>
       <c r="B63" t="n">
-        <v>15.91374233764267</v>
+        <v>-18.0934309665098</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>365.8916551488791</v>
+        <v>-386.7201601537267</v>
       </c>
       <c r="B64" t="n">
-        <v>16.68261515848886</v>
+        <v>-17.93266412463099</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>379.1511609631729</v>
+        <v>-384.1189631884458</v>
       </c>
       <c r="B65" t="n">
-        <v>17.47261551746631</v>
+        <v>-17.77257674515505</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>392.1284198127567</v>
+        <v>-381.5081678648841</v>
       </c>
       <c r="B66" t="n">
-        <v>18.26828638398276</v>
+        <v>-17.61314979654158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>404.8965937484522</v>
+        <v>-378.8878458070191</v>
       </c>
       <c r="B67" t="n">
-        <v>19.08997460398221</v>
+        <v>-17.45436880048338</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>417.381588848094</v>
+        <v>-376.2580717304365</v>
       </c>
       <c r="B68" t="n">
-        <v>19.92451313590083</v>
+        <v>-17.29622025869391</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>429.6342997416107</v>
+        <v>-373.6189085357614</v>
       </c>
       <c r="B69" t="n">
-        <v>20.78986828750154</v>
+        <v>-17.13868841657499</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>441.5672510538319</v>
+        <v>-370.9704213535983</v>
       </c>
       <c r="B70" t="n">
-        <v>21.66874840055053</v>
+        <v>-16.98175864120638</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>453.2927860062666</v>
+        <v>-368.3126813382383</v>
       </c>
       <c r="B71" t="n">
-        <v>22.59636890242547</v>
+        <v>-16.82541790478638</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>464.670888723478</v>
+        <v>-365.6457532115324</v>
       </c>
       <c r="B72" t="n">
-        <v>23.54449565560386</v>
+        <v>-16.66965228522407</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>475.7453778183342</v>
+        <v>-362.9697110567643</v>
       </c>
       <c r="B73" t="n">
-        <v>24.53111043820741</v>
+        <v>-16.51445000766912</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>486.5743198011792</v>
+        <v>-360.2846101496158</v>
       </c>
       <c r="B74" t="n">
-        <v>25.58431450130971</v>
+        <v>-16.35979594945838</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>497.0240651841008</v>
+        <v>-357.5905270863293</v>
       </c>
       <c r="B75" t="n">
-        <v>26.67765199348261</v>
+        <v>-16.20567960469513</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>507.1672271228913</v>
+        <v>-354.8875377911669</v>
       </c>
       <c r="B76" t="n">
-        <v>27.84753727696509</v>
+        <v>-16.05209078081323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>517.0054516873213</v>
+        <v>-352.1756880406816</v>
       </c>
       <c r="B77" t="n">
-        <v>29.11649188572731</v>
+        <v>-15.89901343560358</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>526.4786631192428</v>
+        <v>-349.4550662725026</v>
       </c>
       <c r="B78" t="n">
-        <v>30.48951440230443</v>
+        <v>-15.74644028395088</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-346.725729889902</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-15.59435829003463</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-343.9877423655303</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-15.44275588655196</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-341.2411760537325</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-15.29162355017352</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-338.4861093025168</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-15.14095314246635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-335.7225934097989</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-14.99073139166122</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-332.950703223969</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-14.84095003544933</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-330.170504973489</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-14.69159919013241</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-327.3820615317619</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-14.54266862303434</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-324.5854531104702</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-14.39415183256744</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-321.780737219365</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-14.24603772340984</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-318.9679906373345</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-14.09831957810699</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-316.1472731556824</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-13.95098729688702</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-313.3186566756283</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-13.80403323269299</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-310.4822121613699</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-13.65744996017221</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-307.6379993002128</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-13.5112278806861</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-304.7861010814561</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-13.36536210786605</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-301.9265710980048</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-13.21984221866099</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-299.0594918350333</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-13.07466361398078</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-296.18491773498</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-12.92981609743331</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-293.302925216938</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-12.78529420727228</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-290.413591503346</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-12.641092517358</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-287.5169757972651</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-12.49720241564429</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-284.613160473918</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-12.35361984718508</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-281.7021884744555</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-12.21033305516144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-278.7841477730352</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-12.06733932070512</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-275.8591151749225</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-11.92463376059208</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-272.9271508138009</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-11.78220826587346</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-269.9883366858234</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-11.640059267259</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-267.0427211132242</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-11.49817671192107</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-264.0904039784929</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-11.35656040821758</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-261.1314281578338</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-11.21519940550414</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-258.1658813246446</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-11.07409154150288</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-255.1938357065515</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-10.93323138747267</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-252.2153450847416</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-10.79261047279823</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-249.2304976230438</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-10.65222680585157</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-246.2393763400055</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-10.51207733746395</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-243.2420245654639</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-10.37215166787509</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-240.2385419770698</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-10.23245008551259</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-237.2289830910518</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-10.09296446973634</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-234.2134252808547</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-9.953690983404773</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-231.1919514667755</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-9.814626889537529</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-228.1646109354797</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-9.675763228319932</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-225.1314981001225</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-9.537099459185251</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-222.0926847338356</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-9.398630912060518</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-219.0482488663033</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-9.260353980743378</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-215.998244955797</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-9.122261026723619</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-212.9427628486621</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-8.984350597554903</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-209.8818797768167</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-8.846619265768243</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-206.8156679257702</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-8.709062597823671</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-203.7441835023594</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-8.571673118019277</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>-200.6675320115318</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-8.434452632915832</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>-197.5857637168321</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-8.29739275206523</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>-194.4989794359595</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-8.160494281712893</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>-191.4072293199507</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-8.023748939112757</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>-188.3106027927361</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-7.887155576392639</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>-185.2091784342015</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-7.750711035638496</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>-182.1030297628303</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-7.614411170898719</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>-178.9922288614686</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-7.478251920332031</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>-175.8768551927111</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-7.34223020454623</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>-172.7569925262934</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-7.206344008196012</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>-169.632709302172</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-7.070588308413032</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>-166.5040897679807</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-6.934961132729519</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>-163.3712128245132</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-6.799459527993418</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>-160.2341520385412</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-6.664079570073309</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>-157.0929756547999</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-6.52881637288426</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>-153.94779111409</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-6.393671986703396</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>-150.798649431139</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-6.258638622233171</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>-147.6456362388753</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-6.123714415600348</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>-144.4888418219402</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-5.988898518592268</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>-141.3283348823309</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-5.854186157850983</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>-138.1642007349489</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-5.719575528325855</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>-134.9965025971995</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-5.585060929810788</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>-131.8253535333198</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-5.450645475615347</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>-128.6508061120787</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-5.316321542328192</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>-125.4729511277737</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-5.182088368814887</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>-122.2918634939859</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-5.047942273795462</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>-119.1076177033884</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-4.913879604453482</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>-115.9203109471446</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-4.779900593002098</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>-112.7300235161008</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-4.646002574415129</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>-109.5368245007582</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-4.512180967896469</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>-106.3408005048322</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-4.378434098006296</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>-103.142031577803</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-4.244759347138616</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>-99.94060469410563</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-4.111155056036116</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>-96.73660004929748</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-3.977618626415653</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>-93.5300984016724</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-3.844147464812317</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>-90.32116442197903</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-3.710736106057841</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>-87.10991203455781</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-3.577387737941168</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>-83.89640579919909</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-3.444096914482535</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>-80.6807321264113</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-3.310862039202214</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>-77.46296672332174</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-3.177679606820992</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>-74.24320218522362</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-3.044548987416311</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>-71.02151365403114</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-2.911466695887443</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>-67.79799382813553</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-2.778432112416336</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>-64.57271303910613</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-2.645440809376598</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>-61.34576923160873</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-2.51249313291966</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>-58.11722702874166</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-2.379583719027726</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>-54.88717953152653</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-2.246711969017529</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>-51.65571340212911</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-2.113876338578191</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>-48.42291578159255</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-1.981075284859781</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>-45.18886288579929</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-1.848305369057342</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>-41.95363075890409</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-1.715563159660556</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>-38.71731782843555</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-1.58284902522729</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>-35.47999999152064</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-1.450159541230565</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>-32.24176477528384</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-1.317493183309199</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>-29.00269951719753</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-1.184848429658827</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>-25.76288020559103</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-1.052221866013909</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>-22.52239464988883</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.9196119755507809</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>-19.28132425438637</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.7870162967391821</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>-16.03975665294326</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.6544333164108854</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>-12.79777370422316</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.5218605761359979</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>-9.555462648528653</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.3892965655085276</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>-6.312900208843121</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.2567378820380586</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>-3.070179010875414</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.1241839635500502</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>0.1726244192368247</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.008368590993067269</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>3.415411663158736</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1409193968462871</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>6.658117346879786</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.2734737474023822</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>9.90064284615241</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.4060312580716448</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>13.14290648217114</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.5385943837116197</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>16.38483174432102</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.6711665267758157</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>19.62632581795809</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8037482507500144</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>22.86731200655376</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9363429608730377</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>26.10769236313056</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.068950275142356</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>29.34740675661478</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.201576444817919</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>32.58634053499418</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.334218247917609</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>35.82443382581928</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.466881941277397</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>39.06159371452812</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.599568098129584</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>42.29774406633911</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.732280139276359</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>45.53279223664642</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.865018642208747</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>48.7666507646181</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.99778513585792</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>51.99924383484117</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2.130583051197533</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>55.23048405955573</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2.263413925265127</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>58.46029549295852</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2.396281200340875</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>61.68858545058891</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2.529185470420537</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>64.91526710129963</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.662128282095225</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>68.14028099928345</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.795115954577836</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>71.36351240950681</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.928145282018597</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>74.58489683528974</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.061221641452031</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>77.8043474289781</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.194346603984034</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>81.02178838722844</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.327523659157598</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>84.2371165914775</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.46075151809358</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>87.45027273423894</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.594036557692839</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>90.66115919152863</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.727378459834678</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>93.86970063842406</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.860780744720024</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>97.07581620479144</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.994245985020691</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>100.2794192210509</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.12777580439575</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>103.4804291893521</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.261372790395626</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>106.6787652061484</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.395039546291565</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>109.8743520786866</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.528779651621216</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>113.0670869690388</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.662591867757172</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>116.2569063622722</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.796481720218827</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>119.4437294049244</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.930451863988502</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>122.627476075345</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.064504956832226</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>125.8080602686188</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5.198642707020118</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>128.9853961997616</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5.332866828155718</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>132.1594149016205</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.467181966380812</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>135.330025351238</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5.601588887104316</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>138.4971530917165</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5.736091296518694</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>141.6607123961695</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.870690968828359</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>144.820640354314</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6.00539360410316</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>147.9768462771784</v>
+      </c>
+      <c r="B238" t="n">
+        <v>6.140200026010383</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>151.1292444045843</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6.275112062933708</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>154.2777669804787</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6.410134487441479</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>157.4223284166665</v>
+      </c>
+      <c r="B241" t="n">
+        <v>6.545269168165356</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>160.5628497490364</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6.680518954341079</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>163.6992515400972</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6.815886728573536</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>166.8314655917337</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6.951377382404331</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>169.9593960560591</v>
+      </c>
+      <c r="B245" t="n">
+        <v>7.086990863564354</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>173.0829918163692</v>
+      </c>
+      <c r="B246" t="n">
+        <v>7.222735099062388</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>176.202157502594</v>
+      </c>
+      <c r="B247" t="n">
+        <v>7.358610074428128</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>179.3168080734908</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7.494617804161166</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>182.4268818502251</v>
+      </c>
+      <c r="B249" t="n">
+        <v>7.630764308447532</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>185.5322891330504</v>
+      </c>
+      <c r="B250" t="n">
+        <v>7.767050633171654</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>188.6329678489116</v>
+      </c>
+      <c r="B251" t="n">
+        <v>7.903482887562093</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>191.7288284647445</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8.040062169805445</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>194.8198033312801</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8.176793659157564</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>197.9058030605296</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8.313678503452497</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>200.986766607871</v>
+      </c>
+      <c r="B255" t="n">
+        <v>8.450722940814899</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>204.0626150384</v>
+      </c>
+      <c r="B256" t="n">
+        <v>8.587930251064568</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>207.1332711236202</v>
+      </c>
+      <c r="B257" t="n">
+        <v>8.725303688278281</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>210.1986560728325</v>
+      </c>
+      <c r="B258" t="n">
+        <v>8.862846600189826</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>213.2586979680641</v>
+      </c>
+      <c r="B259" t="n">
+        <v>9.000563353457325</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>216.3133297967842</v>
+      </c>
+      <c r="B260" t="n">
+        <v>9.138459422814822</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>219.362451745146</v>
+      </c>
+      <c r="B261" t="n">
+        <v>9.276534107170814</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>222.4060195661466</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9.414797091508497</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>225.4439500566386</v>
+      </c>
+      <c r="B263" t="n">
+        <v>9.553250880966663</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>228.4761600614436</v>
+      </c>
+      <c r="B264" t="n">
+        <v>9.691898010470666</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>231.5025771072486</v>
+      </c>
+      <c r="B265" t="n">
+        <v>9.830743164642183</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>234.5231415798937</v>
+      </c>
+      <c r="B266" t="n">
+        <v>9.96979311214429</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>237.5377643147674</v>
+      </c>
+      <c r="B267" t="n">
+        <v>10.10904951147443</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>240.5463792746585</v>
+      </c>
+      <c r="B268" t="n">
+        <v>10.24851823798496</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>243.5489150021525</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10.38820417529696</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>246.5452942253401</v>
+      </c>
+      <c r="B270" t="n">
+        <v>10.52811121965253</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>249.5354511303664</v>
+      </c>
+      <c r="B271" t="n">
+        <v>10.66824544275318</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>252.5193085606271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>10.80861086580464</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>255.4967949236708</v>
+      </c>
+      <c r="B273" t="n">
+        <v>10.94921264437548</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>258.4678449780558</v>
+      </c>
+      <c r="B274" t="n">
+        <v>11.09005704565425</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>261.432369871483</v>
+      </c>
+      <c r="B275" t="n">
+        <v>11.23114616459647</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>264.3903159177707</v>
+      </c>
+      <c r="B276" t="n">
+        <v>11.37248855882594</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>267.3416002550832</v>
+      </c>
+      <c r="B277" t="n">
+        <v>11.51408752708925</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>270.2861689477417</v>
+      </c>
+      <c r="B278" t="n">
+        <v>11.65595183801998</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>273.2239332434033</v>
+      </c>
+      <c r="B279" t="n">
+        <v>11.79808387450842</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>276.154828587243</v>
+      </c>
+      <c r="B280" t="n">
+        <v>11.94049036016366</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279.0787829072635</v>
+      </c>
+      <c r="B281" t="n">
+        <v>12.08317713622878</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281.9957317365922</v>
+      </c>
+      <c r="B282" t="n">
+        <v>12.22615112223383</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>284.9055918987527</v>
+      </c>
+      <c r="B283" t="n">
+        <v>12.36941612316796</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>287.8083161147878</v>
+      </c>
+      <c r="B284" t="n">
+        <v>12.51298258219961</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>290.7038092352855</v>
+      </c>
+      <c r="B285" t="n">
+        <v>12.65685231494704</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>293.5920120286447</v>
+      </c>
+      <c r="B286" t="n">
+        <v>12.8010337961732</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>296.4728713317533</v>
+      </c>
+      <c r="B287" t="n">
+        <v>12.94553674527343</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>299.3462979262456</v>
+      </c>
+      <c r="B288" t="n">
+        <v>13.0903643804925</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>302.2122214277216</v>
+      </c>
+      <c r="B289" t="n">
+        <v>13.23552326647092</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>305.0705822341291</v>
+      </c>
+      <c r="B290" t="n">
+        <v>13.3810224165716</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>307.9213030597575</v>
+      </c>
+      <c r="B291" t="n">
+        <v>13.52686760329569</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>310.7643242774222</v>
+      </c>
+      <c r="B292" t="n">
+        <v>13.67306812502982</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>313.5995810821393</v>
+      </c>
+      <c r="B293" t="n">
+        <v>13.81963224751801</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>316.4269956439912</v>
+      </c>
+      <c r="B294" t="n">
+        <v>13.96656619192552</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>319.2464969959914</v>
+      </c>
+      <c r="B295" t="n">
+        <v>14.11387737176518</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>322.0580314854702</v>
+      </c>
+      <c r="B296" t="n">
+        <v>14.26157685334254</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>324.8615037164732</v>
+      </c>
+      <c r="B297" t="n">
+        <v>14.40966779501751</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>327.6568721100469</v>
+      </c>
+      <c r="B298" t="n">
+        <v>14.55816389526243</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>330.4440678885829</v>
+      </c>
+      <c r="B299" t="n">
+        <v>14.70707388257757</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>333.2229953460098</v>
+      </c>
+      <c r="B300" t="n">
+        <v>14.85640137131674</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>335.9936127723325</v>
+      </c>
+      <c r="B301" t="n">
+        <v>15.00616066613749</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>338.7558686225206</v>
+      </c>
+      <c r="B302" t="n">
+        <v>15.156364666325</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>341.5096436761913</v>
+      </c>
+      <c r="B303" t="n">
+        <v>15.30701269885822</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>344.2549073865875</v>
+      </c>
+      <c r="B304" t="n">
+        <v>15.45812218137144</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>346.991587101889</v>
+      </c>
+      <c r="B305" t="n">
+        <v>15.60970248062707</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>349.7196142534867</v>
+      </c>
+      <c r="B306" t="n">
+        <v>15.76176365243611</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>352.4389121337685</v>
+      </c>
+      <c r="B307" t="n">
+        <v>15.91431498433919</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>355.1494270926013</v>
+      </c>
+      <c r="B308" t="n">
+        <v>16.06737002528819</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>357.8510801970496</v>
+      </c>
+      <c r="B309" t="n">
+        <v>16.22093783878516</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>360.5438066382729</v>
+      </c>
+      <c r="B310" t="n">
+        <v>16.37503089213486</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>363.2275428496633</v>
+      </c>
+      <c r="B311" t="n">
+        <v>16.52966178817274</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>365.9022246532524</v>
+      </c>
+      <c r="B312" t="n">
+        <v>16.68484348963884</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>368.567762831468</v>
+      </c>
+      <c r="B313" t="n">
+        <v>16.84058434372324</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>371.2241263379426</v>
+      </c>
+      <c r="B314" t="n">
+        <v>16.99690480139471</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>373.8712169187363</v>
+      </c>
+      <c r="B315" t="n">
+        <v>17.15381190736361</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>376.5089724900613</v>
+      </c>
+      <c r="B316" t="n">
+        <v>17.31132056084605</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>379.137336572072</v>
+      </c>
+      <c r="B317" t="n">
+        <v>17.46944737383994</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>381.7562409308688</v>
+      </c>
+      <c r="B318" t="n">
+        <v>17.62820672809733</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>384.3656011949115</v>
+      </c>
+      <c r="B319" t="n">
+        <v>17.7876102459717</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>386.9653606749796</v>
+      </c>
+      <c r="B320" t="n">
+        <v>17.94767568169179</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>389.5554528331833</v>
+      </c>
+      <c r="B321" t="n">
+        <v>18.10841937861546</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>392.1358021354193</v>
+      </c>
+      <c r="B322" t="n">
+        <v>18.26985609111383</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>394.7063540947545</v>
+      </c>
+      <c r="B323" t="n">
+        <v>18.4320056722712</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>397.2670258638165</v>
+      </c>
+      <c r="B324" t="n">
+        <v>18.59488261021806</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>399.8177536362505</v>
+      </c>
+      <c r="B325" t="n">
+        <v>18.75850570995274</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>402.3584685722021</v>
+      </c>
+      <c r="B326" t="n">
+        <v>18.92289395656836</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>404.8890949892802</v>
+      </c>
+      <c r="B327" t="n">
+        <v>19.08806437789944</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>407.4095785715107</v>
+      </c>
+      <c r="B328" t="n">
+        <v>19.25404057283519</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>409.919845040956</v>
+      </c>
+      <c r="B329" t="n">
+        <v>19.42084167092697</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>412.419822252892</v>
+      </c>
+      <c r="B330" t="n">
+        <v>19.58848822570659</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>414.9094283812789</v>
+      </c>
+      <c r="B331" t="n">
+        <v>19.75699936300025</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>417.3886151257879</v>
+      </c>
+      <c r="B332" t="n">
+        <v>19.92640265298052</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>419.8573004022459</v>
+      </c>
+      <c r="B333" t="n">
+        <v>20.09671860652347</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>422.3154161322108</v>
+      </c>
+      <c r="B334" t="n">
+        <v>20.26797227402234</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>424.7628986063081</v>
+      </c>
+      <c r="B335" t="n">
+        <v>20.44018991423162</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>427.1996572789531</v>
+      </c>
+      <c r="B336" t="n">
+        <v>20.61339324325366</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>429.6256391806845</v>
+      </c>
+      <c r="B337" t="n">
+        <v>20.78761342528665</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>432.0407666402733</v>
+      </c>
+      <c r="B338" t="n">
+        <v>20.962876660002</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>434.4449663148073</v>
+      </c>
+      <c r="B339" t="n">
+        <v>21.13921200652996</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>436.8381691514398</v>
+      </c>
+      <c r="B340" t="n">
+        <v>21.3166499396289</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>439.2203018709669</v>
+      </c>
+      <c r="B341" t="n">
+        <v>21.49522152118542</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>441.5913002893877</v>
+      </c>
+      <c r="B342" t="n">
+        <v>21.67496128648604</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>443.9510809016919</v>
+      </c>
+      <c r="B343" t="n">
+        <v>21.85590052233794</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>446.2995692755619</v>
+      </c>
+      <c r="B344" t="n">
+        <v>22.03807409164457</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>448.6367001382736</v>
+      </c>
+      <c r="B345" t="n">
+        <v>22.22152060457498</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>450.9624048621395</v>
+      </c>
+      <c r="B346" t="n">
+        <v>22.40627941893662</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>453.2765919478367</v>
+      </c>
+      <c r="B347" t="n">
+        <v>22.59238608554245</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>455.5791954891408</v>
+      </c>
+      <c r="B348" t="n">
+        <v>22.7798839009387</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>457.8701455325519</v>
+      </c>
+      <c r="B349" t="n">
+        <v>22.96881746069</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>460.1493750065135</v>
+      </c>
+      <c r="B350" t="n">
+        <v>23.15923419538481</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>462.4167922057921</v>
+      </c>
+      <c r="B351" t="n">
+        <v>23.35117652399363</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>464.6723354806541</v>
+      </c>
+      <c r="B352" t="n">
+        <v>23.54469797039296</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>466.9159344974843</v>
+      </c>
+      <c r="B353" t="n">
+        <v>23.73985155345317</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>469.1474963314266</v>
+      </c>
+      <c r="B354" t="n">
+        <v>23.93668683087926</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>471.366963288048</v>
+      </c>
+      <c r="B355" t="n">
+        <v>24.13526531675949</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>473.5742486517984</v>
+      </c>
+      <c r="B356" t="n">
+        <v>24.33564376825299</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>475.7692884234614</v>
+      </c>
+      <c r="B357" t="n">
+        <v>24.53788801184913</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>477.9519993870979</v>
+      </c>
+      <c r="B358" t="n">
+        <v>24.74206196065981</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>480.1223246090354</v>
+      </c>
+      <c r="B359" t="n">
+        <v>24.94824019207953</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>482.2801950662918</v>
+      </c>
+      <c r="B360" t="n">
+        <v>25.15649739692712</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>484.4255098496301</v>
+      </c>
+      <c r="B361" t="n">
+        <v>25.36690295969913</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>486.5582237704055</v>
+      </c>
+      <c r="B362" t="n">
+        <v>25.57954671167865</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>488.6782505794302</v>
+      </c>
+      <c r="B363" t="n">
+        <v>25.79451094353706</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>490.7855347812896</v>
+      </c>
+      <c r="B364" t="n">
+        <v>26.01189158281179</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>492.8800095788409</v>
+      </c>
+      <c r="B365" t="n">
+        <v>26.23178616953505</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>494.961606367523</v>
+      </c>
+      <c r="B366" t="n">
+        <v>26.45429793567675</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>497.0302626045175</v>
+      </c>
+      <c r="B367" t="n">
+        <v>26.67953701311761</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>499.0859352644209</v>
+      </c>
+      <c r="B368" t="n">
+        <v>26.90762558585894</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>501.128550796317</v>
+      </c>
+      <c r="B369" t="n">
+        <v>27.13868476702063</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>503.1580634223577</v>
+      </c>
+      <c r="B370" t="n">
+        <v>27.37284997164042</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>505.1744147975543</v>
+      </c>
+      <c r="B371" t="n">
+        <v>27.6102618188581</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>507.1775826033028</v>
+      </c>
+      <c r="B372" t="n">
+        <v>27.85108039735238</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>509.1675273085694</v>
+      </c>
+      <c r="B373" t="n">
+        <v>28.0954703247426</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>511.1442133936517</v>
+      </c>
+      <c r="B374" t="n">
+        <v>28.34360705245109</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>513.1076383016425</v>
+      </c>
+      <c r="B375" t="n">
+        <v>28.59568877589066</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>515.0577754858793</v>
+      </c>
+      <c r="B376" t="n">
+        <v>28.85191773725492</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>516.9946418144401</v>
+      </c>
+      <c r="B377" t="n">
+        <v>29.11252400655075</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>518.9182618923427</v>
+      </c>
+      <c r="B378" t="n">
+        <v>29.37775507210999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>520.8286672211713</v>
+      </c>
+      <c r="B379" t="n">
+        <v>29.6478775150443</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>522.7259058166068</v>
+      </c>
+      <c r="B380" t="n">
+        <v>29.92318114793106</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>524.6100786912355</v>
+      </c>
+      <c r="B381" t="n">
+        <v>30.20399458348015</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>526.4812762673264</v>
+      </c>
+      <c r="B382" t="n">
+        <v>30.49066481068688</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_0.xlsx
+++ b/Reverse_anglesIn_0.xlsx
@@ -440,3050 +440,3050 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.3472030509745</v>
+        <v>-526.3209500055157</v>
       </c>
       <c r="B2" t="n">
-        <v>-30.47620468673013</v>
+        <v>30.46895981468204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-524.4736779913088</v>
+        <v>-524.4479470372619</v>
       </c>
       <c r="B3" t="n">
-        <v>-30.18958475388656</v>
+        <v>30.18261735185105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-522.5872033986449</v>
+        <v>-522.5619826905364</v>
       </c>
       <c r="B4" t="n">
-        <v>-29.90881276835049</v>
+        <v>29.90211143955243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-520.6876946775437</v>
+        <v>-520.662931608397</v>
       </c>
       <c r="B5" t="n">
-        <v>-29.63354520121449</v>
+        <v>29.62708459867983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-518.7750457116435</v>
+        <v>-518.7507575836784</v>
       </c>
       <c r="B6" t="n">
-        <v>-29.36345270507736</v>
+        <v>29.35723248935262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-516.8492212102877</v>
+        <v>-516.8253772395135</v>
       </c>
       <c r="B7" t="n">
-        <v>-29.09825074602439</v>
+        <v>29.09225425243264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-514.9101674327534</v>
+        <v>-514.8867386148538</v>
       </c>
       <c r="B8" t="n">
-        <v>-28.83766653281295</v>
+        <v>28.83187799249755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-512.9578688082988</v>
+        <v>-512.9348661186879</v>
       </c>
       <c r="B9" t="n">
-        <v>-28.58145544906833</v>
+        <v>28.57587363536126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-510.9923110681352</v>
+        <v>-510.96971159504</v>
       </c>
       <c r="B10" t="n">
-        <v>-28.32938996339151</v>
+        <v>28.32400164845155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-509.0135058453289</v>
+        <v>-508.9913052284678</v>
       </c>
       <c r="B11" t="n">
-        <v>-28.08126331401343</v>
+        <v>28.07606236471085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-507.021482121423</v>
+        <v>-506.9996563762015</v>
       </c>
       <c r="B12" t="n">
-        <v>-27.8368860866632</v>
+        <v>27.8318605117626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-505.0162505185625</v>
+        <v>-504.9947869090348</v>
       </c>
       <c r="B13" t="n">
-        <v>-27.59607571431908</v>
+        <v>27.59121681079435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-502.9978363153704</v>
+        <v>-502.9767566420569</v>
       </c>
       <c r="B14" t="n">
-        <v>-27.35866339756385</v>
+        <v>27.35397422070858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-500.9663083704347</v>
+        <v>-500.9455843324719</v>
       </c>
       <c r="B15" t="n">
-        <v>-27.12450414023327</v>
+        <v>27.11997176395216</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-498.9216803158042</v>
+        <v>-498.9013113393704</v>
       </c>
       <c r="B16" t="n">
-        <v>-26.89344405947199</v>
+        <v>26.88906441690665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-496.8640342401368</v>
+        <v>-496.8440001712912</v>
       </c>
       <c r="B17" t="n">
-        <v>-26.66535883441286</v>
+        <v>26.66112225137456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-494.7934062370233</v>
+        <v>-494.7737074712043</v>
       </c>
       <c r="B18" t="n">
-        <v>-26.44011639916138</v>
+        <v>26.43601978107654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-492.7098485792596</v>
+        <v>-492.6904892925363</v>
       </c>
       <c r="B19" t="n">
-        <v>-26.2175982476063</v>
+        <v>26.21363952092852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-490.6134470420977</v>
+        <v>-490.5944085875326</v>
       </c>
       <c r="B20" t="n">
-        <v>-25.99770019197434</v>
+        <v>25.99387076134603</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-488.5042357404968</v>
+        <v>-488.485523249671</v>
       </c>
       <c r="B21" t="n">
-        <v>-25.78031064897109</v>
+        <v>25.77660873092152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-486.3822983315987</v>
+        <v>-486.3639000992166</v>
       </c>
       <c r="B22" t="n">
-        <v>-25.56533598430622</v>
+        <v>25.5617560512568</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-484.2477089985559</v>
+        <v>-484.2296142165903</v>
       </c>
       <c r="B23" t="n">
-        <v>-25.35268648847702</v>
+        <v>25.34922263690954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-482.1005046069063</v>
+        <v>-482.0827291540471</v>
       </c>
       <c r="B24" t="n">
-        <v>-25.14226579757115</v>
+        <v>25.13891955832093</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-479.940791521815</v>
+        <v>-479.923318309864</v>
       </c>
       <c r="B25" t="n">
-        <v>-24.93400204737808</v>
+        <v>24.93076638269421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-477.7686217431812</v>
+        <v>-477.7514408685112</v>
       </c>
       <c r="B26" t="n">
-        <v>-24.72781176976345</v>
+        <v>24.72468144344471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-475.5840738250679</v>
+        <v>-475.5671951964998</v>
       </c>
       <c r="B27" t="n">
-        <v>-24.52362310845698</v>
+        <v>24.52059835085536</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-473.3872141442815</v>
+        <v>-473.3706274944925</v>
       </c>
       <c r="B28" t="n">
-        <v>-24.3213641963903</v>
+        <v>24.31844065195307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-471.1781124276358</v>
+        <v>-471.1618247999816</v>
       </c>
       <c r="B29" t="n">
-        <v>-24.12096784849519</v>
+        <v>24.11814501345723</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-468.9568674908161</v>
+        <v>-468.940872925242</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.92237794542077</v>
+        <v>23.91965211721636</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-466.7235242997001</v>
+        <v>-466.7078104848711</v>
       </c>
       <c r="B31" t="n">
-        <v>-23.72552627187043</v>
+        <v>23.72289229025026</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-464.4781562687113</v>
+        <v>-464.462736640075</v>
       </c>
       <c r="B32" t="n">
-        <v>-23.53035574072201</v>
+        <v>23.52781537446108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-462.2208691430645</v>
+        <v>-462.2057154767515</v>
       </c>
       <c r="B33" t="n">
-        <v>-23.33682000544729</v>
+        <v>23.33436428155985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-459.9517071643301</v>
+        <v>-459.9368368608303</v>
       </c>
       <c r="B34" t="n">
-        <v>-23.14485954055685</v>
+        <v>23.1424909539227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-457.6707503370602</v>
+        <v>-457.6561677880746</v>
       </c>
       <c r="B35" t="n">
-        <v>-22.95442608047021</v>
+        <v>22.95214397455752</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-455.3780719573454</v>
+        <v>-455.3637651849463</v>
       </c>
       <c r="B36" t="n">
-        <v>-22.76547194386208</v>
+        <v>22.76327191687544</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-453.0737604705545</v>
+        <v>-453.0597152692862</v>
       </c>
       <c r="B37" t="n">
-        <v>-22.57795569505812</v>
+        <v>22.57583236588632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-450.7578668088418</v>
+        <v>-450.7441062658509</v>
       </c>
       <c r="B38" t="n">
-        <v>-22.39182784488871</v>
+        <v>22.38978583332456</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-448.4304887754113</v>
+        <v>-448.4169828563089</v>
       </c>
       <c r="B39" t="n">
-        <v>-22.2070528662693</v>
+        <v>22.20508311565503</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-446.0916757036269</v>
+        <v>-446.0784483024984</v>
       </c>
       <c r="B40" t="n">
-        <v>-22.02358528993076</v>
+        <v>22.02169219641556</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-443.7415254156298</v>
+        <v>-443.7285680464067</v>
       </c>
       <c r="B41" t="n">
-        <v>-21.84139251151766</v>
+        <v>21.83957295414289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-441.3800931065904</v>
+        <v>-441.3673951192543</v>
       </c>
       <c r="B42" t="n">
-        <v>-21.66043374116472</v>
+        <v>21.65868364459233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-439.0074496330629</v>
+        <v>-438.995019040299</v>
       </c>
       <c r="B43" t="n">
-        <v>-21.48067346098983</v>
+        <v>21.47899350834041</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-436.6236817881099</v>
+        <v>-436.6115107136291</v>
       </c>
       <c r="B44" t="n">
-        <v>-21.30208107850497</v>
+        <v>21.3004682654454</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-434.2288536155687</v>
+        <v>-434.216934671644</v>
       </c>
       <c r="B45" t="n">
-        <v>-21.1246220736947</v>
+        <v>21.12307336968293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-431.8230288394137</v>
+        <v>-431.8113915930381</v>
       </c>
       <c r="B46" t="n">
-        <v>-20.9482631941437</v>
+        <v>20.94678469772343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-429.4063016769393</v>
+        <v>-429.3949105346652</v>
       </c>
       <c r="B47" t="n">
-        <v>-20.77297982424347</v>
+        <v>20.77156197876188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-426.9787196594624</v>
+        <v>-426.9675926260201</v>
       </c>
       <c r="B48" t="n">
-        <v>-20.59873718874188</v>
+        <v>20.59738293802198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-424.5403765964429</v>
+        <v>-424.5295056155436</v>
       </c>
       <c r="B49" t="n">
-        <v>-20.42551259269303</v>
+        <v>20.42421933096963</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-422.0913193645184</v>
+        <v>-422.0806972971806</v>
       </c>
       <c r="B50" t="n">
-        <v>-20.25327336136716</v>
+        <v>20.25203834685896</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-419.6316430757205</v>
+        <v>-419.6212692187369</v>
       </c>
       <c r="B51" t="n">
-        <v>-20.08199957120074</v>
+        <v>20.08082152047011</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-417.161401175011</v>
+        <v>-417.151273553826</v>
       </c>
       <c r="B52" t="n">
-        <v>-19.91166159960417</v>
+        <v>19.91053956337895</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-414.6806595029104</v>
+        <v>-414.6708024864402</v>
       </c>
       <c r="B53" t="n">
-        <v>-19.74223492167826</v>
+        <v>19.74117324719001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-412.1895111671856</v>
+        <v>-412.1798986416407</v>
       </c>
       <c r="B54" t="n">
-        <v>-19.57370076156175</v>
+        <v>19.57269278185451</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-409.6880034927844</v>
+        <v>-409.6786432714717</v>
       </c>
       <c r="B55" t="n">
-        <v>-19.40603173337562</v>
+        <v>19.4050785638129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-407.1762211723109</v>
+        <v>-407.1671067576169</v>
       </c>
       <c r="B56" t="n">
-        <v>-19.23920941456538</v>
+        <v>19.23830850141663</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-404.6542299230811</v>
+        <v>-404.6453569094813</v>
       </c>
       <c r="B57" t="n">
-        <v>-19.07321189518987</v>
+        <v>19.07236163077455</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-402.1220960579145</v>
+        <v>-402.1134697778352</v>
       </c>
       <c r="B58" t="n">
-        <v>-18.9080177708606</v>
+        <v>18.90721853039033</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-399.5798876257906</v>
+        <v>-399.5715032431371</v>
       </c>
       <c r="B59" t="n">
-        <v>-18.74360715348916</v>
+        <v>18.7428574633572</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-397.0276689807418</v>
+        <v>-397.0195356616037</v>
       </c>
       <c r="B60" t="n">
-        <v>-18.57996013225826</v>
+        <v>18.57926092960198</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-394.4655298508153</v>
+        <v>-394.4576340006365</v>
       </c>
       <c r="B61" t="n">
-        <v>-18.41706250048057</v>
+        <v>18.416410285178</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-391.8935101358704</v>
+        <v>-391.8858629321753</v>
       </c>
       <c r="B62" t="n">
-        <v>-18.25488999573837</v>
+        <v>18.25428658636625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-389.3117038791105</v>
+        <v>-389.3042893209173</v>
       </c>
       <c r="B63" t="n">
-        <v>-18.0934309665098</v>
+        <v>18.09287218552746</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-386.7201601537267</v>
+        <v>-386.7129923121398</v>
       </c>
       <c r="B64" t="n">
-        <v>-17.93266412463099</v>
+        <v>17.93215248862646</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-384.1189631884458</v>
+        <v>-384.1120294816633</v>
       </c>
       <c r="B65" t="n">
-        <v>-17.77257674515505</v>
+        <v>17.77210876417702</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-381.5081678648841</v>
+        <v>-381.5014635421405</v>
       </c>
       <c r="B66" t="n">
-        <v>-17.61314979654158</v>
+        <v>17.61272418891071</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-378.8878458070191</v>
+        <v>-378.8813853470432</v>
       </c>
       <c r="B67" t="n">
-        <v>-17.45436880048338</v>
+        <v>17.45398801665599</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-376.2580717304365</v>
+        <v>-376.2518483921783</v>
       </c>
       <c r="B68" t="n">
-        <v>-17.29622025869391</v>
+        <v>17.29588223748921</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-373.6189085357614</v>
+        <v>-373.6129180285574</v>
       </c>
       <c r="B69" t="n">
-        <v>-17.13868841657499</v>
+        <v>17.13839185755111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-370.9704213535983</v>
+        <v>-370.9646569795685</v>
       </c>
       <c r="B70" t="n">
-        <v>-16.98175864120638</v>
+        <v>16.98150155760036</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-368.3126813382383</v>
+        <v>-368.307154618633</v>
       </c>
       <c r="B71" t="n">
-        <v>-16.82541790478638</v>
+        <v>16.82520210954121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-365.6457532115324</v>
+        <v>-365.6404627313224</v>
       </c>
       <c r="B72" t="n">
-        <v>-16.66965228522407</v>
+        <v>16.66947717531342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-362.9697110567643</v>
+        <v>-362.9646410439397</v>
       </c>
       <c r="B73" t="n">
-        <v>-16.51445000766912</v>
+        <v>16.51431179695347</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-360.2846101496158</v>
+        <v>-360.2797716173147</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.35979594945838</v>
+        <v>16.35969652565372</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-357.5905270863293</v>
+        <v>-357.5859128926795</v>
       </c>
       <c r="B75" t="n">
-        <v>-16.20567960469513</v>
+        <v>16.20561714842691</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-354.8875377911669</v>
+        <v>-354.8831560323578</v>
       </c>
       <c r="B76" t="n">
-        <v>-16.05209078081323</v>
+        <v>16.05206654012009</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-352.1756880406816</v>
+        <v>-352.1715348921624</v>
       </c>
       <c r="B77" t="n">
-        <v>-15.89901343560358</v>
+        <v>15.89902619758993</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-349.4550662725026</v>
+        <v>-349.4511317474088</v>
       </c>
       <c r="B78" t="n">
-        <v>-15.74644028395088</v>
+        <v>15.74648766643109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-346.725729889902</v>
+        <v>-346.7220130370501</v>
       </c>
       <c r="B79" t="n">
-        <v>-15.59435829003463</v>
+        <v>15.59443975583335</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-343.9877423655303</v>
+        <v>-343.9842602169075</v>
       </c>
       <c r="B80" t="n">
-        <v>-15.44275588655196</v>
+        <v>15.44287450541905</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-341.2411760537325</v>
+        <v>-341.2379157727331</v>
       </c>
       <c r="B81" t="n">
-        <v>-15.29162355017352</v>
+        <v>15.29177637471872</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-338.4861093025168</v>
+        <v>-338.4830547944313</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.14095314246635</v>
+        <v>15.14113670805183</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-335.7225934097989</v>
+        <v>-335.7197559666628</v>
       </c>
       <c r="B83" t="n">
-        <v>-14.99073139166122</v>
+        <v>14.99094755830849</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-332.950703223969</v>
+        <v>-332.9480846806693</v>
       </c>
       <c r="B84" t="n">
-        <v>-14.84095003544933</v>
+        <v>14.84119892222046</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-330.170504973489</v>
+        <v>-330.1681071475258</v>
       </c>
       <c r="B85" t="n">
-        <v>-14.69159919013241</v>
+        <v>14.69188091774833</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-327.3820615317619</v>
+        <v>-327.3798862233397</v>
       </c>
       <c r="B86" t="n">
-        <v>-14.54266862303434</v>
+        <v>14.5429833138509</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-324.5854531104702</v>
+        <v>-324.5834879778962</v>
       </c>
       <c r="B87" t="n">
-        <v>-14.39415183256744</v>
+        <v>14.39449664021209</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-321.780737219365</v>
+        <v>-321.7789892566498</v>
       </c>
       <c r="B88" t="n">
-        <v>-14.24603772340984</v>
+        <v>14.24641402267901</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-318.9679906373345</v>
+        <v>-318.9664507762616</v>
       </c>
       <c r="B89" t="n">
-        <v>-14.09831957810699</v>
+        <v>14.09872511810034</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-316.1472731556824</v>
+        <v>-316.1459347166937</v>
       </c>
       <c r="B90" t="n">
-        <v>-13.95098729688702</v>
+        <v>13.95142048601543</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-313.3186566756283</v>
+        <v>-313.3175411126151</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.80403323269299</v>
+        <v>13.80449833515382</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-310.4822121613699</v>
+        <v>-310.4812898374654</v>
       </c>
       <c r="B92" t="n">
-        <v>-13.65744996017221</v>
+        <v>13.65794077094083</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-307.6379993002128</v>
+        <v>-307.6372920508073</v>
       </c>
       <c r="B93" t="n">
-        <v>-13.5112278806861</v>
+        <v>13.51174861300277</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-304.7861010814561</v>
+        <v>-304.7855965737814</v>
       </c>
       <c r="B94" t="n">
-        <v>-13.36536210786605</v>
+        <v>13.36591005194398</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-301.9265710980048</v>
+        <v>-301.9262682298449</v>
       </c>
       <c r="B95" t="n">
-        <v>-13.21984221866099</v>
+        <v>13.22041699459906</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-299.0594918350333</v>
+        <v>-299.0593834678788</v>
       </c>
       <c r="B96" t="n">
-        <v>-13.07466361398078</v>
+        <v>13.07526373922262</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-296.18491773498</v>
+        <v>-296.1850203820026</v>
       </c>
       <c r="B97" t="n">
-        <v>-12.92981609743331</v>
+        <v>12.93044456236887</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-293.302925216938</v>
+        <v>-293.3032201123488</v>
       </c>
       <c r="B98" t="n">
-        <v>-12.78529420727228</v>
+        <v>12.78594730028135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-290.413591503346</v>
+        <v>-290.4140890940761</v>
       </c>
       <c r="B99" t="n">
-        <v>-12.641092517358</v>
+        <v>12.641772119318</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-287.5169757972651</v>
+        <v>-287.5176693335586</v>
       </c>
       <c r="B100" t="n">
-        <v>-12.49720241564429</v>
+        <v>12.49790704912911</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-284.613160473918</v>
+        <v>-284.6140372226678</v>
       </c>
       <c r="B101" t="n">
-        <v>-12.35361984718508</v>
+        <v>12.35434696350926</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-281.7021884744555</v>
+        <v>-281.7032703667011</v>
       </c>
       <c r="B102" t="n">
-        <v>-12.21033305516144</v>
+        <v>12.21108673983932</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-278.7841477730352</v>
+        <v>-278.7854335852587</v>
       </c>
       <c r="B103" t="n">
-        <v>-12.06733932070512</v>
+        <v>12.06811923078231</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-275.8591151749225</v>
+        <v>-275.8605865910004</v>
       </c>
       <c r="B104" t="n">
-        <v>-11.92463376059208</v>
+        <v>11.92543626770419</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-272.9271508138009</v>
+        <v>-272.9288117756543</v>
       </c>
       <c r="B105" t="n">
-        <v>-11.78220826587346</v>
+        <v>11.78303418881602</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-269.9883366858234</v>
+        <v>-269.9901748618988</v>
       </c>
       <c r="B106" t="n">
-        <v>-11.640059267259</v>
+        <v>11.6409060992191</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-267.0427211132242</v>
+        <v>-267.0447582494876</v>
       </c>
       <c r="B107" t="n">
-        <v>-11.49817671192107</v>
+        <v>11.49904849009149</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-264.0904039784929</v>
+        <v>-264.0926103014244</v>
       </c>
       <c r="B108" t="n">
-        <v>-11.35656040821758</v>
+        <v>11.35745141530824</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-261.1314281578338</v>
+        <v>-261.1338194236249</v>
       </c>
       <c r="B109" t="n">
-        <v>-11.21519940550414</v>
+        <v>11.21611260405959</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-258.1658813246446</v>
+        <v>-258.1684566317879</v>
       </c>
       <c r="B110" t="n">
-        <v>-11.07409154150288</v>
+        <v>11.07502662001487</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-255.1938357065515</v>
+        <v>-255.1965819322419</v>
       </c>
       <c r="B111" t="n">
-        <v>-10.93323138747267</v>
+        <v>10.93418594664655</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-252.2153450847416</v>
+        <v>-252.2182778904401</v>
       </c>
       <c r="B112" t="n">
-        <v>-10.79261047279823</v>
+        <v>10.79358744966037</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-249.2304976230438</v>
+        <v>-249.2336105298114</v>
       </c>
       <c r="B113" t="n">
-        <v>-10.65222680585157</v>
+        <v>10.65322482627247</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-246.2393763400055</v>
+        <v>-246.2426507075173</v>
       </c>
       <c r="B114" t="n">
-        <v>-10.51207733746395</v>
+        <v>10.51309296544647</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-243.2420245654639</v>
+        <v>-243.2454814958002</v>
       </c>
       <c r="B115" t="n">
-        <v>-10.37215166787509</v>
+        <v>10.37318889458071</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-240.2385419770698</v>
+        <v>-240.2421635749985</v>
       </c>
       <c r="B116" t="n">
-        <v>-10.23245008551259</v>
+        <v>10.23350545782563</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-237.2289830910518</v>
+        <v>-237.2327790037845</v>
       </c>
       <c r="B117" t="n">
-        <v>-10.09296446973634</v>
+        <v>10.09403985710317</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-234.2134252808547</v>
+        <v>-234.2173886192221</v>
       </c>
       <c r="B118" t="n">
-        <v>-9.953690983404773</v>
+        <v>9.954785076102587</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-231.1919514667755</v>
+        <v>-231.1960753389904</v>
       </c>
       <c r="B119" t="n">
-        <v>-9.814626889537529</v>
+        <v>9.815738391174136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>-228.1646109354797</v>
+        <v>-228.1689049313135</v>
       </c>
       <c r="B120" t="n">
-        <v>-9.675763228319932</v>
+        <v>9.67689400021129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>-225.1314981001225</v>
+        <v>-225.1359556525492</v>
       </c>
       <c r="B121" t="n">
-        <v>-9.537099459185251</v>
+        <v>9.53824819691593</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>-222.0926847338356</v>
+        <v>-222.0973040578197</v>
       </c>
       <c r="B122" t="n">
-        <v>-9.398630912060518</v>
+        <v>9.399797396932096</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>-219.0482488663033</v>
+        <v>-219.053017207747</v>
       </c>
       <c r="B123" t="n">
-        <v>-9.260353980743378</v>
+        <v>9.261535917649164</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>-215.998244955797</v>
+        <v>-216.0031779981518</v>
       </c>
       <c r="B124" t="n">
-        <v>-9.122261026723619</v>
+        <v>9.123461279835389</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>-212.9427628486621</v>
+        <v>-212.9478532963885</v>
       </c>
       <c r="B125" t="n">
-        <v>-8.984350597554903</v>
+        <v>8.985567917443968</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>-209.8818797768167</v>
+        <v>-209.8871148678043</v>
       </c>
       <c r="B126" t="n">
-        <v>-8.846619265768243</v>
+        <v>8.847851382484558</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>-206.8156679257702</v>
+        <v>-206.8210523162889</v>
       </c>
       <c r="B127" t="n">
-        <v>-8.709062597823671</v>
+        <v>8.710310305981931</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>-203.7441835023594</v>
+        <v>-203.7497266213126</v>
       </c>
       <c r="B128" t="n">
-        <v>-8.571673118019277</v>
+        <v>8.572938259111648</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>-200.6675320115318</v>
+        <v>-200.6732152873514</v>
       </c>
       <c r="B129" t="n">
-        <v>-8.434452632915832</v>
+        <v>8.435731945032444</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>-197.5857637168321</v>
+        <v>-197.5916029841501</v>
       </c>
       <c r="B130" t="n">
-        <v>-8.29739275206523</v>
+        <v>8.29868906171057</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>-194.4989794359595</v>
+        <v>-194.5049558060952</v>
       </c>
       <c r="B131" t="n">
-        <v>-8.160494281712893</v>
+        <v>8.16180435802827</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>-191.4072293199507</v>
+        <v>-191.4133470276406</v>
       </c>
       <c r="B132" t="n">
-        <v>-8.023748939112757</v>
+        <v>8.025073591715993</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>-188.3106027927361</v>
+        <v>-188.3168605900732</v>
       </c>
       <c r="B133" t="n">
-        <v>-7.887155576392639</v>
+        <v>7.888494598352859</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>-185.2091784342015</v>
+        <v>-185.2155689854326</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.750711035638496</v>
+        <v>7.752063232587599</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>-182.1030297628303</v>
+        <v>-182.1095511846597</v>
       </c>
       <c r="B135" t="n">
-        <v>-7.614411170898719</v>
+        <v>7.615776364851915</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>-178.9922288614686</v>
+        <v>-178.9988856200462</v>
       </c>
       <c r="B136" t="n">
-        <v>-7.478251920332031</v>
+        <v>7.479630913255447</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>-175.8768551927111</v>
+        <v>-175.8836565570712</v>
       </c>
       <c r="B137" t="n">
-        <v>-7.34223020454623</v>
+        <v>7.343624816954421</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>-172.7569925262934</v>
+        <v>-172.7639093763262</v>
       </c>
       <c r="B138" t="n">
-        <v>-7.206344008196012</v>
+        <v>7.20774904790652</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>-169.632709302172</v>
+        <v>-169.6397563311421</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.070588308413032</v>
+        <v>7.072006603252816</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>-166.5040897679807</v>
+        <v>-166.5112599039525</v>
       </c>
       <c r="B140" t="n">
-        <v>-6.934961132729519</v>
+        <v>6.936391504512319</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>-163.3712128245132</v>
+        <v>-163.3785044221037</v>
       </c>
       <c r="B141" t="n">
-        <v>-6.799459527993418</v>
+        <v>6.800901801912753</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>-160.2341520385412</v>
+        <v>-160.2415637277344</v>
       </c>
       <c r="B142" t="n">
-        <v>-6.664079570073309</v>
+        <v>6.665533566229775</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>-157.0929756547999</v>
+        <v>-157.1005166147034</v>
       </c>
       <c r="B143" t="n">
-        <v>-6.52881637288426</v>
+        <v>6.53028390357689</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>-153.94779111409</v>
+        <v>-153.9554373999102</v>
       </c>
       <c r="B144" t="n">
-        <v>-6.393671986703396</v>
+        <v>6.395148930852366</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>-150.798649431139</v>
+        <v>-150.8064161877569</v>
       </c>
       <c r="B145" t="n">
-        <v>-6.258638622233171</v>
+        <v>6.260127769820247</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>-147.6456362388753</v>
+        <v>-147.653521759509</v>
       </c>
       <c r="B146" t="n">
-        <v>-6.123714415600348</v>
+        <v>6.125215597965129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>-144.4888418219402</v>
+        <v>-144.4968275960122</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.988898518592268</v>
+        <v>5.99040862788886</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>-141.3283348823309</v>
+        <v>-141.3364305742743</v>
       </c>
       <c r="B148" t="n">
-        <v>-5.854186157850983</v>
+        <v>5.855706992162077</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>-138.1642007349489</v>
+        <v>-138.1723992008402</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.719575528325855</v>
+        <v>5.721105946811651</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>-134.9965025971995</v>
+        <v>-135.0048183303786</v>
       </c>
       <c r="B150" t="n">
-        <v>-5.585060929810788</v>
+        <v>5.58660371431647</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>-131.8253535333198</v>
+        <v>-131.83375721047</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.450645475615347</v>
+        <v>5.452195584545723</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>-128.6508061120787</v>
+        <v>-128.6593016616121</v>
       </c>
       <c r="B152" t="n">
-        <v>-5.316321542328192</v>
+        <v>5.317879800062957</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>-125.4729511277737</v>
+        <v>-125.4815424550374</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.182088368814887</v>
+        <v>5.183655596977058</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>-122.2918634939859</v>
+        <v>-122.3005542282172</v>
       </c>
       <c r="B154" t="n">
-        <v>-5.047942273795462</v>
+        <v>5.04951929548339</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>-119.1076177033884</v>
+        <v>-119.1164060595936</v>
       </c>
       <c r="B155" t="n">
-        <v>-4.913879604453482</v>
+        <v>4.91546626824067</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>-115.9203109471446</v>
+        <v>-115.9291840836481</v>
       </c>
       <c r="B156" t="n">
-        <v>-4.779900593002098</v>
+        <v>4.781494811956255</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>-112.7300235161008</v>
+        <v>-112.7389850393786</v>
       </c>
       <c r="B157" t="n">
-        <v>-4.646002574415129</v>
+        <v>4.64760517357079</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>-109.5368245007582</v>
+        <v>-109.5458674599286</v>
       </c>
       <c r="B158" t="n">
-        <v>-4.512180967896469</v>
+        <v>4.51379083126209</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>-106.3408005048322</v>
+        <v>-106.3499282390868</v>
       </c>
       <c r="B159" t="n">
-        <v>-4.378434098006296</v>
+        <v>4.380052053604679</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>-103.142031577803</v>
+        <v>-103.1512427539577</v>
       </c>
       <c r="B160" t="n">
-        <v>-4.244759347138616</v>
+        <v>4.246385246415519</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>-99.94060469410563</v>
+        <v>-99.94989136854019</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.111155056036116</v>
+        <v>4.112787801649064</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>-96.73660004929748</v>
+        <v>-96.74595524573519</v>
       </c>
       <c r="B162" t="n">
-        <v>-3.977618626415653</v>
+        <v>3.979257114265228</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>-93.5300984016724</v>
+        <v>-93.53952591090258</v>
       </c>
       <c r="B163" t="n">
-        <v>-3.844147464812317</v>
+        <v>3.845792518928382</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>-90.32116442197903</v>
+        <v>-90.3306734055017</v>
       </c>
       <c r="B164" t="n">
-        <v>-3.710736106057841</v>
+        <v>3.712389509287564</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>-87.10991203455781</v>
+        <v>-87.11948939389166</v>
       </c>
       <c r="B165" t="n">
-        <v>-3.577387737941168</v>
+        <v>3.579047435631556</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>-83.89640579919909</v>
+        <v>-83.90604429450177</v>
       </c>
       <c r="B166" t="n">
-        <v>-3.444096914482535</v>
+        <v>3.445761813140363</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>-80.6807321264113</v>
+        <v>-80.69043012719757</v>
       </c>
       <c r="B167" t="n">
-        <v>-3.310862039202214</v>
+        <v>3.312532005031693</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>-77.46296672332174</v>
+        <v>-77.47273335161529</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.177679606820992</v>
+        <v>3.179356420779543</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>-74.24320218522362</v>
+        <v>-74.25302411862549</v>
       </c>
       <c r="B169" t="n">
-        <v>-3.044548987416311</v>
+        <v>3.046230608174044</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>-71.02151365403114</v>
+        <v>-71.03138946779978</v>
       </c>
       <c r="B170" t="n">
-        <v>-2.911466695887443</v>
+        <v>2.913152990647172</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>-67.79799382813553</v>
+        <v>-67.80792701483203</v>
       </c>
       <c r="B171" t="n">
-        <v>-2.778432112416336</v>
+        <v>2.780123906420734</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>-64.57271303910613</v>
+        <v>-64.58269632875601</v>
       </c>
       <c r="B172" t="n">
-        <v>-2.645440809376598</v>
+        <v>2.647137019076048</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>-61.34576923160873</v>
+        <v>-61.35579513112401</v>
       </c>
       <c r="B173" t="n">
-        <v>-2.51249313291966</v>
+        <v>2.514192678535426</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>-58.11722702874166</v>
+        <v>-58.12729945723294</v>
       </c>
       <c r="B174" t="n">
-        <v>-2.379583719027726</v>
+        <v>2.381287424933994</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>-54.88717953152653</v>
+        <v>-54.89730711333954</v>
       </c>
       <c r="B175" t="n">
-        <v>-2.246711969017529</v>
+        <v>2.248421612557848</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>-51.65571340212911</v>
+        <v>-51.66588347739155</v>
       </c>
       <c r="B176" t="n">
-        <v>-2.113876338578191</v>
+        <v>2.115589889186911</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>-48.42291578159255</v>
+        <v>-48.43311547483003</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.981075284859781</v>
+        <v>1.982790716671695</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>-45.18886288579929</v>
+        <v>-45.1990956583507</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.848305369057342</v>
+        <v>1.850023508759819</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>-41.95363075890409</v>
+        <v>-41.9639058674862</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.715563159660556</v>
+        <v>1.717285781251364</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>-38.71731782843555</v>
+        <v>-38.72762217724998</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.58284902522729</v>
+        <v>1.584574106496285</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>-35.47999999152064</v>
+        <v>-35.49033187063916</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.450159541230565</v>
+        <v>1.451886958721586</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>-32.24176477528384</v>
+        <v>-32.25212762785644</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.317493183309199</v>
+        <v>1.31922376246698</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>-29.00269951719753</v>
+        <v>-29.01307509127257</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.184848429658827</v>
+        <v>1.186579204195945</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>-25.76288020559103</v>
+        <v>-25.77328310259912</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.052221866013909</v>
+        <v>1.053955557116034</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>-22.52239464988883</v>
+        <v>-22.5328117746925</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.9196119755507809</v>
+        <v>0.9213465666531531</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>-19.28132425438637</v>
+        <v>-19.29176483067081</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.7870162967391821</v>
+        <v>0.7887535603924168</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>-16.03975665294326</v>
+        <v>-16.0502022168778</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.6544333164108854</v>
+        <v>0.6561702905680197</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>-12.79777370422316</v>
+        <v>-12.80822768719755</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.5218605761359979</v>
+        <v>0.5235980868076636</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>-9.555462648528653</v>
+        <v>-9.565934266600436</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.3892965655085276</v>
+        <v>0.3910363847762161</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>-6.312900208843121</v>
+        <v>-6.323376575789477</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.2567378820380586</v>
+        <v>0.2584779959552746</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>-3.070179010875414</v>
+        <v>-3.080658186022802</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.1241839635500502</v>
+        <v>0.1259242514358974</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>0.1726244192368247</v>
+        <v>0.1621387999721795</v>
       </c>
       <c r="B192" t="n">
-        <v>0.008368590993067269</v>
+        <v>-0.006627303440934691</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>3.415411663158736</v>
+        <v>3.404932694777011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1409193968462871</v>
+        <v>-0.1391791229783856</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>6.658117346879786</v>
+        <v>6.64764139343102</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2734737474023822</v>
+        <v>-0.2717336615223958</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>9.90064284615241</v>
+        <v>9.890166270743846</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4060312580716448</v>
+        <v>-0.4042905343660159</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>13.14290648217114</v>
+        <v>13.13243680176767</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5385943837116197</v>
+        <v>-0.5368540892902213</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>16.38483174432102</v>
+        <v>16.37437626644921</v>
       </c>
       <c r="B197" t="n">
-        <v>0.6711665267758157</v>
+        <v>-0.6694277292077621</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>19.62632581795809</v>
+        <v>19.61588648083842</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8037482507500144</v>
+        <v>-0.8020110712669887</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>22.86731200655376</v>
+        <v>22.85689095781071</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9363429608730377</v>
+        <v>-0.9346075207876816</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>26.10769236313056</v>
+        <v>26.09729111690158</v>
       </c>
       <c r="B200" t="n">
-        <v>1.068950275142356</v>
+        <v>-1.067216696367124</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>29.34740675661478</v>
+        <v>29.33702208733256</v>
       </c>
       <c r="B201" t="n">
-        <v>1.201576444817919</v>
+        <v>-1.199843901295098</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>32.58634053499418</v>
+        <v>32.57598511398317</v>
       </c>
       <c r="B202" t="n">
-        <v>1.334218247917609</v>
+        <v>-1.332488757457292</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>35.82443382581928</v>
+        <v>35.8141095834069</v>
       </c>
       <c r="B203" t="n">
-        <v>1.466881941277397</v>
+        <v>-1.465155627039892</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>39.06159371452812</v>
+        <v>39.05130279237452</v>
       </c>
       <c r="B204" t="n">
-        <v>1.599568098129584</v>
+        <v>-1.59784508329234</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>42.29774406633911</v>
+        <v>42.28747721807694</v>
       </c>
       <c r="B205" t="n">
-        <v>1.732280139276359</v>
+        <v>-1.730558649713433</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>45.53279223664642</v>
+        <v>45.52255116469627</v>
       </c>
       <c r="B206" t="n">
-        <v>1.865018642208747</v>
+        <v>-1.863298801021858</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>48.7666507646181</v>
+        <v>48.75644877760389</v>
       </c>
       <c r="B207" t="n">
-        <v>1.99778513585792</v>
+        <v>-1.996068965163015</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>51.99924383484117</v>
+        <v>51.98908800680759</v>
       </c>
       <c r="B208" t="n">
-        <v>2.130583051197533</v>
+        <v>-2.128871627744429</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>55.23048405955573</v>
+        <v>55.22036555414184</v>
       </c>
       <c r="B209" t="n">
-        <v>2.263413925265127</v>
+        <v>-2.261705472706421</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>58.46029549295852</v>
+        <v>58.45021599682435</v>
       </c>
       <c r="B210" t="n">
-        <v>2.396281200340875</v>
+        <v>-2.394575844518177</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>61.68858545058891</v>
+        <v>61.67855783752847</v>
       </c>
       <c r="B211" t="n">
-        <v>2.529185470420537</v>
+        <v>-2.527485241859197</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>64.91526710129963</v>
+        <v>64.90529887212591</v>
       </c>
       <c r="B212" t="n">
-        <v>2.662128282095225</v>
+        <v>-2.660434262078227</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>68.14028099928345</v>
+        <v>68.13035187082468</v>
       </c>
       <c r="B213" t="n">
-        <v>2.795115954577836</v>
+        <v>-2.793424459675225</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>71.36351240950681</v>
+        <v>71.3536410755422</v>
       </c>
       <c r="B214" t="n">
-        <v>2.928145282018597</v>
+        <v>-2.926459299803378</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>74.58489683528974</v>
+        <v>74.57508495918665</v>
       </c>
       <c r="B215" t="n">
-        <v>3.061221641452031</v>
+        <v>-3.0595413038509</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>77.8043474289781</v>
+        <v>77.79459689246265</v>
       </c>
       <c r="B216" t="n">
-        <v>3.194346603984034</v>
+        <v>-3.192672042490938</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>81.02178838722844</v>
+        <v>81.01209007147085</v>
       </c>
       <c r="B217" t="n">
-        <v>3.327523659157598</v>
+        <v>-3.325853092126767</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>84.2371165914775</v>
+        <v>84.22749412617605</v>
       </c>
       <c r="B218" t="n">
-        <v>3.46075151809358</v>
+        <v>-3.459088908228548</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>87.45027273423894</v>
+        <v>87.44071160040333</v>
       </c>
       <c r="B219" t="n">
-        <v>3.594036557692839</v>
+        <v>-3.592379165534927</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>90.66115919152863</v>
+        <v>90.65166686290817</v>
       </c>
       <c r="B220" t="n">
-        <v>3.727378459834678</v>
+        <v>-3.725727377003012</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>93.86970063842406</v>
+        <v>93.86027896720056</v>
       </c>
       <c r="B221" t="n">
-        <v>3.860780744720024</v>
+        <v>-3.859136106770573</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>97.07581620479144</v>
+        <v>97.06646117034272</v>
       </c>
       <c r="B222" t="n">
-        <v>3.994245985020691</v>
+        <v>-3.992606970356985</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>100.2794192210509</v>
+        <v>100.2701385231302</v>
       </c>
       <c r="B223" t="n">
-        <v>4.12777580439575</v>
+        <v>-4.126143507617892</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>103.4804291893521</v>
+        <v>103.4712300518529</v>
       </c>
       <c r="B224" t="n">
-        <v>4.261372790395626</v>
+        <v>-4.259748314968111</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>106.6787652061484</v>
+        <v>106.6696438182927</v>
       </c>
       <c r="B225" t="n">
-        <v>4.395039546291565</v>
+        <v>-4.393422070398856</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>109.8743520786866</v>
+        <v>109.8653102535903</v>
       </c>
       <c r="B226" t="n">
-        <v>4.528779651621216</v>
+        <v>-4.527169315912123</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>113.0670869690388</v>
+        <v>113.0581378027537</v>
       </c>
       <c r="B227" t="n">
-        <v>4.662591867757172</v>
+        <v>-4.660990745154594</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>116.2569063622722</v>
+        <v>116.2480460176158</v>
       </c>
       <c r="B228" t="n">
-        <v>4.796481720218827</v>
+        <v>-4.794888991194417</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>119.4437294049244</v>
+        <v>119.4349650796665</v>
       </c>
       <c r="B229" t="n">
-        <v>4.930451863988502</v>
+        <v>-4.928868646478103</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>122.627476075345</v>
+        <v>122.6187928440397</v>
       </c>
       <c r="B230" t="n">
-        <v>5.064504956832226</v>
+        <v>-5.062928489677017</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>125.8080602686188</v>
+        <v>125.7994709611893</v>
       </c>
       <c r="B231" t="n">
-        <v>5.198642707020118</v>
+        <v>-5.197075078963247</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>128.9853961997616</v>
+        <v>128.9769025829471</v>
       </c>
       <c r="B232" t="n">
-        <v>5.332866828155718</v>
+        <v>-5.331308189576799</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>132.1594149016205</v>
+        <v>132.1510135880785</v>
       </c>
       <c r="B233" t="n">
-        <v>5.467181966380812</v>
+        <v>-5.465631486761335</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>135.330025351238</v>
+        <v>135.3217232357661</v>
       </c>
       <c r="B234" t="n">
-        <v>5.601588887104316</v>
+        <v>-5.60004769993192</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>138.4971530917165</v>
+        <v>138.4889630056848</v>
       </c>
       <c r="B235" t="n">
-        <v>5.736091296518694</v>
+        <v>-5.73456151275823</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>141.6607123961695</v>
+        <v>141.6526360831735</v>
       </c>
       <c r="B236" t="n">
-        <v>5.870690968828359</v>
+        <v>-5.869172750512213</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>144.820640354314</v>
+        <v>144.8126687166878</v>
       </c>
       <c r="B237" t="n">
-        <v>6.00539360410316</v>
+        <v>-6.003885146566021</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>147.9768462771784</v>
+        <v>147.9689804807463</v>
       </c>
       <c r="B238" t="n">
-        <v>6.140200026010383</v>
+        <v>-6.138701499495634</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>151.1292444045843</v>
+        <v>151.1214921216741</v>
       </c>
       <c r="B239" t="n">
-        <v>6.275112062933708</v>
+        <v>-6.273624603925627</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>154.2777669804787</v>
+        <v>154.2701296314933</v>
       </c>
       <c r="B240" t="n">
-        <v>6.410134487441479</v>
+        <v>-6.408658267612298</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>157.4223284166665</v>
+        <v>157.4148022616484</v>
       </c>
       <c r="B241" t="n">
-        <v>6.545269168165356</v>
+        <v>-6.543803363536482</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>160.5628497490364</v>
+        <v>160.5554475998287</v>
       </c>
       <c r="B242" t="n">
-        <v>6.680518954341079</v>
+        <v>-6.67906571017074</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>163.6992515400972</v>
+        <v>163.6919750715018</v>
       </c>
       <c r="B243" t="n">
-        <v>6.815886728573536</v>
+        <v>-6.814446219283036</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>166.8314655917337</v>
+        <v>166.8242995868939</v>
       </c>
       <c r="B244" t="n">
-        <v>6.951377382404331</v>
+        <v>-6.949946807418678</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>169.9593960560591</v>
+        <v>169.9523756377142</v>
       </c>
       <c r="B245" t="n">
-        <v>7.086990863564354</v>
+        <v>-7.085576363375359</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>173.0829918163692</v>
+        <v>173.0760908652595</v>
       </c>
       <c r="B246" t="n">
-        <v>7.222735099062388</v>
+        <v>-7.221331874583646</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>176.202157502594</v>
+        <v>176.1953773338094</v>
       </c>
       <c r="B247" t="n">
-        <v>7.358610074428128</v>
+        <v>-7.357218308949079</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>179.3168080734908</v>
+        <v>179.3101617788743</v>
       </c>
       <c r="B248" t="n">
-        <v>7.494617804161166</v>
+        <v>-7.493239669005756</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>182.4268818502251</v>
+        <v>182.4203652876251</v>
       </c>
       <c r="B249" t="n">
-        <v>7.630764308447532</v>
+        <v>-7.629398991589696</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>185.5322891330504</v>
+        <v>185.5259150960957</v>
       </c>
       <c r="B250" t="n">
-        <v>7.767050633171654</v>
+        <v>-7.765700331333</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>188.6329678489116</v>
+        <v>188.6267209508647</v>
       </c>
       <c r="B251" t="n">
-        <v>7.903482887562093</v>
+        <v>-7.902144778203033</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>191.7288284647445</v>
+        <v>191.7227269364649</v>
       </c>
       <c r="B252" t="n">
-        <v>8.040062169805445</v>
+        <v>-8.038739474350313</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>194.8198033312801</v>
+        <v>194.8138378216867</v>
       </c>
       <c r="B253" t="n">
-        <v>8.176793659157564</v>
+        <v>-8.175484543871034</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>197.9058030605296</v>
+        <v>197.8999863518384</v>
       </c>
       <c r="B254" t="n">
-        <v>8.313678503452497</v>
+        <v>-8.312385192329828</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>200.986766607871</v>
+        <v>200.9810944578619</v>
       </c>
       <c r="B255" t="n">
-        <v>8.450722940814899</v>
+        <v>-8.449444629006658</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>204.0626150384</v>
+        <v>204.0570892974833</v>
       </c>
       <c r="B256" t="n">
-        <v>8.587930251064568</v>
+        <v>-8.586667131342351</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>207.1332711236202</v>
+        <v>207.1278926451112</v>
       </c>
       <c r="B257" t="n">
-        <v>8.725303688278281</v>
+        <v>-8.72405599227374</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>210.1986560728325</v>
+        <v>210.1934266821121</v>
       </c>
       <c r="B258" t="n">
-        <v>8.862846600189826</v>
+        <v>-8.861614526100606</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>213.2586979680641</v>
+        <v>213.2536304406424</v>
       </c>
       <c r="B259" t="n">
-        <v>9.000563353457325</v>
+        <v>-8.999349168460569</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>216.3133297967842</v>
+        <v>216.3084143254626</v>
       </c>
       <c r="B260" t="n">
-        <v>9.138459422814822</v>
+        <v>-9.137261294155499</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>219.362451745146</v>
+        <v>219.357706582019</v>
       </c>
       <c r="B261" t="n">
-        <v>9.276534107170814</v>
+        <v>-9.275355357858135</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>222.4060195661466</v>
+        <v>222.4014293796985</v>
       </c>
       <c r="B262" t="n">
-        <v>9.414797091508497</v>
+        <v>-9.413634848090451</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>225.4439500566386</v>
+        <v>225.4395159321172</v>
       </c>
       <c r="B263" t="n">
-        <v>9.553250880966663</v>
+        <v>-9.552105384209032</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>228.4761600614436</v>
+        <v>228.4718837673471</v>
       </c>
       <c r="B264" t="n">
-        <v>9.691898010470666</v>
+        <v>-9.690769474179636</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>231.5025771072486</v>
+        <v>231.4984659070298</v>
       </c>
       <c r="B265" t="n">
-        <v>9.830743164642183</v>
+        <v>-9.829632856103713</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>234.5231415798937</v>
+        <v>234.5191906639038</v>
       </c>
       <c r="B266" t="n">
-        <v>9.96979311214429</v>
+        <v>-9.968700250902454</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>237.5377643147674</v>
+        <v>237.5339864325836</v>
       </c>
       <c r="B267" t="n">
-        <v>10.10904951147443</v>
+        <v>-10.10797643607135</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>240.5463792746585</v>
+        <v>240.5427706694153</v>
       </c>
       <c r="B268" t="n">
-        <v>10.24851823798496</v>
+        <v>-10.24746412482733</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>243.5489150021525</v>
+        <v>243.5454766767629</v>
       </c>
       <c r="B269" t="n">
-        <v>10.38820417529696</v>
+        <v>-10.38716929463351</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>246.5452942253401</v>
+        <v>246.5420330488399</v>
       </c>
       <c r="B270" t="n">
-        <v>10.52811121965253</v>
+        <v>-10.52709689637324</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>249.5354511303664</v>
+        <v>249.5323684509479</v>
       </c>
       <c r="B271" t="n">
-        <v>10.66824544275318</v>
+        <v>-10.66725194471096</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>252.5193085606271</v>
+        <v>252.5163942853127</v>
       </c>
       <c r="B272" t="n">
-        <v>10.80861086580464</v>
+        <v>-10.80763633503746</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>255.4967949236708</v>
+        <v>255.4940621730374</v>
       </c>
       <c r="B273" t="n">
-        <v>10.94921264437548</v>
+        <v>-10.94825946015381</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>258.4678449780558</v>
+        <v>258.4652887660231</v>
       </c>
       <c r="B274" t="n">
-        <v>11.09005704565425</v>
+        <v>-11.08912444819188</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>261.432369871483</v>
+        <v>261.4299977916849</v>
       </c>
       <c r="B275" t="n">
-        <v>11.23114616459647</v>
+        <v>-11.23023547534267</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>264.3903159177707</v>
+        <v>264.3881173961906</v>
       </c>
       <c r="B276" t="n">
-        <v>11.37248855882594</v>
+        <v>-11.37159793229135</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>267.3416002550832</v>
+        <v>267.3395995102687</v>
       </c>
       <c r="B277" t="n">
-        <v>11.51408752708925</v>
+        <v>-11.5132215732819</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>270.2861689477417</v>
+        <v>270.2843442681515</v>
       </c>
       <c r="B278" t="n">
-        <v>11.65595183801998</v>
+        <v>-11.65510652834324</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>273.2239332434033</v>
+        <v>273.222291805249</v>
       </c>
       <c r="B279" t="n">
-        <v>11.79808387450842</v>
+        <v>-11.79726057696618</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>276.154828587243</v>
+        <v>276.1533827332928</v>
       </c>
       <c r="B280" t="n">
-        <v>11.94049036016366</v>
+        <v>-11.93969158933592</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279.0787829072635</v>
+        <v>279.0775227392694</v>
       </c>
       <c r="B281" t="n">
-        <v>12.08317713622878</v>
+        <v>-12.08240099627977</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281.9957317365922</v>
+        <v>281.9946640224617</v>
       </c>
       <c r="B282" t="n">
-        <v>12.22615112223383</v>
+        <v>-12.22539904102333</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>284.9055918987527</v>
+        <v>284.9047293917728</v>
       </c>
       <c r="B283" t="n">
-        <v>12.36941612316796</v>
+        <v>-12.36869063824693</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>287.8083161147878</v>
+        <v>287.8076364689289</v>
       </c>
       <c r="B284" t="n">
-        <v>12.51298258219961</v>
+        <v>-12.51227963562049</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>290.7038092352855</v>
+        <v>290.7033315901436</v>
       </c>
       <c r="B285" t="n">
-        <v>12.65685231494704</v>
+        <v>-12.65617552725074</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>293.5920120286447</v>
+        <v>293.5917427282365</v>
       </c>
       <c r="B286" t="n">
-        <v>12.8010337961732</v>
+        <v>-12.80038468327549</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>296.4728713317533</v>
+        <v>296.4727827333097</v>
       </c>
       <c r="B287" t="n">
-        <v>12.94553674527343</v>
+        <v>-12.94491005521942</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>299.3462979262456</v>
+        <v>299.3464091929567</v>
       </c>
       <c r="B288" t="n">
-        <v>13.0903643804925</v>
+        <v>-13.0897637777694</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>302.2122214277216</v>
+        <v>302.2125388641067</v>
       </c>
       <c r="B289" t="n">
-        <v>13.23552326647092</v>
+        <v>-13.23495029437471</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>305.0705822341291</v>
+        <v>305.0711069627077</v>
       </c>
       <c r="B290" t="n">
-        <v>13.3810224165716</v>
+        <v>-13.38047745804979</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>307.9213030597575</v>
+        <v>307.922041805776</v>
       </c>
       <c r="B291" t="n">
-        <v>13.52686760329569</v>
+        <v>-13.52635220529397</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>310.7643242774222</v>
+        <v>310.7652669118792</v>
       </c>
       <c r="B292" t="n">
-        <v>13.67306812502982</v>
+        <v>-13.67258037288721</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>313.5995810821393</v>
+        <v>313.6007282476484</v>
       </c>
       <c r="B293" t="n">
-        <v>13.81963224751801</v>
+        <v>-13.81917257341002</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>316.4269956439912</v>
+        <v>316.4283544733159</v>
       </c>
       <c r="B294" t="n">
-        <v>13.96656619192552</v>
+        <v>-13.96613613677125</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>319.2464969959914</v>
+        <v>319.2480568410749</v>
       </c>
       <c r="B295" t="n">
-        <v>14.11387737176518</v>
+        <v>-14.11347504157116</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>322.0580314854702</v>
+        <v>322.0598051068358</v>
       </c>
       <c r="B296" t="n">
-        <v>14.26157685334254</v>
+        <v>-14.2612049869377</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>324.8615037164732</v>
+        <v>324.8634982526433</v>
       </c>
       <c r="B297" t="n">
-        <v>14.40966779501751</v>
+        <v>-14.40932798130446</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>327.6568721100469</v>
+        <v>327.6590735852207</v>
       </c>
       <c r="B298" t="n">
-        <v>14.55816389526243</v>
+        <v>-14.55785369023147</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>330.4440678885829</v>
+        <v>330.4464801409294</v>
       </c>
       <c r="B299" t="n">
-        <v>14.70707388257757</v>
+        <v>-14.70679433081797</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>333.2229953460098</v>
+        <v>333.2256316102565</v>
       </c>
       <c r="B300" t="n">
-        <v>14.85640137131674</v>
+        <v>-14.85615525778927</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>335.9936127723325</v>
+        <v>335.9964707867462</v>
       </c>
       <c r="B301" t="n">
-        <v>15.00616066613749</v>
+        <v>-15.00594791881475</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>338.7558686225206</v>
+        <v>338.7589257725257</v>
       </c>
       <c r="B302" t="n">
-        <v>15.156364666325</v>
+        <v>-15.15618100081885</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>341.5096436761913</v>
+        <v>341.5129330841825</v>
       </c>
       <c r="B303" t="n">
-        <v>15.30701269885822</v>
+        <v>-15.30686521755972</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>344.2549073865875</v>
+        <v>344.2584219814806</v>
       </c>
       <c r="B304" t="n">
-        <v>15.45812218137144</v>
+        <v>-15.45800952826226</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>346.991587101889</v>
+        <v>346.9953184078549</v>
       </c>
       <c r="B305" t="n">
-        <v>15.60970248062707</v>
+        <v>-15.60962342668761</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>349.7196142534867</v>
+        <v>349.723566078661</v>
       </c>
       <c r="B306" t="n">
-        <v>15.76176365243611</v>
+        <v>-15.76171934529392</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>352.4389121337685</v>
+        <v>352.4430887492692</v>
       </c>
       <c r="B307" t="n">
-        <v>15.91431498433919</v>
+        <v>-15.91430654240279</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>355.1494270926013</v>
+        <v>355.1538265970422</v>
       </c>
       <c r="B308" t="n">
-        <v>16.06737002528819</v>
+        <v>-16.06739738179427</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>357.8510801970496</v>
+        <v>357.8557116656273</v>
       </c>
       <c r="B309" t="n">
-        <v>16.22093783878516</v>
+        <v>-16.22100351279479</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>360.5438066382729</v>
+        <v>360.5486628908087</v>
       </c>
       <c r="B310" t="n">
-        <v>16.37503089213486</v>
+        <v>-16.37513352694742</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>363.2275428496633</v>
+        <v>363.2326305648619</v>
       </c>
       <c r="B311" t="n">
-        <v>16.52966178817274</v>
+        <v>-16.5298032590882</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>365.9022246532524</v>
+        <v>365.907541440833</v>
       </c>
       <c r="B312" t="n">
-        <v>16.68484348963884</v>
+        <v>-16.68502383816376</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>368.567762831468</v>
+        <v>368.5733191867066</v>
       </c>
       <c r="B313" t="n">
-        <v>16.84058434372324</v>
+        <v>-16.84080602741139</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>371.2241263379426</v>
+        <v>371.2299049985633</v>
       </c>
       <c r="B314" t="n">
-        <v>16.99690480139471</v>
+        <v>-16.99716470965619</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>373.8712169187363</v>
+        <v>373.8772274506714</v>
       </c>
       <c r="B315" t="n">
-        <v>17.15381190736361</v>
+        <v>-17.1541126506351</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>376.5089724900613</v>
+        <v>376.5152191766381</v>
       </c>
       <c r="B316" t="n">
-        <v>17.31132056084605</v>
+        <v>-17.31166342054392</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>379.137336572072</v>
+        <v>379.143820353212</v>
       </c>
       <c r="B317" t="n">
-        <v>17.46944737383994</v>
+        <v>-17.4698330606858</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>381.7562409308688</v>
+        <v>381.7629531241572</v>
       </c>
       <c r="B318" t="n">
-        <v>17.62820672809733</v>
+        <v>-17.62863410658922</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>384.3656011949115</v>
+        <v>384.3725586182796</v>
       </c>
       <c r="B319" t="n">
-        <v>17.7876102459717</v>
+        <v>-17.78808319354827</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>386.9653606749796</v>
+        <v>386.9725488260881</v>
       </c>
       <c r="B320" t="n">
-        <v>17.94767568169179</v>
+        <v>-17.94819174659506</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>389.5554528331833</v>
+        <v>389.562887656147</v>
       </c>
       <c r="B321" t="n">
-        <v>18.10841937861546</v>
+        <v>-18.10898265555215</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>392.1358021354193</v>
+        <v>392.14348168136</v>
       </c>
       <c r="B322" t="n">
-        <v>18.26985609111383</v>
+        <v>-18.27046672633634</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>394.7063540947545</v>
+        <v>394.7142671881351</v>
       </c>
       <c r="B323" t="n">
-        <v>18.4320056722712</v>
+        <v>-18.43266183152816</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>397.2670258638165</v>
+        <v>397.2751826772408</v>
       </c>
       <c r="B324" t="n">
-        <v>18.59488261021806</v>
+        <v>-18.5955871319818</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>399.8177536362505</v>
+        <v>399.8261513001669</v>
       </c>
       <c r="B325" t="n">
-        <v>18.75850570995274</v>
+        <v>-18.75925894175774</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>402.3584685722021</v>
+        <v>402.3671094265976</v>
       </c>
       <c r="B326" t="n">
-        <v>18.92289395656836</v>
+        <v>-18.92369655989787</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>404.8890949892802</v>
+        <v>404.8979913215935</v>
       </c>
       <c r="B327" t="n">
-        <v>19.08806437789944</v>
+        <v>-19.08892019577608</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>407.4095785715107</v>
+        <v>407.4187255287925</v>
       </c>
       <c r="B328" t="n">
-        <v>19.25404057283519</v>
+        <v>-19.2549491756184</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>409.919845040956</v>
+        <v>409.9292280051077</v>
       </c>
       <c r="B329" t="n">
-        <v>19.42084167092697</v>
+        <v>-19.42180064877479</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>412.419822252892</v>
+        <v>412.4294485844933</v>
       </c>
       <c r="B330" t="n">
-        <v>19.58848822570659</v>
+        <v>-19.58949993000327</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>414.9094283812789</v>
+        <v>414.9193143651427</v>
       </c>
       <c r="B331" t="n">
-        <v>19.75699936300025</v>
+        <v>-19.75806839208979</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>417.3886151257879</v>
+        <v>417.3987559370753</v>
       </c>
       <c r="B332" t="n">
-        <v>19.92640265298052</v>
+        <v>-19.92752866372022</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>419.8573004022459</v>
+        <v>419.8676877927811</v>
       </c>
       <c r="B333" t="n">
-        <v>20.09671860652347</v>
+        <v>-20.0979006144598</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>422.3154161322108</v>
+        <v>422.3260546174901</v>
       </c>
       <c r="B334" t="n">
-        <v>20.26797227402234</v>
+        <v>-20.26921207427822</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>424.7628986063081</v>
+        <v>424.773782497233</v>
       </c>
       <c r="B335" t="n">
-        <v>20.44018991423162</v>
+        <v>-20.44148740139428</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>427.1996572789531</v>
+        <v>427.2108005390471</v>
       </c>
       <c r="B336" t="n">
-        <v>20.61339324325366</v>
+        <v>-20.61475246284351</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>429.6256391806845</v>
+        <v>429.6370494468468</v>
       </c>
       <c r="B337" t="n">
-        <v>20.78761342528665</v>
+        <v>-20.78903710263667</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>432.0407666402733</v>
+        <v>432.0524319246359</v>
       </c>
       <c r="B338" t="n">
-        <v>20.962876660002</v>
+        <v>-20.96436340913545</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>434.4449663148073</v>
+        <v>434.4568947466847</v>
       </c>
       <c r="B339" t="n">
-        <v>21.13921200652996</v>
+        <v>-21.14076453741118</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>436.8381691514398</v>
+        <v>436.8503685072328</v>
       </c>
       <c r="B340" t="n">
-        <v>21.3166499396289</v>
+        <v>-21.31827115265495</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>439.2203018709669</v>
+        <v>439.2327546081752</v>
       </c>
       <c r="B341" t="n">
-        <v>21.49522152118542</v>
+        <v>-21.4969084225377</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>441.5913002893877</v>
+        <v>441.6040199226645</v>
       </c>
       <c r="B342" t="n">
-        <v>21.67496128648604</v>
+        <v>-21.67671858093513</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>443.9510809016919</v>
+        <v>443.9640628531031</v>
       </c>
       <c r="B343" t="n">
-        <v>21.85590052233794</v>
+        <v>-21.85772821596511</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>446.2995692755619</v>
+        <v>446.3128150732211</v>
       </c>
       <c r="B344" t="n">
-        <v>22.03807409164457</v>
+        <v>-22.03997383733696</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>448.6367001382736</v>
+        <v>448.6502083234316</v>
       </c>
       <c r="B345" t="n">
-        <v>22.22152060457498</v>
+        <v>-22.22349329793606</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>450.9624048621395</v>
+        <v>450.9761801456556</v>
       </c>
       <c r="B346" t="n">
-        <v>22.40627941893662</v>
+        <v>-22.40832766148625</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>453.2765919478367</v>
+        <v>453.2906459936422</v>
       </c>
       <c r="B347" t="n">
-        <v>22.59238608554245</v>
+        <v>-22.59451396968963</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>455.5791954891408</v>
+        <v>455.5935294278781</v>
       </c>
       <c r="B348" t="n">
-        <v>22.7798839009387</v>
+        <v>-22.78209368695408</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>457.8701455325519</v>
+        <v>457.8847616684391</v>
       </c>
       <c r="B349" t="n">
-        <v>22.96881746069</v>
+        <v>-22.97111106936689</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>460.1493750065135</v>
+        <v>460.1642660975166</v>
       </c>
       <c r="B350" t="n">
-        <v>23.15923419538481</v>
+        <v>-23.16161118360855</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>462.4167922057921</v>
+        <v>462.4319596811087</v>
       </c>
       <c r="B351" t="n">
-        <v>23.35117652399363</v>
+        <v>-23.35363939359294</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>464.6723354806541</v>
+        <v>464.6877853317664</v>
       </c>
       <c r="B352" t="n">
-        <v>23.54469797039296</v>
+        <v>-23.54724958594274</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>466.9159344974843</v>
+        <v>466.9316593901643</v>
       </c>
       <c r="B353" t="n">
-        <v>23.73985155345317</v>
+        <v>-23.74249181204256</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>469.1474963314266</v>
+        <v>469.1635083959185</v>
       </c>
       <c r="B354" t="n">
-        <v>23.93668683087926</v>
+        <v>-23.93942074007701</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>471.366963288048</v>
+        <v>471.3832617120587</v>
       </c>
       <c r="B355" t="n">
-        <v>24.13526531675949</v>
+        <v>-24.13809477752753</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>473.5742486517984</v>
+        <v>473.5908491053529</v>
       </c>
       <c r="B356" t="n">
-        <v>24.33564376825299</v>
+        <v>-24.33857504961345</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>475.7692884234614</v>
+        <v>475.7861775554152</v>
       </c>
       <c r="B357" t="n">
-        <v>24.53788801184913</v>
+        <v>-24.5409197770988</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>477.9519993870979</v>
+        <v>477.969196724789</v>
       </c>
       <c r="B358" t="n">
-        <v>24.74206196065981</v>
+        <v>-24.74520158261567</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>480.1223246090354</v>
+        <v>480.1398239906171</v>
       </c>
       <c r="B359" t="n">
-        <v>24.94824019207953</v>
+        <v>-24.95148807121053</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>482.2801950662918</v>
+        <v>482.2979838085744</v>
       </c>
       <c r="B360" t="n">
-        <v>25.15649739692712</v>
+        <v>-25.1598522575557</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>484.4255098496301</v>
+        <v>484.4436077164808</v>
       </c>
       <c r="B361" t="n">
-        <v>25.36690295969913</v>
+        <v>-25.37037315200014</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>486.5582237704055</v>
+        <v>486.5766382787576</v>
       </c>
       <c r="B362" t="n">
-        <v>25.57954671167865</v>
+        <v>-25.58313677494359</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>488.6782505794302</v>
+        <v>488.6969859144046</v>
       </c>
       <c r="B363" t="n">
-        <v>25.79451094353706</v>
+        <v>-25.79822507911286</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>490.7855347812896</v>
+        <v>490.8045891470704</v>
       </c>
       <c r="B364" t="n">
-        <v>26.01189158281179</v>
+        <v>-26.01573196789037</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>492.8800095788409</v>
+        <v>492.8993847100127</v>
       </c>
       <c r="B365" t="n">
-        <v>26.23178616953505</v>
+        <v>-26.23575617965308</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>494.961606367523</v>
+        <v>494.9813209202326</v>
       </c>
       <c r="B366" t="n">
-        <v>26.45429793567675</v>
+        <v>-26.45840618934429</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>497.0302626045175</v>
+        <v>497.0503225650972</v>
       </c>
       <c r="B367" t="n">
-        <v>26.67953701311761</v>
+        <v>-26.68378830673663</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>499.0859352644209</v>
+        <v>499.1063266070253</v>
       </c>
       <c r="B368" t="n">
-        <v>26.90762558585894</v>
+        <v>-26.912019792966</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>501.128550796317</v>
+        <v>501.1492972948251</v>
       </c>
       <c r="B369" t="n">
-        <v>27.13868476702063</v>
+        <v>-27.14323189337003</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>503.1580634223577</v>
+        <v>503.1791588015211</v>
       </c>
       <c r="B370" t="n">
-        <v>27.37284997164042</v>
+        <v>-27.37755240497425</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>505.1744147975543</v>
+        <v>505.1958805930281</v>
       </c>
       <c r="B371" t="n">
-        <v>27.6102618188581</v>
+        <v>-27.61512990553885</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>507.1775826033028</v>
+        <v>507.1994241214705</v>
       </c>
       <c r="B372" t="n">
-        <v>27.85108039735238</v>
+        <v>-27.85612020659054</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>509.1675273085694</v>
+        <v>509.1897369028907</v>
       </c>
       <c r="B373" t="n">
-        <v>28.0954703247426</v>
+        <v>-28.10068338567135</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>511.1442133936517</v>
+        <v>511.166825332004</v>
       </c>
       <c r="B374" t="n">
-        <v>28.34360705245109</v>
+        <v>-28.34900920466705</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>513.1076383016425</v>
+        <v>513.1306502088964</v>
       </c>
       <c r="B375" t="n">
-        <v>28.59568877589066</v>
+        <v>-28.60128444551788</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>515.0577754858793</v>
+        <v>515.0812030706855</v>
       </c>
       <c r="B376" t="n">
-        <v>28.85191773725492</v>
+        <v>-28.85771670120796</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>516.9946418144401</v>
+        <v>517.0185057334626</v>
       </c>
       <c r="B377" t="n">
-        <v>29.11252400655075</v>
+        <v>-29.1185387784277</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>518.9182618923427</v>
+        <v>518.9425738448315</v>
       </c>
       <c r="B378" t="n">
-        <v>29.37775507210999</v>
+        <v>-29.38399565805013</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>520.8286672211713</v>
+        <v>520.8534295114689</v>
       </c>
       <c r="B379" t="n">
-        <v>29.6478775150443</v>
+        <v>-29.65435050735103</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>522.7259058166068</v>
+        <v>522.7511582788068</v>
       </c>
       <c r="B380" t="n">
-        <v>29.92318114793106</v>
+        <v>-29.92990701010326</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>524.6100786912355</v>
+        <v>524.6358312734219</v>
       </c>
       <c r="B381" t="n">
-        <v>30.20399458348015</v>
+        <v>-30.21098389307208</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>526.4812762673264</v>
+        <v>526.5075478920714</v>
       </c>
       <c r="B382" t="n">
-        <v>30.49066481068688</v>
+        <v>-30.4979313031858</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_0.xlsx
+++ b/Reverse_anglesIn_0.xlsx
@@ -440,3050 +440,3050 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.3209500055157</v>
+        <v>-526.3472030509745</v>
       </c>
       <c r="B2" t="n">
-        <v>30.46895981468204</v>
+        <v>-30.47620468673013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-524.4479470372619</v>
+        <v>-524.4736779913088</v>
       </c>
       <c r="B3" t="n">
-        <v>30.18261735185105</v>
+        <v>-30.18958475388656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-522.5619826905364</v>
+        <v>-522.5872033986449</v>
       </c>
       <c r="B4" t="n">
-        <v>29.90211143955243</v>
+        <v>-29.90881276835049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-520.662931608397</v>
+        <v>-520.6876946775437</v>
       </c>
       <c r="B5" t="n">
-        <v>29.62708459867983</v>
+        <v>-29.63354520121449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-518.7507575836784</v>
+        <v>-518.7750457116435</v>
       </c>
       <c r="B6" t="n">
-        <v>29.35723248935262</v>
+        <v>-29.36345270507736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-516.8253772395135</v>
+        <v>-516.8492212102877</v>
       </c>
       <c r="B7" t="n">
-        <v>29.09225425243264</v>
+        <v>-29.09825074602439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-514.8867386148538</v>
+        <v>-514.9101674327534</v>
       </c>
       <c r="B8" t="n">
-        <v>28.83187799249755</v>
+        <v>-28.83766653281295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-512.9348661186879</v>
+        <v>-512.9578688082988</v>
       </c>
       <c r="B9" t="n">
-        <v>28.57587363536126</v>
+        <v>-28.58145544906833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-510.96971159504</v>
+        <v>-510.9923110681352</v>
       </c>
       <c r="B10" t="n">
-        <v>28.32400164845155</v>
+        <v>-28.32938996339151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-508.9913052284678</v>
+        <v>-509.0135058453289</v>
       </c>
       <c r="B11" t="n">
-        <v>28.07606236471085</v>
+        <v>-28.08126331401343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-506.9996563762015</v>
+        <v>-507.021482121423</v>
       </c>
       <c r="B12" t="n">
-        <v>27.8318605117626</v>
+        <v>-27.8368860866632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-504.9947869090348</v>
+        <v>-505.0162505185625</v>
       </c>
       <c r="B13" t="n">
-        <v>27.59121681079435</v>
+        <v>-27.59607571431908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-502.9767566420569</v>
+        <v>-502.9978363153704</v>
       </c>
       <c r="B14" t="n">
-        <v>27.35397422070858</v>
+        <v>-27.35866339756385</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-500.9455843324719</v>
+        <v>-500.9663083704347</v>
       </c>
       <c r="B15" t="n">
-        <v>27.11997176395216</v>
+        <v>-27.12450414023327</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-498.9013113393704</v>
+        <v>-498.9216803158042</v>
       </c>
       <c r="B16" t="n">
-        <v>26.88906441690665</v>
+        <v>-26.89344405947199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-496.8440001712912</v>
+        <v>-496.8640342401368</v>
       </c>
       <c r="B17" t="n">
-        <v>26.66112225137456</v>
+        <v>-26.66535883441286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-494.7737074712043</v>
+        <v>-494.7934062370233</v>
       </c>
       <c r="B18" t="n">
-        <v>26.43601978107654</v>
+        <v>-26.44011639916138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-492.6904892925363</v>
+        <v>-492.7098485792596</v>
       </c>
       <c r="B19" t="n">
-        <v>26.21363952092852</v>
+        <v>-26.2175982476063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-490.5944085875326</v>
+        <v>-490.6134470420977</v>
       </c>
       <c r="B20" t="n">
-        <v>25.99387076134603</v>
+        <v>-25.99770019197434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-488.485523249671</v>
+        <v>-488.5042357404968</v>
       </c>
       <c r="B21" t="n">
-        <v>25.77660873092152</v>
+        <v>-25.78031064897109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-486.3639000992166</v>
+        <v>-486.3822983315987</v>
       </c>
       <c r="B22" t="n">
-        <v>25.5617560512568</v>
+        <v>-25.56533598430622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-484.2296142165903</v>
+        <v>-484.2477089985559</v>
       </c>
       <c r="B23" t="n">
-        <v>25.34922263690954</v>
+        <v>-25.35268648847702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-482.0827291540471</v>
+        <v>-482.1005046069063</v>
       </c>
       <c r="B24" t="n">
-        <v>25.13891955832093</v>
+        <v>-25.14226579757115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-479.923318309864</v>
+        <v>-479.940791521815</v>
       </c>
       <c r="B25" t="n">
-        <v>24.93076638269421</v>
+        <v>-24.93400204737808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-477.7514408685112</v>
+        <v>-477.7686217431812</v>
       </c>
       <c r="B26" t="n">
-        <v>24.72468144344471</v>
+        <v>-24.72781176976345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-475.5671951964998</v>
+        <v>-475.5840738250679</v>
       </c>
       <c r="B27" t="n">
-        <v>24.52059835085536</v>
+        <v>-24.52362310845698</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-473.3706274944925</v>
+        <v>-473.3872141442815</v>
       </c>
       <c r="B28" t="n">
-        <v>24.31844065195307</v>
+        <v>-24.3213641963903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-471.1618247999816</v>
+        <v>-471.1781124276358</v>
       </c>
       <c r="B29" t="n">
-        <v>24.11814501345723</v>
+        <v>-24.12096784849519</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-468.940872925242</v>
+        <v>-468.9568674908161</v>
       </c>
       <c r="B30" t="n">
-        <v>23.91965211721636</v>
+        <v>-23.92237794542077</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-466.7078104848711</v>
+        <v>-466.7235242997001</v>
       </c>
       <c r="B31" t="n">
-        <v>23.72289229025026</v>
+        <v>-23.72552627187043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-464.462736640075</v>
+        <v>-464.4781562687113</v>
       </c>
       <c r="B32" t="n">
-        <v>23.52781537446108</v>
+        <v>-23.53035574072201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-462.2057154767515</v>
+        <v>-462.2208691430645</v>
       </c>
       <c r="B33" t="n">
-        <v>23.33436428155985</v>
+        <v>-23.33682000544729</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-459.9368368608303</v>
+        <v>-459.9517071643301</v>
       </c>
       <c r="B34" t="n">
-        <v>23.1424909539227</v>
+        <v>-23.14485954055685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-457.6561677880746</v>
+        <v>-457.6707503370602</v>
       </c>
       <c r="B35" t="n">
-        <v>22.95214397455752</v>
+        <v>-22.95442608047021</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-455.3637651849463</v>
+        <v>-455.3780719573454</v>
       </c>
       <c r="B36" t="n">
-        <v>22.76327191687544</v>
+        <v>-22.76547194386208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-453.0597152692862</v>
+        <v>-453.0737604705545</v>
       </c>
       <c r="B37" t="n">
-        <v>22.57583236588632</v>
+        <v>-22.57795569505812</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-450.7441062658509</v>
+        <v>-450.7578668088418</v>
       </c>
       <c r="B38" t="n">
-        <v>22.38978583332456</v>
+        <v>-22.39182784488871</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-448.4169828563089</v>
+        <v>-448.4304887754113</v>
       </c>
       <c r="B39" t="n">
-        <v>22.20508311565503</v>
+        <v>-22.2070528662693</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-446.0784483024984</v>
+        <v>-446.0916757036269</v>
       </c>
       <c r="B40" t="n">
-        <v>22.02169219641556</v>
+        <v>-22.02358528993076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-443.7285680464067</v>
+        <v>-443.7415254156298</v>
       </c>
       <c r="B41" t="n">
-        <v>21.83957295414289</v>
+        <v>-21.84139251151766</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-441.3673951192543</v>
+        <v>-441.3800931065904</v>
       </c>
       <c r="B42" t="n">
-        <v>21.65868364459233</v>
+        <v>-21.66043374116472</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-438.995019040299</v>
+        <v>-439.0074496330629</v>
       </c>
       <c r="B43" t="n">
-        <v>21.47899350834041</v>
+        <v>-21.48067346098983</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-436.6115107136291</v>
+        <v>-436.6236817881099</v>
       </c>
       <c r="B44" t="n">
-        <v>21.3004682654454</v>
+        <v>-21.30208107850497</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-434.216934671644</v>
+        <v>-434.2288536155687</v>
       </c>
       <c r="B45" t="n">
-        <v>21.12307336968293</v>
+        <v>-21.1246220736947</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-431.8113915930381</v>
+        <v>-431.8230288394137</v>
       </c>
       <c r="B46" t="n">
-        <v>20.94678469772343</v>
+        <v>-20.9482631941437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-429.3949105346652</v>
+        <v>-429.4063016769393</v>
       </c>
       <c r="B47" t="n">
-        <v>20.77156197876188</v>
+        <v>-20.77297982424347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-426.9675926260201</v>
+        <v>-426.9787196594624</v>
       </c>
       <c r="B48" t="n">
-        <v>20.59738293802198</v>
+        <v>-20.59873718874188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-424.5295056155436</v>
+        <v>-424.5403765964429</v>
       </c>
       <c r="B49" t="n">
-        <v>20.42421933096963</v>
+        <v>-20.42551259269303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-422.0806972971806</v>
+        <v>-422.0913193645184</v>
       </c>
       <c r="B50" t="n">
-        <v>20.25203834685896</v>
+        <v>-20.25327336136716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-419.6212692187369</v>
+        <v>-419.6316430757205</v>
       </c>
       <c r="B51" t="n">
-        <v>20.08082152047011</v>
+        <v>-20.08199957120074</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-417.151273553826</v>
+        <v>-417.161401175011</v>
       </c>
       <c r="B52" t="n">
-        <v>19.91053956337895</v>
+        <v>-19.91166159960417</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-414.6708024864402</v>
+        <v>-414.6806595029104</v>
       </c>
       <c r="B53" t="n">
-        <v>19.74117324719001</v>
+        <v>-19.74223492167826</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-412.1798986416407</v>
+        <v>-412.1895111671856</v>
       </c>
       <c r="B54" t="n">
-        <v>19.57269278185451</v>
+        <v>-19.57370076156175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-409.6786432714717</v>
+        <v>-409.6880034927844</v>
       </c>
       <c r="B55" t="n">
-        <v>19.4050785638129</v>
+        <v>-19.40603173337562</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-407.1671067576169</v>
+        <v>-407.1762211723109</v>
       </c>
       <c r="B56" t="n">
-        <v>19.23830850141663</v>
+        <v>-19.23920941456538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-404.6453569094813</v>
+        <v>-404.6542299230811</v>
       </c>
       <c r="B57" t="n">
-        <v>19.07236163077455</v>
+        <v>-19.07321189518987</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-402.1134697778352</v>
+        <v>-402.1220960579145</v>
       </c>
       <c r="B58" t="n">
-        <v>18.90721853039033</v>
+        <v>-18.9080177708606</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-399.5715032431371</v>
+        <v>-399.5798876257906</v>
       </c>
       <c r="B59" t="n">
-        <v>18.7428574633572</v>
+        <v>-18.74360715348916</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-397.0195356616037</v>
+        <v>-397.0276689807418</v>
       </c>
       <c r="B60" t="n">
-        <v>18.57926092960198</v>
+        <v>-18.57996013225826</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-394.4576340006365</v>
+        <v>-394.4655298508153</v>
       </c>
       <c r="B61" t="n">
-        <v>18.416410285178</v>
+        <v>-18.41706250048057</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-391.8858629321753</v>
+        <v>-391.8935101358704</v>
       </c>
       <c r="B62" t="n">
-        <v>18.25428658636625</v>
+        <v>-18.25488999573837</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-389.3042893209173</v>
+        <v>-389.3117038791105</v>
       </c>
       <c r="B63" t="n">
-        <v>18.09287218552746</v>
+        <v>-18.0934309665098</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-386.7129923121398</v>
+        <v>-386.7201601537267</v>
       </c>
       <c r="B64" t="n">
-        <v>17.93215248862646</v>
+        <v>-17.93266412463099</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-384.1120294816633</v>
+        <v>-384.1189631884458</v>
       </c>
       <c r="B65" t="n">
-        <v>17.77210876417702</v>
+        <v>-17.77257674515505</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-381.5014635421405</v>
+        <v>-381.5081678648841</v>
       </c>
       <c r="B66" t="n">
-        <v>17.61272418891071</v>
+        <v>-17.61314979654158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-378.8813853470432</v>
+        <v>-378.8878458070191</v>
       </c>
       <c r="B67" t="n">
-        <v>17.45398801665599</v>
+        <v>-17.45436880048338</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-376.2518483921783</v>
+        <v>-376.2580717304365</v>
       </c>
       <c r="B68" t="n">
-        <v>17.29588223748921</v>
+        <v>-17.29622025869391</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-373.6129180285574</v>
+        <v>-373.6189085357614</v>
       </c>
       <c r="B69" t="n">
-        <v>17.13839185755111</v>
+        <v>-17.13868841657499</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-370.9646569795685</v>
+        <v>-370.9704213535983</v>
       </c>
       <c r="B70" t="n">
-        <v>16.98150155760036</v>
+        <v>-16.98175864120638</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-368.307154618633</v>
+        <v>-368.3126813382383</v>
       </c>
       <c r="B71" t="n">
-        <v>16.82520210954121</v>
+        <v>-16.82541790478638</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-365.6404627313224</v>
+        <v>-365.6457532115324</v>
       </c>
       <c r="B72" t="n">
-        <v>16.66947717531342</v>
+        <v>-16.66965228522407</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-362.9646410439397</v>
+        <v>-362.9697110567643</v>
       </c>
       <c r="B73" t="n">
-        <v>16.51431179695347</v>
+        <v>-16.51445000766912</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-360.2797716173147</v>
+        <v>-360.2846101496158</v>
       </c>
       <c r="B74" t="n">
-        <v>16.35969652565372</v>
+        <v>-16.35979594945838</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-357.5859128926795</v>
+        <v>-357.5905270863293</v>
       </c>
       <c r="B75" t="n">
-        <v>16.20561714842691</v>
+        <v>-16.20567960469513</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-354.8831560323578</v>
+        <v>-354.8875377911669</v>
       </c>
       <c r="B76" t="n">
-        <v>16.05206654012009</v>
+        <v>-16.05209078081323</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-352.1715348921624</v>
+        <v>-352.1756880406816</v>
       </c>
       <c r="B77" t="n">
-        <v>15.89902619758993</v>
+        <v>-15.89901343560358</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-349.4511317474088</v>
+        <v>-349.4550662725026</v>
       </c>
       <c r="B78" t="n">
-        <v>15.74648766643109</v>
+        <v>-15.74644028395088</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-346.7220130370501</v>
+        <v>-346.725729889902</v>
       </c>
       <c r="B79" t="n">
-        <v>15.59443975583335</v>
+        <v>-15.59435829003463</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-343.9842602169075</v>
+        <v>-343.9877423655303</v>
       </c>
       <c r="B80" t="n">
-        <v>15.44287450541905</v>
+        <v>-15.44275588655196</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-341.2379157727331</v>
+        <v>-341.2411760537325</v>
       </c>
       <c r="B81" t="n">
-        <v>15.29177637471872</v>
+        <v>-15.29162355017352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-338.4830547944313</v>
+        <v>-338.4861093025168</v>
       </c>
       <c r="B82" t="n">
-        <v>15.14113670805183</v>
+        <v>-15.14095314246635</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-335.7197559666628</v>
+        <v>-335.7225934097989</v>
       </c>
       <c r="B83" t="n">
-        <v>14.99094755830849</v>
+        <v>-14.99073139166122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-332.9480846806693</v>
+        <v>-332.950703223969</v>
       </c>
       <c r="B84" t="n">
-        <v>14.84119892222046</v>
+        <v>-14.84095003544933</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-330.1681071475258</v>
+        <v>-330.170504973489</v>
       </c>
       <c r="B85" t="n">
-        <v>14.69188091774833</v>
+        <v>-14.69159919013241</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-327.3798862233397</v>
+        <v>-327.3820615317619</v>
       </c>
       <c r="B86" t="n">
-        <v>14.5429833138509</v>
+        <v>-14.54266862303434</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-324.5834879778962</v>
+        <v>-324.5854531104702</v>
       </c>
       <c r="B87" t="n">
-        <v>14.39449664021209</v>
+        <v>-14.39415183256744</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-321.7789892566498</v>
+        <v>-321.780737219365</v>
       </c>
       <c r="B88" t="n">
-        <v>14.24641402267901</v>
+        <v>-14.24603772340984</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-318.9664507762616</v>
+        <v>-318.9679906373345</v>
       </c>
       <c r="B89" t="n">
-        <v>14.09872511810034</v>
+        <v>-14.09831957810699</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-316.1459347166937</v>
+        <v>-316.1472731556824</v>
       </c>
       <c r="B90" t="n">
-        <v>13.95142048601543</v>
+        <v>-13.95098729688702</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-313.3175411126151</v>
+        <v>-313.3186566756283</v>
       </c>
       <c r="B91" t="n">
-        <v>13.80449833515382</v>
+        <v>-13.80403323269299</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-310.4812898374654</v>
+        <v>-310.4822121613699</v>
       </c>
       <c r="B92" t="n">
-        <v>13.65794077094083</v>
+        <v>-13.65744996017221</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-307.6372920508073</v>
+        <v>-307.6379993002128</v>
       </c>
       <c r="B93" t="n">
-        <v>13.51174861300277</v>
+        <v>-13.5112278806861</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-304.7855965737814</v>
+        <v>-304.7861010814561</v>
       </c>
       <c r="B94" t="n">
-        <v>13.36591005194398</v>
+        <v>-13.36536210786605</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-301.9262682298449</v>
+        <v>-301.9265710980048</v>
       </c>
       <c r="B95" t="n">
-        <v>13.22041699459906</v>
+        <v>-13.21984221866099</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-299.0593834678788</v>
+        <v>-299.0594918350333</v>
       </c>
       <c r="B96" t="n">
-        <v>13.07526373922262</v>
+        <v>-13.07466361398078</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-296.1850203820026</v>
+        <v>-296.18491773498</v>
       </c>
       <c r="B97" t="n">
-        <v>12.93044456236887</v>
+        <v>-12.92981609743331</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-293.3032201123488</v>
+        <v>-293.302925216938</v>
       </c>
       <c r="B98" t="n">
-        <v>12.78594730028135</v>
+        <v>-12.78529420727228</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-290.4140890940761</v>
+        <v>-290.413591503346</v>
       </c>
       <c r="B99" t="n">
-        <v>12.641772119318</v>
+        <v>-12.641092517358</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-287.5176693335586</v>
+        <v>-287.5169757972651</v>
       </c>
       <c r="B100" t="n">
-        <v>12.49790704912911</v>
+        <v>-12.49720241564429</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-284.6140372226678</v>
+        <v>-284.613160473918</v>
       </c>
       <c r="B101" t="n">
-        <v>12.35434696350926</v>
+        <v>-12.35361984718508</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-281.7032703667011</v>
+        <v>-281.7021884744555</v>
       </c>
       <c r="B102" t="n">
-        <v>12.21108673983932</v>
+        <v>-12.21033305516144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-278.7854335852587</v>
+        <v>-278.7841477730352</v>
       </c>
       <c r="B103" t="n">
-        <v>12.06811923078231</v>
+        <v>-12.06733932070512</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-275.8605865910004</v>
+        <v>-275.8591151749225</v>
       </c>
       <c r="B104" t="n">
-        <v>11.92543626770419</v>
+        <v>-11.92463376059208</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-272.9288117756543</v>
+        <v>-272.9271508138009</v>
       </c>
       <c r="B105" t="n">
-        <v>11.78303418881602</v>
+        <v>-11.78220826587346</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-269.9901748618988</v>
+        <v>-269.9883366858234</v>
       </c>
       <c r="B106" t="n">
-        <v>11.6409060992191</v>
+        <v>-11.640059267259</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-267.0447582494876</v>
+        <v>-267.0427211132242</v>
       </c>
       <c r="B107" t="n">
-        <v>11.49904849009149</v>
+        <v>-11.49817671192107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-264.0926103014244</v>
+        <v>-264.0904039784929</v>
       </c>
       <c r="B108" t="n">
-        <v>11.35745141530824</v>
+        <v>-11.35656040821758</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-261.1338194236249</v>
+        <v>-261.1314281578338</v>
       </c>
       <c r="B109" t="n">
-        <v>11.21611260405959</v>
+        <v>-11.21519940550414</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-258.1684566317879</v>
+        <v>-258.1658813246446</v>
       </c>
       <c r="B110" t="n">
-        <v>11.07502662001487</v>
+        <v>-11.07409154150288</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-255.1965819322419</v>
+        <v>-255.1938357065515</v>
       </c>
       <c r="B111" t="n">
-        <v>10.93418594664655</v>
+        <v>-10.93323138747267</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-252.2182778904401</v>
+        <v>-252.2153450847416</v>
       </c>
       <c r="B112" t="n">
-        <v>10.79358744966037</v>
+        <v>-10.79261047279823</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-249.2336105298114</v>
+        <v>-249.2304976230438</v>
       </c>
       <c r="B113" t="n">
-        <v>10.65322482627247</v>
+        <v>-10.65222680585157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-246.2426507075173</v>
+        <v>-246.2393763400055</v>
       </c>
       <c r="B114" t="n">
-        <v>10.51309296544647</v>
+        <v>-10.51207733746395</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-243.2454814958002</v>
+        <v>-243.2420245654639</v>
       </c>
       <c r="B115" t="n">
-        <v>10.37318889458071</v>
+        <v>-10.37215166787509</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-240.2421635749985</v>
+        <v>-240.2385419770698</v>
       </c>
       <c r="B116" t="n">
-        <v>10.23350545782563</v>
+        <v>-10.23245008551259</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-237.2327790037845</v>
+        <v>-237.2289830910518</v>
       </c>
       <c r="B117" t="n">
-        <v>10.09403985710317</v>
+        <v>-10.09296446973634</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-234.2173886192221</v>
+        <v>-234.2134252808547</v>
       </c>
       <c r="B118" t="n">
-        <v>9.954785076102587</v>
+        <v>-9.953690983404773</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-231.1960753389904</v>
+        <v>-231.1919514667755</v>
       </c>
       <c r="B119" t="n">
-        <v>9.815738391174136</v>
+        <v>-9.814626889537529</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>-228.1689049313135</v>
+        <v>-228.1646109354797</v>
       </c>
       <c r="B120" t="n">
-        <v>9.67689400021129</v>
+        <v>-9.675763228319932</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>-225.1359556525492</v>
+        <v>-225.1314981001225</v>
       </c>
       <c r="B121" t="n">
-        <v>9.53824819691593</v>
+        <v>-9.537099459185251</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>-222.0973040578197</v>
+        <v>-222.0926847338356</v>
       </c>
       <c r="B122" t="n">
-        <v>9.399797396932096</v>
+        <v>-9.398630912060518</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>-219.053017207747</v>
+        <v>-219.0482488663033</v>
       </c>
       <c r="B123" t="n">
-        <v>9.261535917649164</v>
+        <v>-9.260353980743378</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>-216.0031779981518</v>
+        <v>-215.998244955797</v>
       </c>
       <c r="B124" t="n">
-        <v>9.123461279835389</v>
+        <v>-9.122261026723619</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>-212.9478532963885</v>
+        <v>-212.9427628486621</v>
       </c>
       <c r="B125" t="n">
-        <v>8.985567917443968</v>
+        <v>-8.984350597554903</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>-209.8871148678043</v>
+        <v>-209.8818797768167</v>
       </c>
       <c r="B126" t="n">
-        <v>8.847851382484558</v>
+        <v>-8.846619265768243</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>-206.8210523162889</v>
+        <v>-206.8156679257702</v>
       </c>
       <c r="B127" t="n">
-        <v>8.710310305981931</v>
+        <v>-8.709062597823671</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>-203.7497266213126</v>
+        <v>-203.7441835023594</v>
       </c>
       <c r="B128" t="n">
-        <v>8.572938259111648</v>
+        <v>-8.571673118019277</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>-200.6732152873514</v>
+        <v>-200.6675320115318</v>
       </c>
       <c r="B129" t="n">
-        <v>8.435731945032444</v>
+        <v>-8.434452632915832</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>-197.5916029841501</v>
+        <v>-197.5857637168321</v>
       </c>
       <c r="B130" t="n">
-        <v>8.29868906171057</v>
+        <v>-8.29739275206523</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>-194.5049558060952</v>
+        <v>-194.4989794359595</v>
       </c>
       <c r="B131" t="n">
-        <v>8.16180435802827</v>
+        <v>-8.160494281712893</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>-191.4133470276406</v>
+        <v>-191.4072293199507</v>
       </c>
       <c r="B132" t="n">
-        <v>8.025073591715993</v>
+        <v>-8.023748939112757</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>-188.3168605900732</v>
+        <v>-188.3106027927361</v>
       </c>
       <c r="B133" t="n">
-        <v>7.888494598352859</v>
+        <v>-7.887155576392639</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>-185.2155689854326</v>
+        <v>-185.2091784342015</v>
       </c>
       <c r="B134" t="n">
-        <v>7.752063232587599</v>
+        <v>-7.750711035638496</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>-182.1095511846597</v>
+        <v>-182.1030297628303</v>
       </c>
       <c r="B135" t="n">
-        <v>7.615776364851915</v>
+        <v>-7.614411170898719</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>-178.9988856200462</v>
+        <v>-178.9922288614686</v>
       </c>
       <c r="B136" t="n">
-        <v>7.479630913255447</v>
+        <v>-7.478251920332031</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>-175.8836565570712</v>
+        <v>-175.8768551927111</v>
       </c>
       <c r="B137" t="n">
-        <v>7.343624816954421</v>
+        <v>-7.34223020454623</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>-172.7639093763262</v>
+        <v>-172.7569925262934</v>
       </c>
       <c r="B138" t="n">
-        <v>7.20774904790652</v>
+        <v>-7.206344008196012</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>-169.6397563311421</v>
+        <v>-169.632709302172</v>
       </c>
       <c r="B139" t="n">
-        <v>7.072006603252816</v>
+        <v>-7.070588308413032</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>-166.5112599039525</v>
+        <v>-166.5040897679807</v>
       </c>
       <c r="B140" t="n">
-        <v>6.936391504512319</v>
+        <v>-6.934961132729519</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>-163.3785044221037</v>
+        <v>-163.3712128245132</v>
       </c>
       <c r="B141" t="n">
-        <v>6.800901801912753</v>
+        <v>-6.799459527993418</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>-160.2415637277344</v>
+        <v>-160.2341520385412</v>
       </c>
       <c r="B142" t="n">
-        <v>6.665533566229775</v>
+        <v>-6.664079570073309</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>-157.1005166147034</v>
+        <v>-157.0929756547999</v>
       </c>
       <c r="B143" t="n">
-        <v>6.53028390357689</v>
+        <v>-6.52881637288426</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>-153.9554373999102</v>
+        <v>-153.94779111409</v>
       </c>
       <c r="B144" t="n">
-        <v>6.395148930852366</v>
+        <v>-6.393671986703396</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>-150.8064161877569</v>
+        <v>-150.798649431139</v>
       </c>
       <c r="B145" t="n">
-        <v>6.260127769820247</v>
+        <v>-6.258638622233171</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>-147.653521759509</v>
+        <v>-147.6456362388753</v>
       </c>
       <c r="B146" t="n">
-        <v>6.125215597965129</v>
+        <v>-6.123714415600348</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>-144.4968275960122</v>
+        <v>-144.4888418219402</v>
       </c>
       <c r="B147" t="n">
-        <v>5.99040862788886</v>
+        <v>-5.988898518592268</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>-141.3364305742743</v>
+        <v>-141.3283348823309</v>
       </c>
       <c r="B148" t="n">
-        <v>5.855706992162077</v>
+        <v>-5.854186157850983</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>-138.1723992008402</v>
+        <v>-138.1642007349489</v>
       </c>
       <c r="B149" t="n">
-        <v>5.721105946811651</v>
+        <v>-5.719575528325855</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>-135.0048183303786</v>
+        <v>-134.9965025971995</v>
       </c>
       <c r="B150" t="n">
-        <v>5.58660371431647</v>
+        <v>-5.585060929810788</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>-131.83375721047</v>
+        <v>-131.8253535333198</v>
       </c>
       <c r="B151" t="n">
-        <v>5.452195584545723</v>
+        <v>-5.450645475615347</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>-128.6593016616121</v>
+        <v>-128.6508061120787</v>
       </c>
       <c r="B152" t="n">
-        <v>5.317879800062957</v>
+        <v>-5.316321542328192</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>-125.4815424550374</v>
+        <v>-125.4729511277737</v>
       </c>
       <c r="B153" t="n">
-        <v>5.183655596977058</v>
+        <v>-5.182088368814887</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>-122.3005542282172</v>
+        <v>-122.2918634939859</v>
       </c>
       <c r="B154" t="n">
-        <v>5.04951929548339</v>
+        <v>-5.047942273795462</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>-119.1164060595936</v>
+        <v>-119.1076177033884</v>
       </c>
       <c r="B155" t="n">
-        <v>4.91546626824067</v>
+        <v>-4.913879604453482</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>-115.9291840836481</v>
+        <v>-115.9203109471446</v>
       </c>
       <c r="B156" t="n">
-        <v>4.781494811956255</v>
+        <v>-4.779900593002098</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>-112.7389850393786</v>
+        <v>-112.7300235161008</v>
       </c>
       <c r="B157" t="n">
-        <v>4.64760517357079</v>
+        <v>-4.646002574415129</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>-109.5458674599286</v>
+        <v>-109.5368245007582</v>
       </c>
       <c r="B158" t="n">
-        <v>4.51379083126209</v>
+        <v>-4.512180967896469</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>-106.3499282390868</v>
+        <v>-106.3408005048322</v>
       </c>
       <c r="B159" t="n">
-        <v>4.380052053604679</v>
+        <v>-4.378434098006296</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>-103.1512427539577</v>
+        <v>-103.142031577803</v>
       </c>
       <c r="B160" t="n">
-        <v>4.246385246415519</v>
+        <v>-4.244759347138616</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>-99.94989136854019</v>
+        <v>-99.94060469410563</v>
       </c>
       <c r="B161" t="n">
-        <v>4.112787801649064</v>
+        <v>-4.111155056036116</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>-96.74595524573519</v>
+        <v>-96.73660004929748</v>
       </c>
       <c r="B162" t="n">
-        <v>3.979257114265228</v>
+        <v>-3.977618626415653</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>-93.53952591090258</v>
+        <v>-93.5300984016724</v>
       </c>
       <c r="B163" t="n">
-        <v>3.845792518928382</v>
+        <v>-3.844147464812317</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>-90.3306734055017</v>
+        <v>-90.32116442197903</v>
       </c>
       <c r="B164" t="n">
-        <v>3.712389509287564</v>
+        <v>-3.710736106057841</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>-87.11948939389166</v>
+        <v>-87.10991203455781</v>
       </c>
       <c r="B165" t="n">
-        <v>3.579047435631556</v>
+        <v>-3.577387737941168</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>-83.90604429450177</v>
+        <v>-83.89640579919909</v>
       </c>
       <c r="B166" t="n">
-        <v>3.445761813140363</v>
+        <v>-3.444096914482535</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>-80.69043012719757</v>
+        <v>-80.6807321264113</v>
       </c>
       <c r="B167" t="n">
-        <v>3.312532005031693</v>
+        <v>-3.310862039202214</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>-77.47273335161529</v>
+        <v>-77.46296672332174</v>
       </c>
       <c r="B168" t="n">
-        <v>3.179356420779543</v>
+        <v>-3.177679606820992</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>-74.25302411862549</v>
+        <v>-74.24320218522362</v>
       </c>
       <c r="B169" t="n">
-        <v>3.046230608174044</v>
+        <v>-3.044548987416311</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>-71.03138946779978</v>
+        <v>-71.02151365403114</v>
       </c>
       <c r="B170" t="n">
-        <v>2.913152990647172</v>
+        <v>-2.911466695887443</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>-67.80792701483203</v>
+        <v>-67.79799382813553</v>
       </c>
       <c r="B171" t="n">
-        <v>2.780123906420734</v>
+        <v>-2.778432112416336</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>-64.58269632875601</v>
+        <v>-64.57271303910613</v>
       </c>
       <c r="B172" t="n">
-        <v>2.647137019076048</v>
+        <v>-2.645440809376598</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>-61.35579513112401</v>
+        <v>-61.34576923160873</v>
       </c>
       <c r="B173" t="n">
-        <v>2.514192678535426</v>
+        <v>-2.51249313291966</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>-58.12729945723294</v>
+        <v>-58.11722702874166</v>
       </c>
       <c r="B174" t="n">
-        <v>2.381287424933994</v>
+        <v>-2.379583719027726</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>-54.89730711333954</v>
+        <v>-54.88717953152653</v>
       </c>
       <c r="B175" t="n">
-        <v>2.248421612557848</v>
+        <v>-2.246711969017529</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>-51.66588347739155</v>
+        <v>-51.65571340212911</v>
       </c>
       <c r="B176" t="n">
-        <v>2.115589889186911</v>
+        <v>-2.113876338578191</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>-48.43311547483003</v>
+        <v>-48.42291578159255</v>
       </c>
       <c r="B177" t="n">
-        <v>1.982790716671695</v>
+        <v>-1.981075284859781</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>-45.1990956583507</v>
+        <v>-45.18886288579929</v>
       </c>
       <c r="B178" t="n">
-        <v>1.850023508759819</v>
+        <v>-1.848305369057342</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>-41.9639058674862</v>
+        <v>-41.95363075890409</v>
       </c>
       <c r="B179" t="n">
-        <v>1.717285781251364</v>
+        <v>-1.715563159660556</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>-38.72762217724998</v>
+        <v>-38.71731782843555</v>
       </c>
       <c r="B180" t="n">
-        <v>1.584574106496285</v>
+        <v>-1.58284902522729</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>-35.49033187063916</v>
+        <v>-35.47999999152064</v>
       </c>
       <c r="B181" t="n">
-        <v>1.451886958721586</v>
+        <v>-1.450159541230565</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>-32.25212762785644</v>
+        <v>-32.24176477528384</v>
       </c>
       <c r="B182" t="n">
-        <v>1.31922376246698</v>
+        <v>-1.317493183309199</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>-29.01307509127257</v>
+        <v>-29.00269951719753</v>
       </c>
       <c r="B183" t="n">
-        <v>1.186579204195945</v>
+        <v>-1.184848429658827</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>-25.77328310259912</v>
+        <v>-25.76288020559103</v>
       </c>
       <c r="B184" t="n">
-        <v>1.053955557116034</v>
+        <v>-1.052221866013909</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>-22.5328117746925</v>
+        <v>-22.52239464988883</v>
       </c>
       <c r="B185" t="n">
-        <v>0.9213465666531531</v>
+        <v>-0.9196119755507809</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>-19.29176483067081</v>
+        <v>-19.28132425438637</v>
       </c>
       <c r="B186" t="n">
-        <v>0.7887535603924168</v>
+        <v>-0.7870162967391821</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>-16.0502022168778</v>
+        <v>-16.03975665294326</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6561702905680197</v>
+        <v>-0.6544333164108854</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>-12.80822768719755</v>
+        <v>-12.79777370422316</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5235980868076636</v>
+        <v>-0.5218605761359979</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>-9.565934266600436</v>
+        <v>-9.555462648528653</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3910363847762161</v>
+        <v>-0.3892965655085276</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>-6.323376575789477</v>
+        <v>-6.312900208843121</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2584779959552746</v>
+        <v>-0.2567378820380586</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>-3.080658186022802</v>
+        <v>-3.070179010875414</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1259242514358974</v>
+        <v>-0.1241839635500502</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>0.1621387999721795</v>
+        <v>0.1726244192368247</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.006627303440934691</v>
+        <v>0.008368590993067269</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>3.404932694777011</v>
+        <v>3.415411663158736</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.1391791229783856</v>
+        <v>0.1409193968462871</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>6.64764139343102</v>
+        <v>6.658117346879786</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.2717336615223958</v>
+        <v>0.2734737474023822</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>9.890166270743846</v>
+        <v>9.90064284615241</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.4042905343660159</v>
+        <v>0.4060312580716448</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>13.13243680176767</v>
+        <v>13.14290648217114</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.5368540892902213</v>
+        <v>0.5385943837116197</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>16.37437626644921</v>
+        <v>16.38483174432102</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.6694277292077621</v>
+        <v>0.6711665267758157</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>19.61588648083842</v>
+        <v>19.62632581795809</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.8020110712669887</v>
+        <v>0.8037482507500144</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>22.85689095781071</v>
+        <v>22.86731200655376</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.9346075207876816</v>
+        <v>0.9363429608730377</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>26.09729111690158</v>
+        <v>26.10769236313056</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.067216696367124</v>
+        <v>1.068950275142356</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>29.33702208733256</v>
+        <v>29.34740675661478</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.199843901295098</v>
+        <v>1.201576444817919</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>32.57598511398317</v>
+        <v>32.58634053499418</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.332488757457292</v>
+        <v>1.334218247917609</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>35.8141095834069</v>
+        <v>35.82443382581928</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.465155627039892</v>
+        <v>1.466881941277397</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>39.05130279237452</v>
+        <v>39.06159371452812</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.59784508329234</v>
+        <v>1.599568098129584</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>42.28747721807694</v>
+        <v>42.29774406633911</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.730558649713433</v>
+        <v>1.732280139276359</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>45.52255116469627</v>
+        <v>45.53279223664642</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.863298801021858</v>
+        <v>1.865018642208747</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>48.75644877760389</v>
+        <v>48.7666507646181</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.996068965163015</v>
+        <v>1.99778513585792</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>51.98908800680759</v>
+        <v>51.99924383484117</v>
       </c>
       <c r="B208" t="n">
-        <v>-2.128871627744429</v>
+        <v>2.130583051197533</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>55.22036555414184</v>
+        <v>55.23048405955573</v>
       </c>
       <c r="B209" t="n">
-        <v>-2.261705472706421</v>
+        <v>2.263413925265127</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>58.45021599682435</v>
+        <v>58.46029549295852</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.394575844518177</v>
+        <v>2.396281200340875</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>61.67855783752847</v>
+        <v>61.68858545058891</v>
       </c>
       <c r="B211" t="n">
-        <v>-2.527485241859197</v>
+        <v>2.529185470420537</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>64.90529887212591</v>
+        <v>64.91526710129963</v>
       </c>
       <c r="B212" t="n">
-        <v>-2.660434262078227</v>
+        <v>2.662128282095225</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>68.13035187082468</v>
+        <v>68.14028099928345</v>
       </c>
       <c r="B213" t="n">
-        <v>-2.793424459675225</v>
+        <v>2.795115954577836</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>71.3536410755422</v>
+        <v>71.36351240950681</v>
       </c>
       <c r="B214" t="n">
-        <v>-2.926459299803378</v>
+        <v>2.928145282018597</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>74.57508495918665</v>
+        <v>74.58489683528974</v>
       </c>
       <c r="B215" t="n">
-        <v>-3.0595413038509</v>
+        <v>3.061221641452031</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>77.79459689246265</v>
+        <v>77.8043474289781</v>
       </c>
       <c r="B216" t="n">
-        <v>-3.192672042490938</v>
+        <v>3.194346603984034</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>81.01209007147085</v>
+        <v>81.02178838722844</v>
       </c>
       <c r="B217" t="n">
-        <v>-3.325853092126767</v>
+        <v>3.327523659157598</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>84.22749412617605</v>
+        <v>84.2371165914775</v>
       </c>
       <c r="B218" t="n">
-        <v>-3.459088908228548</v>
+        <v>3.46075151809358</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>87.44071160040333</v>
+        <v>87.45027273423894</v>
       </c>
       <c r="B219" t="n">
-        <v>-3.592379165534927</v>
+        <v>3.594036557692839</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>90.65166686290817</v>
+        <v>90.66115919152863</v>
       </c>
       <c r="B220" t="n">
-        <v>-3.725727377003012</v>
+        <v>3.727378459834678</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>93.86027896720056</v>
+        <v>93.86970063842406</v>
       </c>
       <c r="B221" t="n">
-        <v>-3.859136106770573</v>
+        <v>3.860780744720024</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>97.06646117034272</v>
+        <v>97.07581620479144</v>
       </c>
       <c r="B222" t="n">
-        <v>-3.992606970356985</v>
+        <v>3.994245985020691</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>100.2701385231302</v>
+        <v>100.2794192210509</v>
       </c>
       <c r="B223" t="n">
-        <v>-4.126143507617892</v>
+        <v>4.12777580439575</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>103.4712300518529</v>
+        <v>103.4804291893521</v>
       </c>
       <c r="B224" t="n">
-        <v>-4.259748314968111</v>
+        <v>4.261372790395626</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>106.6696438182927</v>
+        <v>106.6787652061484</v>
       </c>
       <c r="B225" t="n">
-        <v>-4.393422070398856</v>
+        <v>4.395039546291565</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>109.8653102535903</v>
+        <v>109.8743520786866</v>
       </c>
       <c r="B226" t="n">
-        <v>-4.527169315912123</v>
+        <v>4.528779651621216</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>113.0581378027537</v>
+        <v>113.0670869690388</v>
       </c>
       <c r="B227" t="n">
-        <v>-4.660990745154594</v>
+        <v>4.662591867757172</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>116.2480460176158</v>
+        <v>116.2569063622722</v>
       </c>
       <c r="B228" t="n">
-        <v>-4.794888991194417</v>
+        <v>4.796481720218827</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>119.4349650796665</v>
+        <v>119.4437294049244</v>
       </c>
       <c r="B229" t="n">
-        <v>-4.928868646478103</v>
+        <v>4.930451863988502</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>122.6187928440397</v>
+        <v>122.627476075345</v>
       </c>
       <c r="B230" t="n">
-        <v>-5.062928489677017</v>
+        <v>5.064504956832226</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>125.7994709611893</v>
+        <v>125.8080602686188</v>
       </c>
       <c r="B231" t="n">
-        <v>-5.197075078963247</v>
+        <v>5.198642707020118</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>128.9769025829471</v>
+        <v>128.9853961997616</v>
       </c>
       <c r="B232" t="n">
-        <v>-5.331308189576799</v>
+        <v>5.332866828155718</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>132.1510135880785</v>
+        <v>132.1594149016205</v>
       </c>
       <c r="B233" t="n">
-        <v>-5.465631486761335</v>
+        <v>5.467181966380812</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>135.3217232357661</v>
+        <v>135.330025351238</v>
       </c>
       <c r="B234" t="n">
-        <v>-5.60004769993192</v>
+        <v>5.601588887104316</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>138.4889630056848</v>
+        <v>138.4971530917165</v>
       </c>
       <c r="B235" t="n">
-        <v>-5.73456151275823</v>
+        <v>5.736091296518694</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>141.6526360831735</v>
+        <v>141.6607123961695</v>
       </c>
       <c r="B236" t="n">
-        <v>-5.869172750512213</v>
+        <v>5.870690968828359</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>144.8126687166878</v>
+        <v>144.820640354314</v>
       </c>
       <c r="B237" t="n">
-        <v>-6.003885146566021</v>
+        <v>6.00539360410316</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>147.9689804807463</v>
+        <v>147.9768462771784</v>
       </c>
       <c r="B238" t="n">
-        <v>-6.138701499495634</v>
+        <v>6.140200026010383</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>151.1214921216741</v>
+        <v>151.1292444045843</v>
       </c>
       <c r="B239" t="n">
-        <v>-6.273624603925627</v>
+        <v>6.275112062933708</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>154.2701296314933</v>
+        <v>154.2777669804787</v>
       </c>
       <c r="B240" t="n">
-        <v>-6.408658267612298</v>
+        <v>6.410134487441479</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>157.4148022616484</v>
+        <v>157.4223284166665</v>
       </c>
       <c r="B241" t="n">
-        <v>-6.543803363536482</v>
+        <v>6.545269168165356</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>160.5554475998287</v>
+        <v>160.5628497490364</v>
       </c>
       <c r="B242" t="n">
-        <v>-6.67906571017074</v>
+        <v>6.680518954341079</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>163.6919750715018</v>
+        <v>163.6992515400972</v>
       </c>
       <c r="B243" t="n">
-        <v>-6.814446219283036</v>
+        <v>6.815886728573536</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>166.8242995868939</v>
+        <v>166.8314655917337</v>
       </c>
       <c r="B244" t="n">
-        <v>-6.949946807418678</v>
+        <v>6.951377382404331</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>169.9523756377142</v>
+        <v>169.9593960560591</v>
       </c>
       <c r="B245" t="n">
-        <v>-7.085576363375359</v>
+        <v>7.086990863564354</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>173.0760908652595</v>
+        <v>173.0829918163692</v>
       </c>
       <c r="B246" t="n">
-        <v>-7.221331874583646</v>
+        <v>7.222735099062388</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>176.1953773338094</v>
+        <v>176.202157502594</v>
       </c>
       <c r="B247" t="n">
-        <v>-7.357218308949079</v>
+        <v>7.358610074428128</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>179.3101617788743</v>
+        <v>179.3168080734908</v>
       </c>
       <c r="B248" t="n">
-        <v>-7.493239669005756</v>
+        <v>7.494617804161166</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>182.4203652876251</v>
+        <v>182.4268818502251</v>
       </c>
       <c r="B249" t="n">
-        <v>-7.629398991589696</v>
+        <v>7.630764308447532</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>185.5259150960957</v>
+        <v>185.5322891330504</v>
       </c>
       <c r="B250" t="n">
-        <v>-7.765700331333</v>
+        <v>7.767050633171654</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>188.6267209508647</v>
+        <v>188.6329678489116</v>
       </c>
       <c r="B251" t="n">
-        <v>-7.902144778203033</v>
+        <v>7.903482887562093</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>191.7227269364649</v>
+        <v>191.7288284647445</v>
       </c>
       <c r="B252" t="n">
-        <v>-8.038739474350313</v>
+        <v>8.040062169805445</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>194.8138378216867</v>
+        <v>194.8198033312801</v>
       </c>
       <c r="B253" t="n">
-        <v>-8.175484543871034</v>
+        <v>8.176793659157564</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>197.8999863518384</v>
+        <v>197.9058030605296</v>
       </c>
       <c r="B254" t="n">
-        <v>-8.312385192329828</v>
+        <v>8.313678503452497</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>200.9810944578619</v>
+        <v>200.986766607871</v>
       </c>
       <c r="B255" t="n">
-        <v>-8.449444629006658</v>
+        <v>8.450722940814899</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>204.0570892974833</v>
+        <v>204.0626150384</v>
       </c>
       <c r="B256" t="n">
-        <v>-8.586667131342351</v>
+        <v>8.587930251064568</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>207.1278926451112</v>
+        <v>207.1332711236202</v>
       </c>
       <c r="B257" t="n">
-        <v>-8.72405599227374</v>
+        <v>8.725303688278281</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>210.1934266821121</v>
+        <v>210.1986560728325</v>
       </c>
       <c r="B258" t="n">
-        <v>-8.861614526100606</v>
+        <v>8.862846600189826</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>213.2536304406424</v>
+        <v>213.2586979680641</v>
       </c>
       <c r="B259" t="n">
-        <v>-8.999349168460569</v>
+        <v>9.000563353457325</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>216.3084143254626</v>
+        <v>216.3133297967842</v>
       </c>
       <c r="B260" t="n">
-        <v>-9.137261294155499</v>
+        <v>9.138459422814822</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>219.357706582019</v>
+        <v>219.362451745146</v>
       </c>
       <c r="B261" t="n">
-        <v>-9.275355357858135</v>
+        <v>9.276534107170814</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>222.4014293796985</v>
+        <v>222.4060195661466</v>
       </c>
       <c r="B262" t="n">
-        <v>-9.413634848090451</v>
+        <v>9.414797091508497</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>225.4395159321172</v>
+        <v>225.4439500566386</v>
       </c>
       <c r="B263" t="n">
-        <v>-9.552105384209032</v>
+        <v>9.553250880966663</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>228.4718837673471</v>
+        <v>228.4761600614436</v>
       </c>
       <c r="B264" t="n">
-        <v>-9.690769474179636</v>
+        <v>9.691898010470666</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>231.4984659070298</v>
+        <v>231.5025771072486</v>
       </c>
       <c r="B265" t="n">
-        <v>-9.829632856103713</v>
+        <v>9.830743164642183</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>234.5191906639038</v>
+        <v>234.5231415798937</v>
       </c>
       <c r="B266" t="n">
-        <v>-9.968700250902454</v>
+        <v>9.96979311214429</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>237.5339864325836</v>
+        <v>237.5377643147674</v>
       </c>
       <c r="B267" t="n">
-        <v>-10.10797643607135</v>
+        <v>10.10904951147443</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>240.5427706694153</v>
+        <v>240.5463792746585</v>
       </c>
       <c r="B268" t="n">
-        <v>-10.24746412482733</v>
+        <v>10.24851823798496</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>243.5454766767629</v>
+        <v>243.5489150021525</v>
       </c>
       <c r="B269" t="n">
-        <v>-10.38716929463351</v>
+        <v>10.38820417529696</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>246.5420330488399</v>
+        <v>246.5452942253401</v>
       </c>
       <c r="B270" t="n">
-        <v>-10.52709689637324</v>
+        <v>10.52811121965253</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>249.5323684509479</v>
+        <v>249.5354511303664</v>
       </c>
       <c r="B271" t="n">
-        <v>-10.66725194471096</v>
+        <v>10.66824544275318</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>252.5163942853127</v>
+        <v>252.5193085606271</v>
       </c>
       <c r="B272" t="n">
-        <v>-10.80763633503746</v>
+        <v>10.80861086580464</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>255.4940621730374</v>
+        <v>255.4967949236708</v>
       </c>
       <c r="B273" t="n">
-        <v>-10.94825946015381</v>
+        <v>10.94921264437548</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>258.4652887660231</v>
+        <v>258.4678449780558</v>
       </c>
       <c r="B274" t="n">
-        <v>-11.08912444819188</v>
+        <v>11.09005704565425</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>261.4299977916849</v>
+        <v>261.432369871483</v>
       </c>
       <c r="B275" t="n">
-        <v>-11.23023547534267</v>
+        <v>11.23114616459647</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>264.3881173961906</v>
+        <v>264.3903159177707</v>
       </c>
       <c r="B276" t="n">
-        <v>-11.37159793229135</v>
+        <v>11.37248855882594</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>267.3395995102687</v>
+        <v>267.3416002550832</v>
       </c>
       <c r="B277" t="n">
-        <v>-11.5132215732819</v>
+        <v>11.51408752708925</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>270.2843442681515</v>
+        <v>270.2861689477417</v>
       </c>
       <c r="B278" t="n">
-        <v>-11.65510652834324</v>
+        <v>11.65595183801998</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>273.222291805249</v>
+        <v>273.2239332434033</v>
       </c>
       <c r="B279" t="n">
-        <v>-11.79726057696618</v>
+        <v>11.79808387450842</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>276.1533827332928</v>
+        <v>276.154828587243</v>
       </c>
       <c r="B280" t="n">
-        <v>-11.93969158933592</v>
+        <v>11.94049036016366</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279.0775227392694</v>
+        <v>279.0787829072635</v>
       </c>
       <c r="B281" t="n">
-        <v>-12.08240099627977</v>
+        <v>12.08317713622878</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281.9946640224617</v>
+        <v>281.9957317365922</v>
       </c>
       <c r="B282" t="n">
-        <v>-12.22539904102333</v>
+        <v>12.22615112223383</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>284.9047293917728</v>
+        <v>284.9055918987527</v>
       </c>
       <c r="B283" t="n">
-        <v>-12.36869063824693</v>
+        <v>12.36941612316796</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>287.8076364689289</v>
+        <v>287.8083161147878</v>
       </c>
       <c r="B284" t="n">
-        <v>-12.51227963562049</v>
+        <v>12.51298258219961</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>290.7033315901436</v>
+        <v>290.7038092352855</v>
       </c>
       <c r="B285" t="n">
-        <v>-12.65617552725074</v>
+        <v>12.65685231494704</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>293.5917427282365</v>
+        <v>293.5920120286447</v>
       </c>
       <c r="B286" t="n">
-        <v>-12.80038468327549</v>
+        <v>12.8010337961732</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>296.4727827333097</v>
+        <v>296.4728713317533</v>
       </c>
       <c r="B287" t="n">
-        <v>-12.94491005521942</v>
+        <v>12.94553674527343</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>299.3464091929567</v>
+        <v>299.3462979262456</v>
       </c>
       <c r="B288" t="n">
-        <v>-13.0897637777694</v>
+        <v>13.0903643804925</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>302.2125388641067</v>
+        <v>302.2122214277216</v>
       </c>
       <c r="B289" t="n">
-        <v>-13.23495029437471</v>
+        <v>13.23552326647092</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>305.0711069627077</v>
+        <v>305.0705822341291</v>
       </c>
       <c r="B290" t="n">
-        <v>-13.38047745804979</v>
+        <v>13.3810224165716</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>307.922041805776</v>
+        <v>307.9213030597575</v>
       </c>
       <c r="B291" t="n">
-        <v>-13.52635220529397</v>
+        <v>13.52686760329569</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>310.7652669118792</v>
+        <v>310.7643242774222</v>
       </c>
       <c r="B292" t="n">
-        <v>-13.67258037288721</v>
+        <v>13.67306812502982</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>313.6007282476484</v>
+        <v>313.5995810821393</v>
       </c>
       <c r="B293" t="n">
-        <v>-13.81917257341002</v>
+        <v>13.81963224751801</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>316.4283544733159</v>
+        <v>316.4269956439912</v>
       </c>
       <c r="B294" t="n">
-        <v>-13.96613613677125</v>
+        <v>13.96656619192552</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>319.2480568410749</v>
+        <v>319.2464969959914</v>
       </c>
       <c r="B295" t="n">
-        <v>-14.11347504157116</v>
+        <v>14.11387737176518</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>322.0598051068358</v>
+        <v>322.0580314854702</v>
       </c>
       <c r="B296" t="n">
-        <v>-14.2612049869377</v>
+        <v>14.26157685334254</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>324.8634982526433</v>
+        <v>324.8615037164732</v>
       </c>
       <c r="B297" t="n">
-        <v>-14.40932798130446</v>
+        <v>14.40966779501751</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>327.6590735852207</v>
+        <v>327.6568721100469</v>
       </c>
       <c r="B298" t="n">
-        <v>-14.55785369023147</v>
+        <v>14.55816389526243</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>330.4464801409294</v>
+        <v>330.4440678885829</v>
       </c>
       <c r="B299" t="n">
-        <v>-14.70679433081797</v>
+        <v>14.70707388257757</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>333.2256316102565</v>
+        <v>333.2229953460098</v>
       </c>
       <c r="B300" t="n">
-        <v>-14.85615525778927</v>
+        <v>14.85640137131674</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>335.9964707867462</v>
+        <v>335.9936127723325</v>
       </c>
       <c r="B301" t="n">
-        <v>-15.00594791881475</v>
+        <v>15.00616066613749</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>338.7589257725257</v>
+        <v>338.7558686225206</v>
       </c>
       <c r="B302" t="n">
-        <v>-15.15618100081885</v>
+        <v>15.156364666325</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>341.5129330841825</v>
+        <v>341.5096436761913</v>
       </c>
       <c r="B303" t="n">
-        <v>-15.30686521755972</v>
+        <v>15.30701269885822</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>344.2584219814806</v>
+        <v>344.2549073865875</v>
       </c>
       <c r="B304" t="n">
-        <v>-15.45800952826226</v>
+        <v>15.45812218137144</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>346.9953184078549</v>
+        <v>346.991587101889</v>
       </c>
       <c r="B305" t="n">
-        <v>-15.60962342668761</v>
+        <v>15.60970248062707</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>349.723566078661</v>
+        <v>349.7196142534867</v>
       </c>
       <c r="B306" t="n">
-        <v>-15.76171934529392</v>
+        <v>15.76176365243611</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>352.4430887492692</v>
+        <v>352.4389121337685</v>
       </c>
       <c r="B307" t="n">
-        <v>-15.91430654240279</v>
+        <v>15.91431498433919</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>355.1538265970422</v>
+        <v>355.1494270926013</v>
       </c>
       <c r="B308" t="n">
-        <v>-16.06739738179427</v>
+        <v>16.06737002528819</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>357.8557116656273</v>
+        <v>357.8510801970496</v>
       </c>
       <c r="B309" t="n">
-        <v>-16.22100351279479</v>
+        <v>16.22093783878516</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>360.5486628908087</v>
+        <v>360.5438066382729</v>
       </c>
       <c r="B310" t="n">
-        <v>-16.37513352694742</v>
+        <v>16.37503089213486</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>363.2326305648619</v>
+        <v>363.2275428496633</v>
       </c>
       <c r="B311" t="n">
-        <v>-16.5298032590882</v>
+        <v>16.52966178817274</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>365.907541440833</v>
+        <v>365.9022246532524</v>
       </c>
       <c r="B312" t="n">
-        <v>-16.68502383816376</v>
+        <v>16.68484348963884</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>368.5733191867066</v>
+        <v>368.567762831468</v>
       </c>
       <c r="B313" t="n">
-        <v>-16.84080602741139</v>
+        <v>16.84058434372324</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>371.2299049985633</v>
+        <v>371.2241263379426</v>
       </c>
       <c r="B314" t="n">
-        <v>-16.99716470965619</v>
+        <v>16.99690480139471</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>373.8772274506714</v>
+        <v>373.8712169187363</v>
       </c>
       <c r="B315" t="n">
-        <v>-17.1541126506351</v>
+        <v>17.15381190736361</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>376.5152191766381</v>
+        <v>376.5089724900613</v>
       </c>
       <c r="B316" t="n">
-        <v>-17.31166342054392</v>
+        <v>17.31132056084605</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>379.143820353212</v>
+        <v>379.137336572072</v>
       </c>
       <c r="B317" t="n">
-        <v>-17.4698330606858</v>
+        <v>17.46944737383994</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>381.7629531241572</v>
+        <v>381.7562409308688</v>
       </c>
       <c r="B318" t="n">
-        <v>-17.62863410658922</v>
+        <v>17.62820672809733</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>384.3725586182796</v>
+        <v>384.3656011949115</v>
       </c>
       <c r="B319" t="n">
-        <v>-17.78808319354827</v>
+        <v>17.7876102459717</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>386.9725488260881</v>
+        <v>386.9653606749796</v>
       </c>
       <c r="B320" t="n">
-        <v>-17.94819174659506</v>
+        <v>17.94767568169179</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>389.562887656147</v>
+        <v>389.5554528331833</v>
       </c>
       <c r="B321" t="n">
-        <v>-18.10898265555215</v>
+        <v>18.10841937861546</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>392.14348168136</v>
+        <v>392.1358021354193</v>
       </c>
       <c r="B322" t="n">
-        <v>-18.27046672633634</v>
+        <v>18.26985609111383</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>394.7142671881351</v>
+        <v>394.7063540947545</v>
       </c>
       <c r="B323" t="n">
-        <v>-18.43266183152816</v>
+        <v>18.4320056722712</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>397.2751826772408</v>
+        <v>397.2670258638165</v>
       </c>
       <c r="B324" t="n">
-        <v>-18.5955871319818</v>
+        <v>18.59488261021806</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>399.8261513001669</v>
+        <v>399.8177536362505</v>
       </c>
       <c r="B325" t="n">
-        <v>-18.75925894175774</v>
+        <v>18.75850570995274</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>402.3671094265976</v>
+        <v>402.3584685722021</v>
       </c>
       <c r="B326" t="n">
-        <v>-18.92369655989787</v>
+        <v>18.92289395656836</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>404.8979913215935</v>
+        <v>404.8890949892802</v>
       </c>
       <c r="B327" t="n">
-        <v>-19.08892019577608</v>
+        <v>19.08806437789944</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>407.4187255287925</v>
+        <v>407.4095785715107</v>
       </c>
       <c r="B328" t="n">
-        <v>-19.2549491756184</v>
+        <v>19.25404057283519</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>409.9292280051077</v>
+        <v>409.919845040956</v>
       </c>
       <c r="B329" t="n">
-        <v>-19.42180064877479</v>
+        <v>19.42084167092697</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>412.4294485844933</v>
+        <v>412.419822252892</v>
       </c>
       <c r="B330" t="n">
-        <v>-19.58949993000327</v>
+        <v>19.58848822570659</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>414.9193143651427</v>
+        <v>414.9094283812789</v>
       </c>
       <c r="B331" t="n">
-        <v>-19.75806839208979</v>
+        <v>19.75699936300025</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>417.3987559370753</v>
+        <v>417.3886151257879</v>
       </c>
       <c r="B332" t="n">
-        <v>-19.92752866372022</v>
+        <v>19.92640265298052</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>419.8676877927811</v>
+        <v>419.8573004022459</v>
       </c>
       <c r="B333" t="n">
-        <v>-20.0979006144598</v>
+        <v>20.09671860652347</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>422.3260546174901</v>
+        <v>422.3154161322108</v>
       </c>
       <c r="B334" t="n">
-        <v>-20.26921207427822</v>
+        <v>20.26797227402234</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>424.773782497233</v>
+        <v>424.7628986063081</v>
       </c>
       <c r="B335" t="n">
-        <v>-20.44148740139428</v>
+        <v>20.44018991423162</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>427.2108005390471</v>
+        <v>427.1996572789531</v>
       </c>
       <c r="B336" t="n">
-        <v>-20.61475246284351</v>
+        <v>20.61339324325366</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>429.6370494468468</v>
+        <v>429.6256391806845</v>
       </c>
       <c r="B337" t="n">
-        <v>-20.78903710263667</v>
+        <v>20.78761342528665</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>432.0524319246359</v>
+        <v>432.0407666402733</v>
       </c>
       <c r="B338" t="n">
-        <v>-20.96436340913545</v>
+        <v>20.962876660002</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>434.4568947466847</v>
+        <v>434.4449663148073</v>
       </c>
       <c r="B339" t="n">
-        <v>-21.14076453741118</v>
+        <v>21.13921200652996</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>436.8503685072328</v>
+        <v>436.8381691514398</v>
       </c>
       <c r="B340" t="n">
-        <v>-21.31827115265495</v>
+        <v>21.3166499396289</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>439.2327546081752</v>
+        <v>439.2203018709669</v>
       </c>
       <c r="B341" t="n">
-        <v>-21.4969084225377</v>
+        <v>21.49522152118542</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>441.6040199226645</v>
+        <v>441.5913002893877</v>
       </c>
       <c r="B342" t="n">
-        <v>-21.67671858093513</v>
+        <v>21.67496128648604</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>443.9640628531031</v>
+        <v>443.9510809016919</v>
       </c>
       <c r="B343" t="n">
-        <v>-21.85772821596511</v>
+        <v>21.85590052233794</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>446.3128150732211</v>
+        <v>446.2995692755619</v>
       </c>
       <c r="B344" t="n">
-        <v>-22.03997383733696</v>
+        <v>22.03807409164457</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>448.6502083234316</v>
+        <v>448.6367001382736</v>
       </c>
       <c r="B345" t="n">
-        <v>-22.22349329793606</v>
+        <v>22.22152060457498</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>450.9761801456556</v>
+        <v>450.9624048621395</v>
       </c>
       <c r="B346" t="n">
-        <v>-22.40832766148625</v>
+        <v>22.40627941893662</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>453.2906459936422</v>
+        <v>453.2765919478367</v>
       </c>
       <c r="B347" t="n">
-        <v>-22.59451396968963</v>
+        <v>22.59238608554245</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>455.5935294278781</v>
+        <v>455.5791954891408</v>
       </c>
       <c r="B348" t="n">
-        <v>-22.78209368695408</v>
+        <v>22.7798839009387</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>457.8847616684391</v>
+        <v>457.8701455325519</v>
       </c>
       <c r="B349" t="n">
-        <v>-22.97111106936689</v>
+        <v>22.96881746069</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>460.1642660975166</v>
+        <v>460.1493750065135</v>
       </c>
       <c r="B350" t="n">
-        <v>-23.16161118360855</v>
+        <v>23.15923419538481</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>462.4319596811087</v>
+        <v>462.4167922057921</v>
       </c>
       <c r="B351" t="n">
-        <v>-23.35363939359294</v>
+        <v>23.35117652399363</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>464.6877853317664</v>
+        <v>464.6723354806541</v>
       </c>
       <c r="B352" t="n">
-        <v>-23.54724958594274</v>
+        <v>23.54469797039296</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>466.9316593901643</v>
+        <v>466.9159344974843</v>
       </c>
       <c r="B353" t="n">
-        <v>-23.74249181204256</v>
+        <v>23.73985155345317</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>469.1635083959185</v>
+        <v>469.1474963314266</v>
       </c>
       <c r="B354" t="n">
-        <v>-23.93942074007701</v>
+        <v>23.93668683087926</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>471.3832617120587</v>
+        <v>471.366963288048</v>
       </c>
       <c r="B355" t="n">
-        <v>-24.13809477752753</v>
+        <v>24.13526531675949</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>473.5908491053529</v>
+        <v>473.5742486517984</v>
       </c>
       <c r="B356" t="n">
-        <v>-24.33857504961345</v>
+        <v>24.33564376825299</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>475.7861775554152</v>
+        <v>475.7692884234614</v>
       </c>
       <c r="B357" t="n">
-        <v>-24.5409197770988</v>
+        <v>24.53788801184913</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>477.969196724789</v>
+        <v>477.9519993870979</v>
       </c>
       <c r="B358" t="n">
-        <v>-24.74520158261567</v>
+        <v>24.74206196065981</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>480.1398239906171</v>
+        <v>480.1223246090354</v>
       </c>
       <c r="B359" t="n">
-        <v>-24.95148807121053</v>
+        <v>24.94824019207953</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>482.2979838085744</v>
+        <v>482.2801950662918</v>
       </c>
       <c r="B360" t="n">
-        <v>-25.1598522575557</v>
+        <v>25.15649739692712</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>484.4436077164808</v>
+        <v>484.4255098496301</v>
       </c>
       <c r="B361" t="n">
-        <v>-25.37037315200014</v>
+        <v>25.36690295969913</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>486.5766382787576</v>
+        <v>486.5582237704055</v>
       </c>
       <c r="B362" t="n">
-        <v>-25.58313677494359</v>
+        <v>25.57954671167865</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>488.6969859144046</v>
+        <v>488.6782505794302</v>
       </c>
       <c r="B363" t="n">
-        <v>-25.79822507911286</v>
+        <v>25.79451094353706</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>490.8045891470704</v>
+        <v>490.7855347812896</v>
       </c>
       <c r="B364" t="n">
-        <v>-26.01573196789037</v>
+        <v>26.01189158281179</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>492.8993847100127</v>
+        <v>492.8800095788409</v>
       </c>
       <c r="B365" t="n">
-        <v>-26.23575617965308</v>
+        <v>26.23178616953505</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>494.9813209202326</v>
+        <v>494.961606367523</v>
       </c>
       <c r="B366" t="n">
-        <v>-26.45840618934429</v>
+        <v>26.45429793567675</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>497.0503225650972</v>
+        <v>497.0302626045175</v>
       </c>
       <c r="B367" t="n">
-        <v>-26.68378830673663</v>
+        <v>26.67953701311761</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>499.1063266070253</v>
+        <v>499.0859352644209</v>
       </c>
       <c r="B368" t="n">
-        <v>-26.912019792966</v>
+        <v>26.90762558585894</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>501.1492972948251</v>
+        <v>501.128550796317</v>
       </c>
       <c r="B369" t="n">
-        <v>-27.14323189337003</v>
+        <v>27.13868476702063</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>503.1791588015211</v>
+        <v>503.1580634223577</v>
       </c>
       <c r="B370" t="n">
-        <v>-27.37755240497425</v>
+        <v>27.37284997164042</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>505.1958805930281</v>
+        <v>505.1744147975543</v>
       </c>
       <c r="B371" t="n">
-        <v>-27.61512990553885</v>
+        <v>27.6102618188581</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>507.1994241214705</v>
+        <v>507.1775826033028</v>
       </c>
       <c r="B372" t="n">
-        <v>-27.85612020659054</v>
+        <v>27.85108039735238</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>509.1897369028907</v>
+        <v>509.1675273085694</v>
       </c>
       <c r="B373" t="n">
-        <v>-28.10068338567135</v>
+        <v>28.0954703247426</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>511.166825332004</v>
+        <v>511.1442133936517</v>
       </c>
       <c r="B374" t="n">
-        <v>-28.34900920466705</v>
+        <v>28.34360705245109</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>513.1306502088964</v>
+        <v>513.1076383016425</v>
       </c>
       <c r="B375" t="n">
-        <v>-28.60128444551788</v>
+        <v>28.59568877589066</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>515.0812030706855</v>
+        <v>515.0577754858793</v>
       </c>
       <c r="B376" t="n">
-        <v>-28.85771670120796</v>
+        <v>28.85191773725492</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>517.0185057334626</v>
+        <v>516.9946418144401</v>
       </c>
       <c r="B377" t="n">
-        <v>-29.1185387784277</v>
+        <v>29.11252400655075</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>518.9425738448315</v>
+        <v>518.9182618923427</v>
       </c>
       <c r="B378" t="n">
-        <v>-29.38399565805013</v>
+        <v>29.37775507210999</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>520.8534295114689</v>
+        <v>520.8286672211713</v>
       </c>
       <c r="B379" t="n">
-        <v>-29.65435050735103</v>
+        <v>29.6478775150443</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>522.7511582788068</v>
+        <v>522.7259058166068</v>
       </c>
       <c r="B380" t="n">
-        <v>-29.92990701010326</v>
+        <v>29.92318114793106</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>524.6358312734219</v>
+        <v>524.6100786912355</v>
       </c>
       <c r="B381" t="n">
-        <v>-30.21098389307208</v>
+        <v>30.20399458348015</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>526.5075478920714</v>
+        <v>526.4812762673264</v>
       </c>
       <c r="B382" t="n">
-        <v>-30.4979313031858</v>
+        <v>30.49066481068688</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_0.xlsx
+++ b/Reverse_anglesIn_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,3050 +440,2314 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.3472030509745</v>
+        <v>-0.4903462047008482</v>
       </c>
       <c r="B2" t="n">
-        <v>-30.47620468673013</v>
+        <v>26.18978689034565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-524.4736779913088</v>
+        <v>-0.4878521304565891</v>
       </c>
       <c r="B3" t="n">
-        <v>-30.18958475388656</v>
+        <v>25.92640111817865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-522.5872033986449</v>
+        <v>-0.4853391218632908</v>
       </c>
       <c r="B4" t="n">
-        <v>-29.90881276835049</v>
+        <v>25.66659400762668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-520.6876946775437</v>
+        <v>-0.4828073186520044</v>
       </c>
       <c r="B5" t="n">
-        <v>-29.63354520121449</v>
+        <v>25.41020011857806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-518.7750457116435</v>
+        <v>-0.4802568621886796</v>
       </c>
       <c r="B6" t="n">
-        <v>-29.36345270507736</v>
+        <v>25.15706519799237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-516.8492212102877</v>
+        <v>-0.4776878949285975</v>
       </c>
       <c r="B7" t="n">
-        <v>-29.09825074602439</v>
+        <v>24.90704514770932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-514.9101674327534</v>
+        <v>-0.4751005600019606</v>
       </c>
       <c r="B8" t="n">
-        <v>-28.83766653281295</v>
+        <v>24.6600051222674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-512.9578688082988</v>
+        <v>-0.4724950009345644</v>
       </c>
       <c r="B9" t="n">
-        <v>-28.58145544906833</v>
+        <v>24.41581874314575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-510.9923110681352</v>
+        <v>-0.469871361263829</v>
       </c>
       <c r="B10" t="n">
-        <v>-28.32938996339151</v>
+        <v>24.1743673537359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-509.0135058453289</v>
+        <v>-0.4672297844070125</v>
       </c>
       <c r="B11" t="n">
-        <v>-28.08126331401343</v>
+        <v>23.93553940664487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-507.021482121423</v>
+        <v>-0.4645704134146121</v>
       </c>
       <c r="B12" t="n">
-        <v>-27.8368860866632</v>
+        <v>23.69922987277987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-505.0162505185625</v>
+        <v>-0.4618933908202821</v>
       </c>
       <c r="B13" t="n">
-        <v>-27.59607571431908</v>
+        <v>23.46533972564516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-502.9978363153704</v>
+        <v>-0.4591988585633585</v>
       </c>
       <c r="B14" t="n">
-        <v>-27.35866339756385</v>
+        <v>23.23377548908129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-500.9663083704347</v>
+        <v>-0.4564869578379851</v>
       </c>
       <c r="B15" t="n">
-        <v>-27.12450414023327</v>
+        <v>23.00444880072671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-498.9216803158042</v>
+        <v>-0.4537578290802489</v>
       </c>
       <c r="B16" t="n">
-        <v>-26.89344405947199</v>
+        <v>22.77727604937684</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-496.8640342401368</v>
+        <v>-0.4510116118465951</v>
       </c>
       <c r="B17" t="n">
-        <v>-26.66535883441286</v>
+        <v>22.55217801214755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-494.7934062370233</v>
+        <v>-0.4482484448189295</v>
       </c>
       <c r="B18" t="n">
-        <v>-26.44011639916138</v>
+        <v>22.3290795533233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-492.7098485792596</v>
+        <v>-0.4454684657883228</v>
       </c>
       <c r="B19" t="n">
-        <v>-26.2175982476063</v>
+        <v>22.10790934136272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-490.6134470420977</v>
+        <v>-0.4426718115901037</v>
       </c>
       <c r="B20" t="n">
-        <v>-25.99770019197434</v>
+        <v>21.88859957610326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-488.5042357404968</v>
+        <v>-0.4398586181341381</v>
       </c>
       <c r="B21" t="n">
-        <v>-25.78031064897109</v>
+        <v>21.67108576040443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-486.3822983315987</v>
+        <v>-0.4370290204000414</v>
       </c>
       <c r="B22" t="n">
-        <v>-25.56533598430622</v>
+        <v>21.45530648081501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-484.2477089985559</v>
+        <v>-0.43418315243725</v>
       </c>
       <c r="B23" t="n">
-        <v>-25.35268648847702</v>
+        <v>21.24120320571031</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-482.1005046069063</v>
+        <v>-0.4313211473952688</v>
       </c>
       <c r="B24" t="n">
-        <v>-25.14226579757115</v>
+        <v>21.02872010629104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-479.940791521815</v>
+        <v>-0.4284431374929702</v>
       </c>
       <c r="B25" t="n">
-        <v>-24.93400204737808</v>
+        <v>20.81780387561513</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-477.7686217431812</v>
+        <v>-0.425549254116231</v>
       </c>
       <c r="B26" t="n">
-        <v>-24.72781176976345</v>
+        <v>20.60840359203918</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-475.5840738250679</v>
+        <v>-0.4226396277782506</v>
       </c>
       <c r="B27" t="n">
-        <v>-24.52362310845698</v>
+        <v>20.40047056007491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-473.3872141442815</v>
+        <v>-0.4197143881759444</v>
       </c>
       <c r="B28" t="n">
-        <v>-24.3213641963903</v>
+        <v>20.19395818470676</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-471.1781124276358</v>
+        <v>-0.4167736642021534</v>
       </c>
       <c r="B29" t="n">
-        <v>-24.12096784849519</v>
+        <v>19.98882184486228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-468.9568674908161</v>
+        <v>-0.4138175840128865</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.92237794542077</v>
+        <v>19.78501878824725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-466.7235242997001</v>
+        <v>-0.4108462749968417</v>
       </c>
       <c r="B31" t="n">
-        <v>-23.72552627187043</v>
+        <v>19.58250801195593</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-464.4781562687113</v>
+        <v>-0.4078598638633918</v>
       </c>
       <c r="B32" t="n">
-        <v>-23.53035574072201</v>
+        <v>19.38125017637324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-462.2208691430645</v>
+        <v>-0.4048584766581832</v>
       </c>
       <c r="B33" t="n">
-        <v>-23.33682000544729</v>
+        <v>19.18120751099433</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-459.9517071643301</v>
+        <v>-0.4018422387850133</v>
       </c>
       <c r="B34" t="n">
-        <v>-23.14485954055685</v>
+        <v>18.98234372646728</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-457.6707503370602</v>
+        <v>-0.3988112750493394</v>
       </c>
       <c r="B35" t="n">
-        <v>-22.95442608047021</v>
+        <v>18.78462393788583</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-455.3780719573454</v>
+        <v>-0.3957657097068294</v>
       </c>
       <c r="B36" t="n">
-        <v>-22.76547194386208</v>
+        <v>18.58801459442268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-453.0737604705545</v>
+        <v>-0.3927056664654736</v>
       </c>
       <c r="B37" t="n">
-        <v>-22.57795569505812</v>
+        <v>18.39248340310099</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-450.7578668088418</v>
+        <v>-0.389631268556823</v>
       </c>
       <c r="B38" t="n">
-        <v>-22.39182784488871</v>
+        <v>18.19799927303536</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-448.4304887754113</v>
+        <v>-0.386542638726268</v>
       </c>
       <c r="B39" t="n">
-        <v>-22.2070528662693</v>
+        <v>18.00453224558686</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-446.0916757036269</v>
+        <v>-0.383439899316411</v>
       </c>
       <c r="B40" t="n">
-        <v>-22.02358528993076</v>
+        <v>17.81205344907687</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-443.7415254156298</v>
+        <v>-0.380323172253941</v>
       </c>
       <c r="B41" t="n">
-        <v>-21.84139251151766</v>
+        <v>17.62053503532143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-441.3800931065904</v>
+        <v>-0.3771925791129918</v>
       </c>
       <c r="B42" t="n">
-        <v>-21.66043374116472</v>
+        <v>17.4299501375697</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-439.0074496330629</v>
+        <v>-0.3740482411323049</v>
       </c>
       <c r="B43" t="n">
-        <v>-21.48067346098983</v>
+        <v>17.24027282029595</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-436.6236817881099</v>
+        <v>-0.3708902792539924</v>
       </c>
       <c r="B44" t="n">
-        <v>-21.30208107850497</v>
+        <v>17.05147803689553</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-434.2288536155687</v>
+        <v>-0.3677188141579587</v>
       </c>
       <c r="B45" t="n">
-        <v>-21.1246220736947</v>
+        <v>16.86354158964146</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-431.8230288394137</v>
+        <v>-0.3645339662665046</v>
       </c>
       <c r="B46" t="n">
-        <v>-20.9482631941437</v>
+        <v>16.67644008523524</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-429.4063016769393</v>
+        <v>-0.3613358558126203</v>
       </c>
       <c r="B47" t="n">
-        <v>-20.77297982424347</v>
+        <v>16.49015090628701</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-426.9787196594624</v>
+        <v>-0.3581246028340785</v>
       </c>
       <c r="B48" t="n">
-        <v>-20.59873718874188</v>
+        <v>16.304652170058</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-424.5403765964429</v>
+        <v>-0.3549003272329792</v>
       </c>
       <c r="B49" t="n">
-        <v>-20.42551259269303</v>
+        <v>16.11992270220502</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-422.0913193645184</v>
+        <v>-0.3516631487677999</v>
       </c>
       <c r="B50" t="n">
-        <v>-20.25327336136716</v>
+        <v>15.93594199853733</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-419.6316430757205</v>
+        <v>-0.3484131871094773</v>
       </c>
       <c r="B51" t="n">
-        <v>-20.08199957120074</v>
+        <v>15.75269020258634</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-417.161401175011</v>
+        <v>-0.3451505618649791</v>
       </c>
       <c r="B52" t="n">
-        <v>-19.91166159960417</v>
+        <v>15.57014807712363</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-414.6806595029104</v>
+        <v>-0.3418753925845086</v>
       </c>
       <c r="B53" t="n">
-        <v>-19.74223492167826</v>
+        <v>15.3882969746398</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-412.1895111671856</v>
+        <v>-0.3385877987873565</v>
       </c>
       <c r="B54" t="n">
-        <v>-19.57370076156175</v>
+        <v>15.20711881315931</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-409.6880034927844</v>
+        <v>-0.3352879000247002</v>
       </c>
       <c r="B55" t="n">
-        <v>-19.40603173337562</v>
+        <v>15.02659606068181</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-407.1762211723109</v>
+        <v>-0.3319758158431079</v>
       </c>
       <c r="B56" t="n">
-        <v>-19.23920941456538</v>
+        <v>14.84671170091782</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-404.6542299230811</v>
+        <v>-0.3286516658553168</v>
       </c>
       <c r="B57" t="n">
-        <v>-19.07321189518987</v>
+        <v>14.66744922212227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-402.1220960579145</v>
+        <v>-0.3253155697401491</v>
       </c>
       <c r="B58" t="n">
-        <v>-18.9080177708606</v>
+        <v>14.4887925928646</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-399.5798876257906</v>
+        <v>-0.3219676472694146</v>
       </c>
       <c r="B59" t="n">
-        <v>-18.74360715348916</v>
+        <v>14.31072624405388</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-397.0276689807418</v>
+        <v>-0.3186080183050851</v>
       </c>
       <c r="B60" t="n">
-        <v>-18.57996013225826</v>
+        <v>14.13323504647737</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-394.4655298508153</v>
+        <v>-0.3152368028746738</v>
       </c>
       <c r="B61" t="n">
-        <v>-18.41706250048057</v>
+        <v>13.95630430462922</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-391.8935101358704</v>
+        <v>-0.3118541211295844</v>
       </c>
       <c r="B62" t="n">
-        <v>-18.25488999573837</v>
+        <v>13.77991972859154</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-389.3117038791105</v>
+        <v>-0.3084600934038801</v>
       </c>
       <c r="B63" t="n">
-        <v>-18.0934309665098</v>
+        <v>13.60406742623776</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-386.7201601537267</v>
+        <v>-0.3050548402191015</v>
       </c>
       <c r="B64" t="n">
-        <v>-17.93266412463099</v>
+        <v>13.42873388587336</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-384.1189631884458</v>
+        <v>-0.3016384822867654</v>
       </c>
       <c r="B65" t="n">
-        <v>-17.77257674515505</v>
+        <v>13.25390595979023</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-381.5081678648841</v>
+        <v>-0.2982111405443423</v>
       </c>
       <c r="B66" t="n">
-        <v>-17.61314979654158</v>
+        <v>13.07957085394204</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-378.8878458070191</v>
+        <v>-0.2947729361664324</v>
       </c>
       <c r="B67" t="n">
-        <v>-17.45436880048338</v>
+        <v>12.90571611470883</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-376.2580717304365</v>
+        <v>-0.2913239905810091</v>
       </c>
       <c r="B68" t="n">
-        <v>-17.29622025869391</v>
+        <v>12.73232961665983</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-373.6189085357614</v>
+        <v>-0.2878644254825766</v>
       </c>
       <c r="B69" t="n">
-        <v>-17.13868841657499</v>
+        <v>12.55939955069613</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-370.9704213535983</v>
+        <v>-0.2843943628248911</v>
       </c>
       <c r="B70" t="n">
-        <v>-16.98175864120638</v>
+        <v>12.38691440848655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-368.3126813382383</v>
+        <v>-0.2809139248816364</v>
       </c>
       <c r="B71" t="n">
-        <v>-16.82541790478638</v>
+        <v>12.21486298135148</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-365.6457532115324</v>
+        <v>-0.2774232342063967</v>
       </c>
       <c r="B72" t="n">
-        <v>-16.66965228522407</v>
+        <v>12.0432343394059</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-362.9697110567643</v>
+        <v>-0.2739224136892092</v>
       </c>
       <c r="B73" t="n">
-        <v>-16.51445000766912</v>
+        <v>11.8720178306354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-360.2846101496158</v>
+        <v>-0.27041158652967</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.35979594945838</v>
+        <v>11.70120306388913</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-357.5905270863293</v>
+        <v>-0.2668908762855254</v>
       </c>
       <c r="B75" t="n">
-        <v>-16.20567960469513</v>
+        <v>11.53077990728506</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-354.8875377911669</v>
+        <v>-0.2633604068408525</v>
       </c>
       <c r="B76" t="n">
-        <v>-16.05209078081323</v>
+        <v>11.36073847151198</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-352.1756880406816</v>
+        <v>-0.2598203024601528</v>
       </c>
       <c r="B77" t="n">
-        <v>-15.89901343560358</v>
+        <v>11.19106910968456</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-349.4550662725026</v>
+        <v>-0.2562706877511726</v>
       </c>
       <c r="B78" t="n">
-        <v>-15.74644028395088</v>
+        <v>11.02176240098362</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-346.725729889902</v>
+        <v>-0.2527116877261388</v>
       </c>
       <c r="B79" t="n">
-        <v>-15.59435829003463</v>
+        <v>10.85280915283367</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-343.9877423655303</v>
+        <v>-0.24914342775321</v>
       </c>
       <c r="B80" t="n">
-        <v>-15.44275588655196</v>
+        <v>10.68420038263189</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-341.2411760537325</v>
+        <v>-0.2455660336146977</v>
       </c>
       <c r="B81" t="n">
-        <v>-15.29162355017352</v>
+        <v>10.51592732072971</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-338.4861093025168</v>
+        <v>-0.2419796314861606</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.14095314246635</v>
+        <v>10.34798139784215</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-335.7225934097989</v>
+        <v>-0.2383843479157017</v>
       </c>
       <c r="B83" t="n">
-        <v>-14.99073139166122</v>
+        <v>10.18035423385078</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-332.950703223969</v>
+        <v>-0.2347803099198595</v>
       </c>
       <c r="B84" t="n">
-        <v>-14.84095003544933</v>
+        <v>10.01303764809109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-330.170504973489</v>
+        <v>-0.2311676448796807</v>
       </c>
       <c r="B85" t="n">
-        <v>-14.69159919013241</v>
+        <v>9.846023633068311</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-327.3820615317619</v>
+        <v>-0.2275464806110096</v>
       </c>
       <c r="B86" t="n">
-        <v>-14.54266862303434</v>
+        <v>9.679304360644952</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-324.5854531104702</v>
+        <v>-0.2239169453747924</v>
       </c>
       <c r="B87" t="n">
-        <v>-14.39415183256744</v>
+        <v>9.512872177528678</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-321.780737219365</v>
+        <v>-0.2202791678315977</v>
       </c>
       <c r="B88" t="n">
-        <v>-14.24603772340984</v>
+        <v>9.346719590712235</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-318.9679906373345</v>
+        <v>-0.2166332770895905</v>
       </c>
       <c r="B89" t="n">
-        <v>-14.09831957810699</v>
+        <v>9.180839270562251</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-316.1472731556824</v>
+        <v>-0.2129794026808088</v>
       </c>
       <c r="B90" t="n">
-        <v>-13.95098729688702</v>
+        <v>9.015224040712715</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-313.3186566756283</v>
+        <v>-0.2093176745843482</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.80403323269299</v>
+        <v>8.849866876930728</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-310.4822121613699</v>
+        <v>-0.2056482232022277</v>
       </c>
       <c r="B92" t="n">
-        <v>-13.65744996017221</v>
+        <v>8.684760897880938</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-307.6379993002128</v>
+        <v>-0.2019711793905019</v>
       </c>
       <c r="B93" t="n">
-        <v>-13.5112278806861</v>
+        <v>8.519899365636306</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-304.7861010814561</v>
+        <v>-0.1982866744382872</v>
       </c>
       <c r="B94" t="n">
-        <v>-13.36536210786605</v>
+        <v>8.355275677477612</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-301.9265710980048</v>
+        <v>-0.1945948400780414</v>
       </c>
       <c r="B95" t="n">
-        <v>-13.21984221866099</v>
+        <v>8.190883363177857</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-299.0594918350333</v>
+        <v>-0.1908958084763849</v>
       </c>
       <c r="B96" t="n">
-        <v>-13.07466361398078</v>
+        <v>8.026716079367887</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-296.18491773498</v>
+        <v>-0.1871897122520253</v>
       </c>
       <c r="B97" t="n">
-        <v>-12.92981609743331</v>
+        <v>7.862767608619372</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-293.302925216938</v>
+        <v>-0.1834766844430971</v>
       </c>
       <c r="B98" t="n">
-        <v>-12.78529420727228</v>
+        <v>7.699031849952893</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-290.413591503346</v>
+        <v>-0.1797568585420907</v>
       </c>
       <c r="B99" t="n">
-        <v>-12.641092517358</v>
+        <v>7.535502821399482</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-287.5169757972651</v>
+        <v>-0.1760303684705572</v>
       </c>
       <c r="B100" t="n">
-        <v>-12.49720241564429</v>
+        <v>7.372174652199371</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-284.613160473918</v>
+        <v>-0.1722973485858117</v>
       </c>
       <c r="B101" t="n">
-        <v>-12.35361984718508</v>
+        <v>7.209041580730423</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-281.7021884744555</v>
+        <v>-0.1685579336704661</v>
       </c>
       <c r="B102" t="n">
-        <v>-12.21033305516144</v>
+        <v>7.046097949551636</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-278.7841477730352</v>
+        <v>-0.1648122589388881</v>
       </c>
       <c r="B103" t="n">
-        <v>-12.06733932070512</v>
+        <v>6.883338203823012</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-275.8591151749225</v>
+        <v>-0.1610604600302145</v>
       </c>
       <c r="B104" t="n">
-        <v>-11.92463376059208</v>
+        <v>6.720756887217663</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-272.9271508138009</v>
+        <v>-0.1573026730006353</v>
       </c>
       <c r="B105" t="n">
-        <v>-11.78220826587346</v>
+        <v>6.558348638125338</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-269.9883366858234</v>
+        <v>-0.1535390343255668</v>
       </c>
       <c r="B106" t="n">
-        <v>-11.640059267259</v>
+        <v>6.396108187472141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-267.0427211132242</v>
+        <v>-0.1497696808961242</v>
       </c>
       <c r="B107" t="n">
-        <v>-11.49817671192107</v>
+        <v>6.234030356051948</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-264.0904039784929</v>
+        <v>-0.1459947499990005</v>
       </c>
       <c r="B108" t="n">
-        <v>-11.35656040821758</v>
+        <v>6.072110048680577</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-261.1314281578338</v>
+        <v>-0.1422143793161671</v>
       </c>
       <c r="B109" t="n">
-        <v>-11.21519940550414</v>
+        <v>5.910342252155854</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-258.1658813246446</v>
+        <v>-0.1384287069593112</v>
       </c>
       <c r="B110" t="n">
-        <v>-11.07409154150288</v>
+        <v>5.748722039741185</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-255.1938357065515</v>
+        <v>-0.1346378713943256</v>
       </c>
       <c r="B111" t="n">
-        <v>-10.93323138747267</v>
+        <v>5.587244555738612</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-252.2153450847416</v>
+        <v>-0.1308420114784343</v>
       </c>
       <c r="B112" t="n">
-        <v>-10.79261047279823</v>
+        <v>5.425905020653356</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-249.2304976230438</v>
+        <v>-0.1270412664638499</v>
       </c>
       <c r="B113" t="n">
-        <v>-10.65222680585157</v>
+        <v>5.264698730444718</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-246.2393763400055</v>
+        <v>-0.1232357759424412</v>
       </c>
       <c r="B114" t="n">
-        <v>-10.51207733746395</v>
+        <v>5.103621045128444</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-243.2420245654639</v>
+        <v>-0.1194256798930931</v>
       </c>
       <c r="B115" t="n">
-        <v>-10.37215166787509</v>
+        <v>4.942667396118768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-240.2385419770698</v>
+        <v>-0.1156111186326463</v>
       </c>
       <c r="B116" t="n">
-        <v>-10.23245008551259</v>
+        <v>4.781833276277324</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-237.2289830910518</v>
+        <v>-0.1117922328363859</v>
       </c>
       <c r="B117" t="n">
-        <v>-10.09296446973634</v>
+        <v>4.62111424249532</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-234.2134252808547</v>
+        <v>-0.1079691635136399</v>
       </c>
       <c r="B118" t="n">
-        <v>-9.953690983404773</v>
+        <v>4.460505910529295</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-231.1919514667755</v>
+        <v>-0.1041420519893921</v>
       </c>
       <c r="B119" t="n">
-        <v>-9.814626889537529</v>
+        <v>4.300003950754939</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>-228.1646109354797</v>
+        <v>-0.100311039939944</v>
       </c>
       <c r="B120" t="n">
-        <v>-9.675763228319932</v>
+        <v>4.13960409372653</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>-225.1314981001225</v>
+        <v>-0.09647626931842287</v>
       </c>
       <c r="B121" t="n">
-        <v>-9.537099459185251</v>
+        <v>3.979302116519707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>-222.0926847338356</v>
+        <v>-0.09263788241448698</v>
       </c>
       <c r="B122" t="n">
-        <v>-9.398630912060518</v>
+        <v>3.81909385233978</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>-219.0482488663033</v>
+        <v>-0.08879602177803987</v>
       </c>
       <c r="B123" t="n">
-        <v>-9.260353980743378</v>
+        <v>3.658975176896714</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>-215.998244955797</v>
+        <v>-0.08495083026756675</v>
       </c>
       <c r="B124" t="n">
-        <v>-9.122261026723619</v>
+        <v>3.498942016225118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>-212.9427628486621</v>
+        <v>-0.08110245100056203</v>
       </c>
       <c r="B125" t="n">
-        <v>-8.984350597554903</v>
+        <v>3.338990337737836</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>-209.8818797768167</v>
+        <v>-0.07725102735922053</v>
       </c>
       <c r="B126" t="n">
-        <v>-8.846619265768243</v>
+        <v>3.179116150824321</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>-206.8156679257702</v>
+        <v>-0.07339670298291823</v>
       </c>
       <c r="B127" t="n">
-        <v>-8.709062597823671</v>
+        <v>3.019315505306565</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>-203.7441835023594</v>
+        <v>-0.06953962175131703</v>
       </c>
       <c r="B128" t="n">
-        <v>-8.571673118019277</v>
+        <v>2.859584488350086</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>-200.6675320115318</v>
+        <v>-0.06567992777202235</v>
       </c>
       <c r="B129" t="n">
-        <v>-8.434452632915832</v>
+        <v>2.699919222067204</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>-197.5857637168321</v>
+        <v>-0.06181776536769155</v>
       </c>
       <c r="B130" t="n">
-        <v>-8.29739275206523</v>
+        <v>2.540315861449089</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>-194.4989794359595</v>
+        <v>-0.05795327907872313</v>
       </c>
       <c r="B131" t="n">
-        <v>-8.160494281712893</v>
+        <v>2.380770594394387</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>-191.4072293199507</v>
+        <v>-0.05408661364020662</v>
       </c>
       <c r="B132" t="n">
-        <v>-8.023748939112757</v>
+        <v>2.221279638166103</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>-188.3106027927361</v>
+        <v>-0.05021791397002748</v>
       </c>
       <c r="B133" t="n">
-        <v>-7.887155576392639</v>
+        <v>2.061839236991343</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>-185.2091784342015</v>
+        <v>-0.04634732515257346</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.750711035638496</v>
+        <v>1.902445659721345</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>-182.1030297628303</v>
+        <v>-0.04247499245161458</v>
       </c>
       <c r="B135" t="n">
-        <v>-7.614411170898719</v>
+        <v>1.743095201916502</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>-178.9922288614686</v>
+        <v>-0.03860106127195208</v>
       </c>
       <c r="B136" t="n">
-        <v>-7.478251920332031</v>
+        <v>1.583784179513159</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>-175.8768551927111</v>
+        <v>-0.03472567714613345</v>
       </c>
       <c r="B137" t="n">
-        <v>-7.34223020454623</v>
+        <v>1.424508926757273</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>-172.7569925262934</v>
+        <v>-0.03084898574708559</v>
       </c>
       <c r="B138" t="n">
-        <v>-7.206344008196012</v>
+        <v>1.265265798551586</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>-169.632709302172</v>
+        <v>-0.02697113284895853</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.070588308413032</v>
+        <v>1.106051164094625</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>-166.5040897679807</v>
+        <v>-0.02309226434994447</v>
       </c>
       <c r="B140" t="n">
-        <v>-6.934961132729519</v>
+        <v>0.9468614110133776</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>-163.3712128245132</v>
+        <v>-0.0192125261911549</v>
       </c>
       <c r="B141" t="n">
-        <v>-6.799459527993418</v>
+        <v>0.7876929316368635</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>-160.2341520385412</v>
+        <v>-0.0153320644333189</v>
       </c>
       <c r="B142" t="n">
-        <v>-6.664079570073309</v>
+        <v>0.6285421368133923</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>-157.0929756547999</v>
+        <v>-0.01145102518671521</v>
       </c>
       <c r="B143" t="n">
-        <v>-6.52881637288426</v>
+        <v>0.4694054438459405</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>-153.94779111409</v>
+        <v>-0.007569554601731364</v>
       </c>
       <c r="B144" t="n">
-        <v>-6.393671986703396</v>
+        <v>0.3102792755283197</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>-150.798649431139</v>
+        <v>-0.003687798873898527</v>
       </c>
       <c r="B145" t="n">
-        <v>-6.258638622233171</v>
+        <v>0.151160061164071</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>-147.6456362388753</v>
+        <v>0.0001940957707397956</v>
       </c>
       <c r="B146" t="n">
-        <v>-6.123714415600348</v>
+        <v>-0.007955765325417967</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>-144.4888418219402</v>
+        <v>0.004075983108119125</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.988898518592268</v>
+        <v>-0.1670717708557786</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>-141.3283348823309</v>
+        <v>0.007957716901144178</v>
       </c>
       <c r="B148" t="n">
-        <v>-5.854186157850983</v>
+        <v>-0.326191520011175</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>-138.1642007349489</v>
+        <v>0.01183915093321207</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.719575528325855</v>
+        <v>-0.4853185804976102</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>-134.9965025971995</v>
+        <v>0.01572013901574376</v>
       </c>
       <c r="B150" t="n">
-        <v>-5.585060929810788</v>
+        <v>-0.6444565241072084</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>-131.8253535333198</v>
+        <v>0.01960053497730788</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.450645475615347</v>
+        <v>-0.803608924254217</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>-128.6508061120787</v>
+        <v>0.02348019274333012</v>
       </c>
       <c r="B152" t="n">
-        <v>-5.316321542328192</v>
+        <v>-0.9627793695759655</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>-125.4729511277737</v>
+        <v>0.02735896624982907</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.182088368814887</v>
+        <v>-1.121971448547242</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>-122.2918634939859</v>
+        <v>0.0312367095588287</v>
       </c>
       <c r="B154" t="n">
-        <v>-5.047942273795462</v>
+        <v>-1.28118876905863</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>-119.1076177033884</v>
+        <v>0.03511327679131478</v>
       </c>
       <c r="B155" t="n">
-        <v>-4.913879604453482</v>
+        <v>-1.44043494653445</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>-115.9203109471446</v>
+        <v>0.03898852216968963</v>
       </c>
       <c r="B156" t="n">
-        <v>-4.779900593002098</v>
+        <v>-1.599713610889217</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>-112.7300235161008</v>
+        <v>0.04286230005886522</v>
       </c>
       <c r="B157" t="n">
-        <v>-4.646002574415129</v>
+        <v>-1.759028413402731</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>-109.5368245007582</v>
+        <v>0.0467344649104594</v>
       </c>
       <c r="B158" t="n">
-        <v>-4.512180967896469</v>
+        <v>-1.918383016723591</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>-106.3408005048322</v>
+        <v>0.05060487133793846</v>
       </c>
       <c r="B159" t="n">
-        <v>-4.378434098006296</v>
+        <v>-2.077781107628497</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>-103.142031577803</v>
+        <v>0.05447337411667866</v>
       </c>
       <c r="B160" t="n">
-        <v>-4.244759347138616</v>
+        <v>-2.237226396969735</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>-99.94060469410563</v>
+        <v>0.05833982816031043</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.111155056036116</v>
+        <v>-2.396722615171218</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>-96.73660004929748</v>
+        <v>0.06220408856657138</v>
       </c>
       <c r="B162" t="n">
-        <v>-3.977618626415653</v>
+        <v>-2.556273520129836</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>-93.5300984016724</v>
+        <v>0.06606601063180752</v>
       </c>
       <c r="B163" t="n">
-        <v>-3.844147464812317</v>
+        <v>-2.715882899700681</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>-90.32116442197903</v>
+        <v>0.06992544982597687</v>
       </c>
       <c r="B164" t="n">
-        <v>-3.710736106057841</v>
+        <v>-2.87555456724441</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>-87.10991203455781</v>
+        <v>0.07378226185401236</v>
       </c>
       <c r="B165" t="n">
-        <v>-3.577387737941168</v>
+        <v>-3.03529237212888</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>-83.89640579919909</v>
+        <v>0.0776363026311896</v>
       </c>
       <c r="B166" t="n">
-        <v>-3.444096914482535</v>
+        <v>-3.195100195755752</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>-80.6807321264113</v>
+        <v>0.08148742828870541</v>
       </c>
       <c r="B167" t="n">
-        <v>-3.310862039202214</v>
+        <v>-3.354981952387952</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>-77.46296672332174</v>
+        <v>0.08533549523257228</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.177679606820992</v>
+        <v>-3.514941599651451</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>-74.24320218522362</v>
+        <v>0.08918036008661977</v>
       </c>
       <c r="B169" t="n">
-        <v>-3.044548987416311</v>
+        <v>-3.674983128733588</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>-71.02151365403114</v>
+        <v>0.09302187977350793</v>
       </c>
       <c r="B170" t="n">
-        <v>-2.911466695887443</v>
+        <v>-3.835110578948205</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>-67.79799382813553</v>
+        <v>0.09685991146481318</v>
       </c>
       <c r="B171" t="n">
-        <v>-2.778432112416336</v>
+        <v>-3.995328029015799</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>-64.57271303910613</v>
+        <v>0.1006943126193836</v>
       </c>
       <c r="B172" t="n">
-        <v>-2.645440809376598</v>
+        <v>-4.155639604546193</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>-61.34576923160873</v>
+        <v>0.1045249410070191</v>
       </c>
       <c r="B173" t="n">
-        <v>-2.51249313291966</v>
+        <v>-4.316049482321636</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>-58.11722702874166</v>
+        <v>0.1083516546753326</v>
       </c>
       <c r="B174" t="n">
-        <v>-2.379583719027726</v>
+        <v>-4.476561885257733</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>-54.88717953152653</v>
+        <v>0.1121743120052411</v>
       </c>
       <c r="B175" t="n">
-        <v>-2.246711969017529</v>
+        <v>-4.637181092642085</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>-51.65571340212911</v>
+        <v>0.1159927716853349</v>
       </c>
       <c r="B176" t="n">
-        <v>-2.113876338578191</v>
+        <v>-4.797911436319859</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>-48.42291578159255</v>
+        <v>0.1198068927463956</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.981075284859781</v>
+        <v>-4.958757307612244</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>-45.18886288579929</v>
+        <v>0.1236165345541056</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.848305369057342</v>
+        <v>-5.119723156866175</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>-41.95363075890409</v>
+        <v>0.1274215568154697</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.715563159660556</v>
+        <v>-5.280813495539288</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>-38.71731782843555</v>
+        <v>0.1312218196046752</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.58284902522729</v>
+        <v>-5.442032901876823</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>-35.47999999152064</v>
+        <v>0.1350171833355713</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.450159541230565</v>
+        <v>-5.603386017218862</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>-32.24176477528384</v>
+        <v>0.1388075088258444</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.317493183309199</v>
+        <v>-5.764877558461113</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>-29.00269951719753</v>
+        <v>0.1425926572471385</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.184848429658827</v>
+        <v>-5.926512310829465</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>-25.76288020559103</v>
+        <v>0.1463724901502097</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.052221866013909</v>
+        <v>-6.088295133679633</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>-22.52239464988883</v>
+        <v>0.1501468694886338</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.9196119755507809</v>
+        <v>-6.25023096634713</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>-19.28132425438637</v>
+        <v>0.1539156576202078</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.7870162967391821</v>
+        <v>-6.412324830135637</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>-16.03975665294326</v>
+        <v>0.1576787172799178</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.6544333164108854</v>
+        <v>-6.574581825344977</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>-12.79777370422316</v>
+        <v>0.1614359116313019</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.5218605761359979</v>
+        <v>-6.737007142488799</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>-9.555462648528653</v>
+        <v>0.1651871042420724</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.3892965655085276</v>
+        <v>-6.89960605994723</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>-6.312900208843121</v>
+        <v>0.1689321590856651</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.2567378820380586</v>
+        <v>-7.062383946493833</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>-3.070179010875414</v>
+        <v>0.1726709405807584</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.1241839635500502</v>
+        <v>-7.225346271036444</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>0.1726244192368247</v>
+        <v>0.1764033135430121</v>
       </c>
       <c r="B192" t="n">
-        <v>0.008368590993067269</v>
+        <v>-7.388498596088402</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>3.415411663158736</v>
+        <v>0.1801291432295362</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1409193968462871</v>
+        <v>-7.551846588951079</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>6.658117346879786</v>
+        <v>0.1838482953445689</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2734737474023822</v>
+        <v>-7.715396025209341</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>9.90064284615241</v>
+        <v>0.187560635993567</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4060312580716448</v>
+        <v>-7.879152783768702</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>13.14290648217114</v>
+        <v>0.1912660317345772</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5385943837116197</v>
+        <v>-8.043122859201031</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>16.38483174432102</v>
+        <v>0.1949643495728997</v>
       </c>
       <c r="B197" t="n">
-        <v>0.6711665267758157</v>
+        <v>-8.207312364318389</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>19.62632581795809</v>
+        <v>0.1986554569355617</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8037482507500144</v>
+        <v>-8.371727529037713</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>22.86731200655376</v>
+        <v>0.2023392216925857</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9363429608730377</v>
+        <v>-8.53637470798115</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>26.10769236313056</v>
+        <v>0.20601551216368</v>
       </c>
       <c r="B200" t="n">
-        <v>1.068950275142356</v>
+        <v>-8.701260385821639</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>29.34740675661478</v>
+        <v>0.2096841970952162</v>
       </c>
       <c r="B201" t="n">
-        <v>1.201576444817919</v>
+        <v>-8.866391177245458</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>32.58634053499418</v>
+        <v>0.2133451456885559</v>
       </c>
       <c r="B202" t="n">
-        <v>1.334218247917609</v>
+        <v>-9.031773836505364</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>35.82443382581928</v>
+        <v>0.2169982275643672</v>
       </c>
       <c r="B203" t="n">
-        <v>1.466881941277397</v>
+        <v>-9.19741525536212</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>39.06159371452812</v>
+        <v>0.2206433128119232</v>
       </c>
       <c r="B204" t="n">
-        <v>1.599568098129584</v>
+        <v>-9.363322477432597</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>42.29774406633911</v>
+        <v>0.224280271929999</v>
       </c>
       <c r="B205" t="n">
-        <v>1.732280139276359</v>
+        <v>-9.529502691897525</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>45.53279223664642</v>
+        <v>0.2279089758560224</v>
       </c>
       <c r="B206" t="n">
-        <v>1.865018642208747</v>
+        <v>-9.695963244829514</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>48.7666507646181</v>
+        <v>0.2315292959561156</v>
       </c>
       <c r="B207" t="n">
-        <v>1.99778513585792</v>
+        <v>-9.862711642382299</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>51.99924383484117</v>
+        <v>0.235141104042205</v>
       </c>
       <c r="B208" t="n">
-        <v>2.130583051197533</v>
+        <v>-10.02975556041222</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>55.23048405955573</v>
+        <v>0.2387442723260244</v>
       </c>
       <c r="B209" t="n">
-        <v>2.263413925265127</v>
+        <v>-10.19710284164649</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>58.46029549295852</v>
+        <v>0.2423386734519882</v>
       </c>
       <c r="B210" t="n">
-        <v>2.396281200340875</v>
+        <v>-10.36476150860736</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>61.68858545058891</v>
+        <v>0.2459241804744109</v>
       </c>
       <c r="B211" t="n">
-        <v>2.529185470420537</v>
+        <v>-10.53273976603516</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>64.91526710129963</v>
+        <v>0.249500666870675</v>
       </c>
       <c r="B212" t="n">
-        <v>2.662128282095225</v>
+        <v>-10.70104601053159</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>68.14028099928345</v>
+        <v>0.2530680065007118</v>
       </c>
       <c r="B213" t="n">
-        <v>2.795115954577836</v>
+        <v>-10.86968883010223</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>71.36351240950681</v>
+        <v>0.2566260736288697</v>
       </c>
       <c r="B214" t="n">
-        <v>2.928145282018597</v>
+        <v>-11.03867701653965</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>74.58489683528974</v>
+        <v>0.2601747429162483</v>
       </c>
       <c r="B215" t="n">
-        <v>3.061221641452031</v>
+        <v>-11.20801957173636</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>77.8043474289781</v>
+        <v>0.2637138894101516</v>
       </c>
       <c r="B216" t="n">
-        <v>3.194346603984034</v>
+        <v>-11.37772571432781</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>81.02178838722844</v>
+        <v>0.2672433885265228</v>
       </c>
       <c r="B217" t="n">
-        <v>3.327523659157598</v>
+        <v>-11.54780488534741</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>84.2371165914775</v>
+        <v>0.2707631160304871</v>
       </c>
       <c r="B218" t="n">
-        <v>3.46075151809358</v>
+        <v>-11.71826675379603</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>87.45027273423894</v>
+        <v>0.2742729480786304</v>
       </c>
       <c r="B219" t="n">
-        <v>3.594036557692839</v>
+        <v>-11.88912123433804</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>90.66115919152863</v>
+        <v>0.2777727611527316</v>
       </c>
       <c r="B220" t="n">
-        <v>3.727378459834678</v>
+        <v>-12.06037848506438</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>93.86970063842406</v>
+        <v>0.2812624320740013</v>
       </c>
       <c r="B221" t="n">
-        <v>3.860780744720024</v>
+        <v>-12.23204892066162</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>97.07581620479144</v>
+        <v>0.2847418380054834</v>
       </c>
       <c r="B222" t="n">
-        <v>3.994245985020691</v>
+        <v>-12.40414322424002</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>100.2794192210509</v>
+        <v>0.2882108563986664</v>
       </c>
       <c r="B223" t="n">
-        <v>4.12777580439575</v>
+        <v>-12.5766723484755</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>103.4804291893521</v>
+        <v>0.2916693650280899</v>
       </c>
       <c r="B224" t="n">
-        <v>4.261372790395626</v>
+        <v>-12.74964753468334</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>106.6787652061484</v>
+        <v>0.2951172419643301</v>
       </c>
       <c r="B225" t="n">
-        <v>4.395039546291565</v>
+        <v>-12.92308032022785</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>109.8743520786866</v>
+        <v>0.2985543655355937</v>
       </c>
       <c r="B226" t="n">
-        <v>4.528779651621216</v>
+        <v>-13.09698254458921</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>113.0670869690388</v>
+        <v>0.3019806143479743</v>
       </c>
       <c r="B227" t="n">
-        <v>4.662591867757172</v>
+        <v>-13.27136636689415</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>116.2569063622722</v>
+        <v>0.3053958672431088</v>
       </c>
       <c r="B228" t="n">
-        <v>4.796481720218827</v>
+        <v>-13.44624427289346</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>119.4437294049244</v>
+        <v>0.308800003316454</v>
       </c>
       <c r="B229" t="n">
-        <v>4.930451863988502</v>
+        <v>-13.62162909291374</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>122.627476075345</v>
+        <v>0.312192901857839</v>
       </c>
       <c r="B230" t="n">
-        <v>5.064504956832226</v>
+        <v>-13.79753400727606</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>125.8080602686188</v>
+        <v>0.3155744423781986</v>
       </c>
       <c r="B231" t="n">
-        <v>5.198642707020118</v>
+        <v>-13.97397256723188</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>128.9853961997616</v>
+        <v>0.3189445045707044</v>
       </c>
       <c r="B232" t="n">
-        <v>5.332866828155718</v>
+        <v>-14.15095870585584</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>132.1594149016205</v>
+        <v>0.3223029682800324</v>
       </c>
       <c r="B233" t="n">
-        <v>5.467181966380812</v>
+        <v>-14.32850674943851</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>135.330025351238</v>
+        <v>0.3256497135160745</v>
       </c>
       <c r="B234" t="n">
-        <v>5.601588887104316</v>
+        <v>-14.50663144009931</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>138.4971530917165</v>
+        <v>0.3289846204106687</v>
       </c>
       <c r="B235" t="n">
-        <v>5.736091296518694</v>
+        <v>-14.68534794706497</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>141.6607123961695</v>
+        <v>0.3323075691980438</v>
       </c>
       <c r="B236" t="n">
-        <v>5.870690968828359</v>
+        <v>-14.86467188389881</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>144.820640354314</v>
+        <v>0.3356184402170055</v>
       </c>
       <c r="B237" t="n">
-        <v>6.00539360410316</v>
+        <v>-15.04461933132039</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>147.9768462771784</v>
+        <v>0.3389171138641149</v>
       </c>
       <c r="B238" t="n">
-        <v>6.140200026010383</v>
+        <v>-15.22520685096934</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>151.1292444045843</v>
+        <v>0.342203470583781</v>
       </c>
       <c r="B239" t="n">
-        <v>6.275112062933708</v>
+        <v>-15.40645150769011</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>154.2777669804787</v>
+        <v>0.3454773908424099</v>
       </c>
       <c r="B240" t="n">
-        <v>6.410134487441479</v>
+        <v>-15.58837089022223</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>157.4223284166665</v>
+        <v>0.3487387551068614</v>
       </c>
       <c r="B241" t="n">
-        <v>6.545269168165356</v>
+        <v>-15.77098313370554</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>160.5628497490364</v>
+        <v>0.351987443825261</v>
       </c>
       <c r="B242" t="n">
-        <v>6.680518954341079</v>
+        <v>-15.95430694396945</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>163.6992515400972</v>
+        <v>0.3552233373954397</v>
       </c>
       <c r="B243" t="n">
-        <v>6.815886728573536</v>
+        <v>-16.13836162106599</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>166.8314655917337</v>
+        <v>0.3584463161253339</v>
       </c>
       <c r="B244" t="n">
-        <v>6.951377382404331</v>
+        <v>-16.32316708223419</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>169.9593960560591</v>
+        <v>0.3616562602459142</v>
       </c>
       <c r="B245" t="n">
-        <v>7.086990863564354</v>
+        <v>-16.50874389779596</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>173.0829918163692</v>
+        <v>0.3648530498516768</v>
       </c>
       <c r="B246" t="n">
-        <v>7.222735099062388</v>
+        <v>-16.69511331334065</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>176.202157502594</v>
+        <v>0.3680365648783937</v>
       </c>
       <c r="B247" t="n">
-        <v>7.358610074428128</v>
+        <v>-16.88229728209139</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>179.3168080734908</v>
+        <v>0.3712066850766522</v>
       </c>
       <c r="B248" t="n">
-        <v>7.494617804161166</v>
+        <v>-17.07031849745013</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>182.4268818502251</v>
+        <v>0.3743632900010368</v>
       </c>
       <c r="B249" t="n">
-        <v>7.630764308447532</v>
+        <v>-17.25920043192268</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>185.5322891330504</v>
+        <v>0.3775062589432682</v>
       </c>
       <c r="B250" t="n">
-        <v>7.767050633171654</v>
+        <v>-17.44896736545262</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>188.6329678489116</v>
+        <v>0.3806354709366472</v>
       </c>
       <c r="B251" t="n">
-        <v>7.903482887562093</v>
+        <v>-17.63964443248591</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>191.7288284647445</v>
+        <v>0.3837508047113409</v>
       </c>
       <c r="B252" t="n">
-        <v>8.040062169805445</v>
+        <v>-17.83125766000097</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>194.8198033312801</v>
+        <v>0.3868521386564663</v>
       </c>
       <c r="B253" t="n">
-        <v>8.176793659157564</v>
+        <v>-18.02383400997979</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>197.9058030605296</v>
+        <v>0.3899393508081238</v>
       </c>
       <c r="B254" t="n">
-        <v>8.313678503452497</v>
+        <v>-18.21740143126138</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>200.986766607871</v>
+        <v>0.3930123187773966</v>
       </c>
       <c r="B255" t="n">
-        <v>8.450722940814899</v>
+        <v>-18.41198890021311</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>204.0626150384</v>
+        <v>0.3960709197825668</v>
       </c>
       <c r="B256" t="n">
-        <v>8.587930251064568</v>
+        <v>-18.60762648846626</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>207.1332711236202</v>
+        <v>0.3991150305456548</v>
       </c>
       <c r="B257" t="n">
-        <v>8.725303688278281</v>
+        <v>-18.80434540427256</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>210.1986560728325</v>
+        <v>0.40214452728133</v>
       </c>
       <c r="B258" t="n">
-        <v>8.862846600189826</v>
+        <v>-19.00217805800112</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>213.2586979680641</v>
+        <v>0.4051592857228578</v>
       </c>
       <c r="B259" t="n">
-        <v>9.000563353457325</v>
+        <v>-19.20115814034256</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>216.3133297967842</v>
+        <v>0.408159180973342</v>
       </c>
       <c r="B260" t="n">
-        <v>9.138459422814822</v>
+        <v>-19.40132066564593</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>219.362451745146</v>
+        <v>0.4111440875767977</v>
       </c>
       <c r="B261" t="n">
-        <v>9.276534107170814</v>
+        <v>-19.60270207020053</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>222.4060195661466</v>
+        <v>0.4141138794259706</v>
       </c>
       <c r="B262" t="n">
-        <v>9.414797091508497</v>
+        <v>-19.80534027832639</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>225.4439500566386</v>
+        <v>0.4170684297436427</v>
       </c>
       <c r="B263" t="n">
-        <v>9.553250880966663</v>
+        <v>-20.00927479104191</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>228.4761600614436</v>
+        <v>0.4200076110506678</v>
       </c>
       <c r="B264" t="n">
-        <v>9.691898010470666</v>
+        <v>-20.21454677866227</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>231.5025771072486</v>
+        <v>0.4229312951414719</v>
       </c>
       <c r="B265" t="n">
-        <v>9.830743164642183</v>
+        <v>-20.42119918042165</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>234.5231415798937</v>
+        <v>0.4258393530351987</v>
       </c>
       <c r="B266" t="n">
-        <v>9.96979311214429</v>
+        <v>-20.62927680769292</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>237.5377643147674</v>
+        <v>0.4287316549529569</v>
       </c>
       <c r="B267" t="n">
-        <v>10.10904951147443</v>
+        <v>-20.83882645930806</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>240.5463792746585</v>
+        <v>0.4316080702884244</v>
       </c>
       <c r="B268" t="n">
-        <v>10.24851823798496</v>
+        <v>-21.04989704558103</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>243.5489150021525</v>
+        <v>0.4344684675947744</v>
       </c>
       <c r="B269" t="n">
-        <v>10.38820417529696</v>
+        <v>-21.26253972522122</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>246.5452942253401</v>
+        <v>0.4373127145417127</v>
       </c>
       <c r="B270" t="n">
-        <v>10.52811121965253</v>
+        <v>-21.47680804544077</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>249.5354511303664</v>
+        <v>0.4401406778921417</v>
       </c>
       <c r="B271" t="n">
-        <v>10.66824544275318</v>
+        <v>-21.69275809787051</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>252.5193085606271</v>
+        <v>0.4429522235136359</v>
       </c>
       <c r="B272" t="n">
-        <v>10.80861086580464</v>
+        <v>-21.91044869608359</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>255.4967949236708</v>
+        <v>0.4457472163245059</v>
       </c>
       <c r="B273" t="n">
-        <v>10.94921264437548</v>
+        <v>-22.12994155038299</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>258.4678449780558</v>
+        <v>0.4485255203343226</v>
       </c>
       <c r="B274" t="n">
-        <v>11.09005704565425</v>
+        <v>-22.35130148126646</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>261.432369871483</v>
+        <v>0.4512869985893861</v>
       </c>
       <c r="B275" t="n">
-        <v>11.23114616459647</v>
+        <v>-22.57459662511479</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>264.3903159177707</v>
+        <v>0.4540315132334157</v>
       </c>
       <c r="B276" t="n">
-        <v>11.37248855882594</v>
+        <v>-22.79989868816008</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>267.3416002550832</v>
+        <v>0.4567589254831908</v>
       </c>
       <c r="B277" t="n">
-        <v>11.51408752708925</v>
+        <v>-23.02728319826177</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>270.2861689477417</v>
+        <v>0.4594690956936145</v>
       </c>
       <c r="B278" t="n">
-        <v>11.65595183801998</v>
+        <v>-23.2568298032973</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>273.2239332434033</v>
+        <v>0.46216188335</v>
       </c>
       <c r="B279" t="n">
-        <v>11.79808387450842</v>
+        <v>-23.48862257321457</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>276.154828587243</v>
+        <v>0.4648371471812126</v>
       </c>
       <c r="B280" t="n">
-        <v>11.94049036016366</v>
+        <v>-23.72275036406316</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279.0787829072635</v>
+        <v>0.4674947451847373</v>
       </c>
       <c r="B281" t="n">
-        <v>12.08317713622878</v>
+        <v>-23.95930718831229</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281.9957317365922</v>
+        <v>0.4701345347682219</v>
       </c>
       <c r="B282" t="n">
-        <v>12.22615112223383</v>
+        <v>-24.19839265024249</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>284.9055918987527</v>
+        <v>0.4727563728290187</v>
       </c>
       <c r="B283" t="n">
-        <v>12.36941612316796</v>
+        <v>-24.44011240435319</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>287.8083161147878</v>
+        <v>0.475360115950997</v>
       </c>
       <c r="B284" t="n">
-        <v>12.51298258219961</v>
+        <v>-24.68457868845941</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>290.7038092352855</v>
+        <v>0.4779456205615019</v>
       </c>
       <c r="B285" t="n">
-        <v>12.65685231494704</v>
+        <v>-24.93191089445231</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>293.5920120286447</v>
+        <v>0.4805127431783869</v>
       </c>
       <c r="B286" t="n">
-        <v>12.8010337961732</v>
+        <v>-25.18223621878542</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>296.4728713317533</v>
+        <v>0.4830613407152213</v>
       </c>
       <c r="B287" t="n">
-        <v>12.94553674527343</v>
+        <v>-25.4356903926167</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>299.3462979262456</v>
+        <v>0.4855912707986806</v>
       </c>
       <c r="B288" t="n">
-        <v>13.0903643804925</v>
+        <v>-25.69241848454575</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>302.2122214277216</v>
+        <v>0.4881023922163188</v>
       </c>
       <c r="B289" t="n">
-        <v>13.23552326647092</v>
+        <v>-25.95257582320692</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>305.0705822341291</v>
+        <v>0.4905945654189129</v>
       </c>
       <c r="B290" t="n">
-        <v>13.3810224165716</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>307.9213030597575</v>
-      </c>
-      <c r="B291" t="n">
-        <v>13.52686760329569</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>310.7643242774222</v>
-      </c>
-      <c r="B292" t="n">
-        <v>13.67306812502982</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>313.5995810821393</v>
-      </c>
-      <c r="B293" t="n">
-        <v>13.81963224751801</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>316.4269956439912</v>
-      </c>
-      <c r="B294" t="n">
-        <v>13.96656619192552</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>319.2464969959914</v>
-      </c>
-      <c r="B295" t="n">
-        <v>14.11387737176518</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>322.0580314854702</v>
-      </c>
-      <c r="B296" t="n">
-        <v>14.26157685334254</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>324.8615037164732</v>
-      </c>
-      <c r="B297" t="n">
-        <v>14.40966779501751</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>327.6568721100469</v>
-      </c>
-      <c r="B298" t="n">
-        <v>14.55816389526243</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>330.4440678885829</v>
-      </c>
-      <c r="B299" t="n">
-        <v>14.70707388257757</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>333.2229953460098</v>
-      </c>
-      <c r="B300" t="n">
-        <v>14.85640137131674</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>335.9936127723325</v>
-      </c>
-      <c r="B301" t="n">
-        <v>15.00616066613749</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>338.7558686225206</v>
-      </c>
-      <c r="B302" t="n">
-        <v>15.156364666325</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>341.5096436761913</v>
-      </c>
-      <c r="B303" t="n">
-        <v>15.30701269885822</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>344.2549073865875</v>
-      </c>
-      <c r="B304" t="n">
-        <v>15.45812218137144</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>346.991587101889</v>
-      </c>
-      <c r="B305" t="n">
-        <v>15.60970248062707</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>349.7196142534867</v>
-      </c>
-      <c r="B306" t="n">
-        <v>15.76176365243611</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>352.4389121337685</v>
-      </c>
-      <c r="B307" t="n">
-        <v>15.91431498433919</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>355.1494270926013</v>
-      </c>
-      <c r="B308" t="n">
-        <v>16.06737002528819</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>357.8510801970496</v>
-      </c>
-      <c r="B309" t="n">
-        <v>16.22093783878516</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>360.5438066382729</v>
-      </c>
-      <c r="B310" t="n">
-        <v>16.37503089213486</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>363.2275428496633</v>
-      </c>
-      <c r="B311" t="n">
-        <v>16.52966178817274</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>365.9022246532524</v>
-      </c>
-      <c r="B312" t="n">
-        <v>16.68484348963884</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>368.567762831468</v>
-      </c>
-      <c r="B313" t="n">
-        <v>16.84058434372324</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>371.2241263379426</v>
-      </c>
-      <c r="B314" t="n">
-        <v>16.99690480139471</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>373.8712169187363</v>
-      </c>
-      <c r="B315" t="n">
-        <v>17.15381190736361</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>376.5089724900613</v>
-      </c>
-      <c r="B316" t="n">
-        <v>17.31132056084605</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>379.137336572072</v>
-      </c>
-      <c r="B317" t="n">
-        <v>17.46944737383994</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>381.7562409308688</v>
-      </c>
-      <c r="B318" t="n">
-        <v>17.62820672809733</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>384.3656011949115</v>
-      </c>
-      <c r="B319" t="n">
-        <v>17.7876102459717</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>386.9653606749796</v>
-      </c>
-      <c r="B320" t="n">
-        <v>17.94767568169179</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>389.5554528331833</v>
-      </c>
-      <c r="B321" t="n">
-        <v>18.10841937861546</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>392.1358021354193</v>
-      </c>
-      <c r="B322" t="n">
-        <v>18.26985609111383</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>394.7063540947545</v>
-      </c>
-      <c r="B323" t="n">
-        <v>18.4320056722712</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>397.2670258638165</v>
-      </c>
-      <c r="B324" t="n">
-        <v>18.59488261021806</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>399.8177536362505</v>
-      </c>
-      <c r="B325" t="n">
-        <v>18.75850570995274</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>402.3584685722021</v>
-      </c>
-      <c r="B326" t="n">
-        <v>18.92289395656836</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>404.8890949892802</v>
-      </c>
-      <c r="B327" t="n">
-        <v>19.08806437789944</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>407.4095785715107</v>
-      </c>
-      <c r="B328" t="n">
-        <v>19.25404057283519</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>409.919845040956</v>
-      </c>
-      <c r="B329" t="n">
-        <v>19.42084167092697</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>412.419822252892</v>
-      </c>
-      <c r="B330" t="n">
-        <v>19.58848822570659</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>414.9094283812789</v>
-      </c>
-      <c r="B331" t="n">
-        <v>19.75699936300025</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>417.3886151257879</v>
-      </c>
-      <c r="B332" t="n">
-        <v>19.92640265298052</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>419.8573004022459</v>
-      </c>
-      <c r="B333" t="n">
-        <v>20.09671860652347</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>422.3154161322108</v>
-      </c>
-      <c r="B334" t="n">
-        <v>20.26797227402234</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>424.7628986063081</v>
-      </c>
-      <c r="B335" t="n">
-        <v>20.44018991423162</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>427.1996572789531</v>
-      </c>
-      <c r="B336" t="n">
-        <v>20.61339324325366</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>429.6256391806845</v>
-      </c>
-      <c r="B337" t="n">
-        <v>20.78761342528665</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>432.0407666402733</v>
-      </c>
-      <c r="B338" t="n">
-        <v>20.962876660002</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>434.4449663148073</v>
-      </c>
-      <c r="B339" t="n">
-        <v>21.13921200652996</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>436.8381691514398</v>
-      </c>
-      <c r="B340" t="n">
-        <v>21.3166499396289</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>439.2203018709669</v>
-      </c>
-      <c r="B341" t="n">
-        <v>21.49522152118542</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>441.5913002893877</v>
-      </c>
-      <c r="B342" t="n">
-        <v>21.67496128648604</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>443.9510809016919</v>
-      </c>
-      <c r="B343" t="n">
-        <v>21.85590052233794</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>446.2995692755619</v>
-      </c>
-      <c r="B344" t="n">
-        <v>22.03807409164457</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>448.6367001382736</v>
-      </c>
-      <c r="B345" t="n">
-        <v>22.22152060457498</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>450.9624048621395</v>
-      </c>
-      <c r="B346" t="n">
-        <v>22.40627941893662</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>453.2765919478367</v>
-      </c>
-      <c r="B347" t="n">
-        <v>22.59238608554245</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>455.5791954891408</v>
-      </c>
-      <c r="B348" t="n">
-        <v>22.7798839009387</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>457.8701455325519</v>
-      </c>
-      <c r="B349" t="n">
-        <v>22.96881746069</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>460.1493750065135</v>
-      </c>
-      <c r="B350" t="n">
-        <v>23.15923419538481</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>462.4167922057921</v>
-      </c>
-      <c r="B351" t="n">
-        <v>23.35117652399363</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>464.6723354806541</v>
-      </c>
-      <c r="B352" t="n">
-        <v>23.54469797039296</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>466.9159344974843</v>
-      </c>
-      <c r="B353" t="n">
-        <v>23.73985155345317</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>469.1474963314266</v>
-      </c>
-      <c r="B354" t="n">
-        <v>23.93668683087926</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>471.366963288048</v>
-      </c>
-      <c r="B355" t="n">
-        <v>24.13526531675949</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>473.5742486517984</v>
-      </c>
-      <c r="B356" t="n">
-        <v>24.33564376825299</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>475.7692884234614</v>
-      </c>
-      <c r="B357" t="n">
-        <v>24.53788801184913</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>477.9519993870979</v>
-      </c>
-      <c r="B358" t="n">
-        <v>24.74206196065981</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>480.1223246090354</v>
-      </c>
-      <c r="B359" t="n">
-        <v>24.94824019207953</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>482.2801950662918</v>
-      </c>
-      <c r="B360" t="n">
-        <v>25.15649739692712</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>484.4255098496301</v>
-      </c>
-      <c r="B361" t="n">
-        <v>25.36690295969913</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>486.5582237704055</v>
-      </c>
-      <c r="B362" t="n">
-        <v>25.57954671167865</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>488.6782505794302</v>
-      </c>
-      <c r="B363" t="n">
-        <v>25.79451094353706</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>490.7855347812896</v>
-      </c>
-      <c r="B364" t="n">
-        <v>26.01189158281179</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>492.8800095788409</v>
-      </c>
-      <c r="B365" t="n">
-        <v>26.23178616953505</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>494.961606367523</v>
-      </c>
-      <c r="B366" t="n">
-        <v>26.45429793567675</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>497.0302626045175</v>
-      </c>
-      <c r="B367" t="n">
-        <v>26.67953701311761</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>499.0859352644209</v>
-      </c>
-      <c r="B368" t="n">
-        <v>26.90762558585894</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>501.128550796317</v>
-      </c>
-      <c r="B369" t="n">
-        <v>27.13868476702063</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>503.1580634223577</v>
-      </c>
-      <c r="B370" t="n">
-        <v>27.37284997164042</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>505.1744147975543</v>
-      </c>
-      <c r="B371" t="n">
-        <v>27.6102618188581</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>507.1775826033028</v>
-      </c>
-      <c r="B372" t="n">
-        <v>27.85108039735238</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>509.1675273085694</v>
-      </c>
-      <c r="B373" t="n">
-        <v>28.0954703247426</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>511.1442133936517</v>
-      </c>
-      <c r="B374" t="n">
-        <v>28.34360705245109</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>513.1076383016425</v>
-      </c>
-      <c r="B375" t="n">
-        <v>28.59568877589066</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>515.0577754858793</v>
-      </c>
-      <c r="B376" t="n">
-        <v>28.85191773725492</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>516.9946418144401</v>
-      </c>
-      <c r="B377" t="n">
-        <v>29.11252400655075</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>518.9182618923427</v>
-      </c>
-      <c r="B378" t="n">
-        <v>29.37775507210999</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>520.8286672211713</v>
-      </c>
-      <c r="B379" t="n">
-        <v>29.6478775150443</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>522.7259058166068</v>
-      </c>
-      <c r="B380" t="n">
-        <v>29.92318114793106</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>524.6100786912355</v>
-      </c>
-      <c r="B381" t="n">
-        <v>30.20399458348015</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>526.4812762673264</v>
-      </c>
-      <c r="B382" t="n">
-        <v>30.49066481068688</v>
+        <v>-26.21632902462564</v>
       </c>
     </row>
   </sheetData>
